--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -145,6 +145,33 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">Merge Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 epoch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Layer types</t>
   </si>
   <si>
@@ -239,15 +266,22 @@
   </si>
   <si>
     <t xml:space="preserve">Word Bidirectional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -279,12 +313,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -370,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,6 +426,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,6 +465,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,6 +478,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,7 +533,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -492,15 +562,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N32"/>
+  <dimension ref="A2:N50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,10 +601,10 @@
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -562,15 +632,15 @@
         <v>0.903</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.903</v>
+        <v>0.9</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>0.903</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -603,10 +673,10 @@
       <c r="J4" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -634,15 +704,15 @@
         <v>0.914</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.914</v>
+        <v>0.91</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>0.914</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -675,10 +745,10 @@
       <c r="J6" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -711,10 +781,10 @@
       <c r="J7" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -742,15 +812,15 @@
         <v>0.874</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.874</v>
+        <v>0.87</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0.874</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -783,10 +853,10 @@
       <c r="J9" s="2" t="n">
         <v>0.883</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -819,10 +889,10 @@
       <c r="J10" s="2" t="n">
         <v>0.838</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1015,10 +1085,10 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1051,10 +1121,10 @@
       <c r="J19" s="2" t="n">
         <v>0.917</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1087,10 +1157,10 @@
       <c r="J20" s="2" t="n">
         <v>0.727</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1123,10 +1193,10 @@
       <c r="J21" s="2" t="n">
         <v>0.757</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1134,19 +1204,19 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="F22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H22" s="2" t="n">
@@ -1158,10 +1228,10 @@
       <c r="J22" s="2" t="n">
         <v>0.917</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1169,19 +1239,19 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="F23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H23" s="2" t="n">
@@ -1193,10 +1263,10 @@
       <c r="J23" s="2" t="n">
         <v>0.914</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1204,19 +1274,19 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H24" s="2" t="n">
@@ -1228,10 +1298,10 @@
       <c r="J24" s="2" t="n">
         <v>0.908</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1250,20 +1320,24 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>32</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="0" t="s">
+        <v>0.925</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1276,22 +1350,22 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H27" s="2" t="n">
@@ -1305,25 +1379,25 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G28" s="0" t="n">
+      <c r="F28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H28" s="2" t="n">
@@ -1337,25 +1411,25 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" s="0" t="n">
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H29" s="2" t="n">
@@ -1369,25 +1443,25 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" s="0" t="n">
+      <c r="F30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H30" s="2" t="n">
@@ -1420,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.75</v>
+        <v>0.848</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.75</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,16 +1523,292 @@
         <v>8</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.75</v>
+        <v>0.932</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.75</v>
+        <v>0.932</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0.916</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>0.907</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>0.683</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>0.932</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>0.923</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>0.927</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:F43"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1474,275 +1824,328 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.77551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2551020408163"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="0" t="s">
-        <v>40</v>
-      </c>
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="0"/>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="E3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="K3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="0" t="n">
+      <c r="M3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="0" t="n">
+      <c r="O3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0"/>
+      <c r="M4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="0"/>
+      <c r="M5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="0"/>
+      <c r="M6" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0"/>
+      <c r="M7" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="0"/>
+      <c r="M8" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="D10" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>67</v>
+      <c r="G11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0"/>
+      <c r="I12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0"/>
+      <c r="I13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="0"/>
+      <c r="I14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="16" t="n">
+        <f aca="false">10*10*2*2*4*6*2*2*10*8*14</f>
+        <v>43008000</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <f aca="false">G15*1.5/(24*30*12)</f>
+        <v>7466.66666666667</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +2172,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1795,7 +2198,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Hyperparameter" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CompilePref" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="118">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -49,6 +50,9 @@
     <t xml:space="preserve">F-1</t>
   </si>
   <si>
+    <t xml:space="preserve">New F-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
   <si>
@@ -70,6 +74,9 @@
     <t xml:space="preserve">categorical_crossentropy</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">CE only</t>
   </si>
   <si>
@@ -142,9 +149,6 @@
     <t xml:space="preserve">sum</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Merge Layer</t>
   </si>
   <si>
@@ -172,6 +176,9 @@
     <t xml:space="preserve">3 epoch</t>
   </si>
   <si>
+    <t xml:space="preserve">Testing 2 epoch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Layer types</t>
   </si>
   <si>
@@ -272,6 +279,105 @@
   </si>
   <si>
     <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UD Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS data train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, 48, 49, 49, 49, 49, 49, 49, 49, 49, 49, 49, 49, 49, 49, 50, 50, 50, 50, 50, 50, 50, 50, 50, 50, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 52, 52, 52, 52, 52, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 55, 55, 55, 56, 56, 56, 56, 56, 56, 56, 57, 57, 57, 57, 57, 57, 57, 58, 58, 58, 58, 58, 58, 58, 58, 58, 58, 58, 59, 59, 60, 60, 60, 60, 60, 60, 60, 61, 61, 61, 62, 62, 62, 62, 62, 62, 63, 63, 63, 63, 63, 64, 64, 65, 65, 65, 65, 65, 65, 65, 67, 68, 68, 68, 69, 69, 69, 69, 69, 70, 70, 70, 70, 71, 71, 71, 71, 72, 72, 73, 73, 73, 74, 75, 75, 75, 75, 76, 76, 76, 77, 77, 78, 78, 80, 81, 81, 82, 82, 83, 83, 83, 83, 83, 84, 84, 85, 85, 86, 89, 89, 90, 91, 96, 99, 101, 104, 108, 113, 114, 115, 119, 120, 125, 131, 134, 138, 149, 152, 163, 188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token / sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standar deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS data test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOV Occurences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NER pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full training data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half training data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padding fit to NER data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1 without O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.99      0.92      0.95      9004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.43      0.92      0.58       323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.87      0.81      0.84       684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TIME       0.83      0.82      0.82       287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.74      0.70      0.72       213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    QUANTITY       0.43      0.64      0.52        39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.95      0.90      0.92     10550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss Function</t>
   </si>
 </sst>
 </file>
@@ -313,12 +419,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -416,7 +534,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,23 +543,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,7 +595,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,6 +613,22 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -530,7 +676,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FF99FF66"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF9999"/>
@@ -562,16 +708,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N50"/>
+  <dimension ref="A2:S50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -601,25 +744,28 @@
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="n">
@@ -628,34 +774,40 @@
       <c r="G3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="4" t="n">
         <v>0.903</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="4" t="n">
         <v>0.903</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="K3" s="5" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="n">
@@ -664,34 +816,40 @@
       <c r="G4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="5" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="n">
@@ -700,34 +858,37 @@
       <c r="G5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <v>0.914</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="4" t="n">
         <v>0.914</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>20</v>
+      <c r="K5" s="5" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="n">
@@ -736,34 +897,40 @@
       <c r="G6" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>23</v>
+      <c r="K6" s="5" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="n">
@@ -772,34 +939,37 @@
       <c r="G7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="4" t="n">
         <v>0.82</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="4" t="n">
         <v>0.82</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="4" t="n">
         <v>0.82</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>25</v>
+      <c r="K7" s="5" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="n">
@@ -808,34 +978,37 @@
       <c r="G8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="4" t="n">
         <v>0.874</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="4" t="n">
         <v>0.87</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="4" t="n">
         <v>0.874</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>27</v>
+      <c r="K8" s="5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="n">
@@ -844,34 +1017,37 @@
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.876</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="4" t="n">
         <v>0.88</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="4" t="n">
         <v>0.883</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>30</v>
+      <c r="K9" s="5" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="n">
@@ -880,34 +1056,37 @@
       <c r="G10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.838</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="4" t="n">
         <v>0.84</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="4" t="n">
         <v>0.838</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>32</v>
+      <c r="K10" s="5" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="n">
@@ -916,14 +1095,17 @@
       <c r="G11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="4" t="n">
         <v>0.908</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="4" t="n">
         <v>0.908</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0.887</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,13 +1118,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="n">
@@ -951,13 +1133,13 @@
       <c r="G13" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="4" t="n">
         <v>0.922</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="4" t="n">
         <v>0.922</v>
       </c>
     </row>
@@ -966,13 +1148,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="n">
@@ -981,13 +1163,13 @@
       <c r="G14" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="4" t="n">
         <v>0.902</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="4" t="n">
         <v>0.902</v>
       </c>
     </row>
@@ -996,13 +1178,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="n">
@@ -1011,13 +1193,13 @@
       <c r="G15" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="4" t="n">
         <v>0.899</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="4" t="n">
         <v>0.899</v>
       </c>
     </row>
@@ -1026,13 +1208,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="n">
@@ -1041,13 +1223,13 @@
       <c r="G16" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="4" t="n">
         <v>0.912</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="4" t="n">
         <v>0.912</v>
       </c>
     </row>
@@ -1056,13 +1238,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="n">
@@ -1071,13 +1253,13 @@
       <c r="G17" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="4" t="n">
         <v>0.9215</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="4" t="n">
         <v>0.9217</v>
       </c>
     </row>
@@ -1086,10 +1268,10 @@
         <v>16</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,13 +1279,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="n">
@@ -1112,20 +1294,20 @@
       <c r="G19" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="4" t="n">
         <v>0.916</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="4" t="n">
         <v>0.917</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="n">
@@ -1148,20 +1330,20 @@
       <c r="G20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="4" t="n">
         <v>0.726</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="4" t="n">
         <v>0.727</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,13 +1351,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="n">
@@ -1184,20 +1366,20 @@
       <c r="G21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="4" t="n">
         <v>0.757</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="4" t="n">
         <v>0.757</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,13 +1387,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>3</v>
@@ -1219,20 +1401,20 @@
       <c r="G22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="4" t="n">
         <v>0.917</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="4" t="n">
         <v>0.917</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,13 +1422,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>3</v>
@@ -1254,20 +1436,20 @@
       <c r="G23" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="4" t="n">
         <v>0.914</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="4" t="n">
         <v>0.914</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,13 +1457,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>3</v>
@@ -1289,20 +1471,20 @@
       <c r="G24" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="4" t="n">
         <v>0.908</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="4" t="n">
         <v>0.908</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,13 +1492,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="n">
@@ -1325,20 +1507,20 @@
       <c r="G25" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="4" t="n">
         <v>0.925</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="4" t="n">
         <v>0.925</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,16 +1533,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>3</v>
@@ -1368,13 +1550,13 @@
       <c r="G27" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="4" t="n">
         <v>0.901</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="4" t="n">
         <v>0.901</v>
       </c>
     </row>
@@ -1383,16 +1565,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>3</v>
@@ -1400,13 +1582,13 @@
       <c r="G28" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="4" t="n">
         <v>0.903</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="4" t="n">
         <v>0.903</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="4" t="n">
         <v>0.903</v>
       </c>
     </row>
@@ -1415,16 +1597,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>3</v>
@@ -1432,13 +1614,13 @@
       <c r="G29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="4" t="n">
         <v>0.925</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="4" t="n">
         <v>0.925</v>
       </c>
     </row>
@@ -1447,16 +1629,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>3</v>
@@ -1464,28 +1646,28 @@
       <c r="G30" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="4" t="n">
         <v>0.923</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="4" t="n">
         <v>0.923</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>3</v>
@@ -1493,28 +1675,28 @@
       <c r="G31" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="4" t="n">
         <v>0.848</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="4" t="n">
         <v>0.85</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="4" t="n">
         <v>0.848</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>3</v>
@@ -1522,28 +1704,28 @@
       <c r="G32" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="4" t="n">
         <v>0.932</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="4" t="n">
         <v>0.932</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>10</v>
@@ -1551,33 +1733,33 @@
       <c r="G33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="4" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>3</v>
@@ -1585,28 +1767,28 @@
       <c r="G36" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="4" t="n">
         <v>0.916</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="4" t="n">
         <v>0.916</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>3</v>
@@ -1614,28 +1796,28 @@
       <c r="G37" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="4" t="n">
         <v>0.907</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="4" t="n">
         <v>0.907</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>3</v>
@@ -1643,28 +1825,28 @@
       <c r="G38" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="4" t="n">
         <v>0.908</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="4" t="n">
         <v>0.908</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>3</v>
@@ -1672,135 +1854,141 @@
       <c r="G39" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="J39" s="4" t="n">
         <v>0.91</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>46</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="E43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4" t="n">
         <v>0.572</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="4" t="n">
         <v>0.659</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="4" t="n">
         <v>0.683</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D45" s="4" t="n">
         <v>0.924</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="4" t="n">
         <v>0.933</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="4" t="n">
         <v>0.932</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6" t="n">
+      <c r="B46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9" t="n">
         <v>0.933</v>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="9" t="n">
         <v>0.943</v>
       </c>
-      <c r="F46" s="6" t="n">
+      <c r="F46" s="9" t="n">
         <v>0.933</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>0.928</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D47" s="4" t="n">
         <v>0.914</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="4" t="n">
         <v>0.922</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="4" t="n">
         <v>0.92</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6" t="n">
+      <c r="B48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9" t="n">
         <v>0.936</v>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="9" t="n">
         <v>0.952</v>
       </c>
-      <c r="F48" s="6" t="n">
+      <c r="F48" s="9" t="n">
         <v>0.933</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D49" s="4" t="n">
         <v>0.916</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="4" t="n">
         <v>0.926</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="4" t="n">
         <v>0.923</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6" t="n">
+      <c r="B50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9" t="n">
         <v>0.944</v>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="9" t="n">
         <v>0.961</v>
       </c>
-      <c r="F50" s="6" t="n">
+      <c r="F50" s="9" t="n">
         <v>0.927</v>
       </c>
     </row>
@@ -1827,27 +2015,27 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,7 +2043,7 @@
       <c r="B1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -1872,76 +2060,76 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="10"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="11" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="12" t="n">
+      <c r="E3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="15" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="12" t="n">
+      <c r="I3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="12" t="n">
+      <c r="K3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="15" t="n">
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>8</v>
@@ -1952,32 +2140,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="12" t="n">
+      <c r="E4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="15" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>10</v>
       </c>
       <c r="I4" s="0"/>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>14</v>
@@ -1988,23 +2176,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>69</v>
+      <c r="E5" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I5" s="0"/>
       <c r="M5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>10</v>
@@ -2015,23 +2203,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="13" t="n">
+        <v>74</v>
+      </c>
+      <c r="D6" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="0"/>
+      <c r="M6" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="I6" s="0"/>
-      <c r="M6" s="14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,23 +2227,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="D7" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>76</v>
+      <c r="E7" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="0"/>
-      <c r="M7" s="14" t="s">
-        <v>73</v>
+      <c r="M7" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,20 +2251,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="D8" s="16" t="n">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="0"/>
-      <c r="M8" s="14" t="s">
-        <v>76</v>
+      <c r="M8" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,13 +2272,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="13" t="n">
+        <v>82</v>
+      </c>
+      <c r="D9" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>69</v>
+      <c r="G9" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="I9" s="0"/>
     </row>
@@ -2099,22 +2287,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="13" t="n">
+        <v>56</v>
+      </c>
+      <c r="D10" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>73</v>
+      <c r="G10" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="15" t="n">
+      <c r="D11" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>76</v>
+      <c r="G11" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="I11" s="0"/>
     </row>
@@ -2131,7 +2319,7 @@
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="16" t="n">
+      <c r="G15" s="19" t="n">
         <f aca="false">10*10*2*2*4*6*2*2*10*8*14</f>
         <v>43008000</v>
       </c>
@@ -2142,10 +2330,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2164,17 +2352,313 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="H4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="1" t="n">
+        <v>4477</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="H5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
+      <c r="D11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H5:S11"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2190,17 +2674,200 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="21" t="n">
+        <v>0.7213</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="21" t="n">
+        <v>0.7367</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
+      <c r="E11" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="E13" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="E14" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="E15" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="E16" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="E17" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="E18" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+      <c r="E20" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,9 @@
     <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="CompilePref" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="204">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -347,12 +350,21 @@
     <t xml:space="preserve">Batch 12</t>
   </si>
   <si>
+    <t xml:space="preserve">A quarter of training data</t>
+  </si>
+  <si>
     <t xml:space="preserve">F-1 without O</t>
   </si>
   <si>
     <t xml:space="preserve">              precision    recall  f1-score   support</t>
   </si>
   <si>
+    <t xml:space="preserve">one eighth of training data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed: 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">           O       0.99      0.92      0.95      9004</t>
   </si>
   <si>
@@ -374,10 +386,259 @@
     <t xml:space="preserve"> avg / total       0.95      0.90      0.92     10550</t>
   </si>
   <si>
+    <t xml:space="preserve">With POS Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With POS index &amp; add new training OOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^ without weighting..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.98      0.93      0.95      9004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.99      0.93      0.96      9004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.50      0.82      0.62       323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.49      0.89      0.63       323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.87      0.75      0.81       684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.86      0.81      0.83       684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TIME       0.85      0.80      0.82       287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TIME       0.82      0.84      0.83       287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.73      0.67      0.70       213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.78      0.76      0.77       213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    QUANTITY       0.48      0.59      0.53        39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    QUANTITY       0.40      0.69      0.50        39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.95      0.91      0.93     10550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1 Score (without O):</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimizer</t>
   </si>
   <si>
     <t xml:space="preserve">Loss Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prec &lt; recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prec &gt; recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 loss delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">730 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">587 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No transfer No weighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer No weighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.98      0.96      0.97      7546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.94      0.80      0.86       653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.93      0.81      0.86       653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.76      0.66      0.71       367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.64      0.73      0.68       367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.90      0.81      0.86       487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.92      0.72      0.81       487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.96      0.93      0.95      9053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.96      0.93      0.94      9053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.98      0.92      0.95      9004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.99      0.90      0.94      9004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.44      0.89      0.59       323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.37      0.93      0.52       323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.85      0.81      0.83       684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TIME       0.85      0.79      0.82       287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.74      0.68      0.71       213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.73      0.73      0.73       213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    QUANTITY       0.49      0.64      0.56        39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    QUANTITY       0.35      0.72      0.47        39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.95      0.89      0.91     10550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          O       0.97      0.97      0.97      7318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          O       0.98      0.96      0.97      7318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-PER       0.89      0.82      0.86       438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-PER       0.89      0.82      0.85       438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-PER       0.88      0.65      0.75       214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-PER       0.87      0.65      0.74       214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-ORG       0.72      0.74      0.73       296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-ORG       0.68      0.71      0.69       296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-ORG       0.53      0.65      0.59       151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-ORG       0.36      0.60      0.45       151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-LOC       0.74      0.73      0.74       218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-LOC       0.72      0.74      0.73       218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-LOC       0.67      0.78      0.72       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-LOC       0.69      0.70      0.69       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     B-MISC       0.61      0.08      0.14       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     B-MISC       0.37      0.08      0.13       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     I-MISC       0.54      0.16      0.25       154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     I-MISC       0.39      0.12      0.18       154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg / total       0.93      0.90      0.91      9071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg / total       0.92      0.90      0.91      9071</t>
   </si>
 </sst>
 </file>
@@ -715,6 +976,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -2020,22 +2284,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,7 +2624,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,17 +2938,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K20"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M44" activeCellId="0" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.71938775510204"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="N1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>102</v>
@@ -2692,102 +2964,346 @@
       <c r="D2" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="E2" s="0"/>
+      <c r="H2" s="0"/>
       <c r="K2" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="N2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
       <c r="D3" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="E3" s="0"/>
+      <c r="H3" s="0"/>
       <c r="K3" s="21" t="n">
         <v>0.7213</v>
       </c>
+      <c r="N3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="N5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="N6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="K7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="K8" s="21" t="n">
+        <v>0.6809</v>
+      </c>
+      <c r="N8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="21" t="n">
         <v>0.7367</v>
       </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="N9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="N10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
+      <c r="D11" s="0"/>
       <c r="E11" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="K11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
+      <c r="D12" s="0"/>
       <c r="E12" s="22"/>
+      <c r="H12" s="0"/>
+      <c r="K12" s="21" t="n">
+        <v>0.5434</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
+      <c r="D13" s="0"/>
       <c r="E13" s="22" t="s">
-        <v>109</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
+      <c r="D14" s="0"/>
       <c r="E14" s="22" t="s">
-        <v>110</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H14" s="0"/>
+      <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
+      <c r="D15" s="0"/>
       <c r="E15" s="22" t="s">
-        <v>111</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H15" s="0"/>
+      <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
+      <c r="D16" s="0"/>
       <c r="E16" s="22" t="s">
-        <v>112</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H16" s="0"/>
+      <c r="K16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
+      <c r="D17" s="0"/>
       <c r="E17" s="22" t="s">
-        <v>113</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H17" s="0"/>
+      <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
+      <c r="D18" s="0"/>
       <c r="E18" s="22" t="s">
-        <v>114</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H18" s="0"/>
+      <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
+      <c r="D19" s="0"/>
       <c r="E19" s="22"/>
+      <c r="H19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
+      <c r="D20" s="0"/>
       <c r="E20" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="H20" s="0"/>
+      <c r="K20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="K21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="K22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="K23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="K24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="K25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="H26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="21" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="E27" s="0"/>
+      <c r="H27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="K28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="0"/>
+      <c r="K29" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="22"/>
+      <c r="H30" s="0"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="0"/>
+      <c r="K31" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="0"/>
+      <c r="K32" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="0"/>
+      <c r="K33" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="0"/>
+      <c r="K34" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="0"/>
+      <c r="K35" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="0"/>
+      <c r="K36" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="22"/>
+      <c r="H37" s="0"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="0"/>
+      <c r="K38" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="1" t="n">
+        <v>0.759880239521</v>
       </c>
     </row>
   </sheetData>
@@ -2814,14 +3330,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="0"/>
       <c r="C1" s="6" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2857,7 +3373,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>15</v>
@@ -2876,4 +3392,526 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.591490593342981</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.394327062228654</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(D3:E3),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4.74979662986636</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.16653108657757</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(D4:E4),2)</f>
+        <v>3.96</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3.27894103489771</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.95104693140794</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(D5:E5),2)</f>
+        <v>3.11</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1.75667621776504</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.5614899713467</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(D6:E6),2)</f>
+        <v>1.66</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.442696994313566</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.221348497156783</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(D7:E7),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="22"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="H8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0.822905620361</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.799026425591</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="H19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>0.738323353293</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.707683741648</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="H33" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>0.692118226601</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.654391789919</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,9 +13,10 @@
     <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="CompilePref" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="ClassWeigh" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Epochs" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Partial" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="231">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -464,181 +465,262 @@
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
+    <t xml:space="preserve">Data 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No transfer no weighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer no weighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No transfer No weighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No transfer Weighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer No weighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.98      0.96      0.97      7546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.99      0.94      0.96      7546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.94      0.80      0.86       653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.89      0.83      0.86       653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.93      0.81      0.86       653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.76      0.66      0.71       367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.61      0.78      0.69       367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.64      0.73      0.68       367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.90      0.81      0.86       487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.81      0.84      0.83       487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.92      0.72      0.81       487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.96      0.93      0.95      9053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.96      0.92      0.94      9053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.96      0.93      0.94      9053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.98      0.92      0.95      9004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.99      0.88      0.93      9004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           O       0.99      0.90      0.94      9004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.44      0.89      0.59       323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.32      0.95      0.48       323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZATION       0.37      0.93      0.52       323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.79      0.83      0.81       684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PERSON       0.85      0.81      0.83       684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TIME       0.85      0.79      0.82       287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TIME       0.76      0.80      0.78       287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.74      0.68      0.71       213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.71      0.72      0.71       213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOCATION       0.73      0.73      0.73       213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    QUANTITY       0.49      0.64      0.56        39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    QUANTITY       0.31      0.67      0.43        39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    QUANTITY       0.35      0.72      0.47        39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.95      0.87      0.90     10550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg / total       0.95      0.89      0.91     10550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          O       0.97      0.97      0.97      7318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          O       0.99      0.94      0.97      7318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          O       0.98      0.96      0.97      7318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-PER       0.89      0.82      0.86       438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-PER       0.80      0.85      0.82       438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-PER       0.89      0.82      0.85       438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-PER       0.88      0.65      0.75       214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-PER       0.82      0.64      0.72       214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-PER       0.87      0.65      0.74       214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-ORG       0.72      0.74      0.73       296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-ORG       0.66      0.74      0.70       296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-ORG       0.68      0.71      0.69       296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-ORG       0.53      0.65      0.59       151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-ORG       0.55      0.61      0.58       151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-ORG       0.36      0.60      0.45       151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-LOC       0.74      0.73      0.74       218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-LOC       0.61      0.77      0.68       218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      B-LOC       0.72      0.74      0.73       218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-LOC       0.67      0.78      0.72       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-LOC       0.63      0.76      0.69       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      I-LOC       0.69      0.70      0.69       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     B-MISC       0.61      0.08      0.14       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     B-MISC       0.47      0.37      0.41       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     B-MISC       0.37      0.08      0.13       141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     I-MISC       0.54      0.16      0.25       154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     I-MISC       0.49      0.31      0.38       154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     I-MISC       0.39      0.12      0.18       154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg / total       0.93      0.90      0.91      9071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg / total       0.93      0.89      0.91      9071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg / total       0.92      0.90      0.91      9071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Batch 16</t>
   </si>
   <si>
-    <t xml:space="preserve">0.01 loss delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Without transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">518 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">730 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">587 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoch 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No transfer No weighting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer No weighting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           O       0.98      0.96      0.97      7546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      PERSON       0.94      0.80      0.86       653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      PERSON       0.93      0.81      0.86       653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORGANIZATION       0.76      0.66      0.71       367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORGANIZATION       0.64      0.73      0.68       367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LOCATION       0.90      0.81      0.86       487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LOCATION       0.92      0.72      0.81       487</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avg / total       0.96      0.93      0.95      9053</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avg / total       0.96      0.93      0.94      9053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           O       0.98      0.92      0.95      9004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           O       0.99      0.90      0.94      9004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORGANIZATION       0.44      0.89      0.59       323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORGANIZATION       0.37      0.93      0.52       323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      PERSON       0.85      0.81      0.83       684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        TIME       0.85      0.79      0.82       287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LOCATION       0.74      0.68      0.71       213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LOCATION       0.73      0.73      0.73       213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    QUANTITY       0.49      0.64      0.56        39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    QUANTITY       0.35      0.72      0.47        39</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avg / total       0.95      0.89      0.91     10550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             precision    recall  f1-score   support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            precision    recall  f1-score   support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          O       0.97      0.97      0.97      7318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          O       0.98      0.96      0.97      7318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      B-PER       0.89      0.82      0.86       438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      B-PER       0.89      0.82      0.85       438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      I-PER       0.88      0.65      0.75       214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      I-PER       0.87      0.65      0.74       214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      B-ORG       0.72      0.74      0.73       296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      B-ORG       0.68      0.71      0.69       296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      I-ORG       0.53      0.65      0.59       151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      I-ORG       0.36      0.60      0.45       151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      B-LOC       0.74      0.73      0.74       218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      B-LOC       0.72      0.74      0.73       218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      I-LOC       0.67      0.78      0.72       141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      I-LOC       0.69      0.70      0.69       141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     B-MISC       0.61      0.08      0.14       141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     B-MISC       0.37      0.08      0.13       141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     I-MISC       0.54      0.16      0.25       154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     I-MISC       0.39      0.12      0.18       154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg / total       0.93      0.90      0.91      9071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg / total       0.92      0.90      0.91      9071</t>
+    <t xml:space="preserve">Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Label?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 epoch -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← with 100 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← with 200 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labelling rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No transfer</t>
   </si>
 </sst>
 </file>
@@ -650,7 +732,7 @@
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -678,6 +760,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -917,7 +1010,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -948,10 +1041,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -962,6 +1055,404 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Partial!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Partial!$B$38:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.00%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.00%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.00%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.00%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.00%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Partial!$C$38:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.16375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.210075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.243575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.498266666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.592466666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.670833333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Partial!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Partial!$B$38:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.00%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.00%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.00%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.00%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.00%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Partial!$D$38:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.023375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.169425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.439825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.604466666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="15480378"/>
+        <c:axId val="8591958"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15480378"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8591958"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8591958"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15480378"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19080</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>18360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4019400" y="6032880"/>
+        <a:ext cx="5670360" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,7 +1468,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,22 +2775,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,7 +3114,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,7 +3436,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3820,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,7 +3897,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,69 +4014,468 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>145</v>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>148</v>
-      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>149</v>
-      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.6772</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.6617</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>150</v>
-      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.6941</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.682</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.6992</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.6805</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
-        <v>151</v>
-      </c>
+      <c r="B8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.6945</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>152</v>
-      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.7195</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.7222</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.7026</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>153</v>
-      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.7181</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>0.7027</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>154</v>
-      </c>
+      <c r="B12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.7236</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>0.7026</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.7194</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>0.7072</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0.7265</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>0.7095</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>0.7197</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0.7208</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>0.7077</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0.7207</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>0.7168</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0.7166</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>0.7136</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>0.7168</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0.7226</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v>0.7221</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0.7245</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0.7158</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>0.7227</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>0.7326</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>0.7309</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>0.7158</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>0.7144</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>0.7172</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="K30" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3602,79 +4491,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>109</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="22"/>
       <c r="L3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="22" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,44 +4597,64 @@
         <v>135</v>
       </c>
       <c r="L8" s="22"/>
+      <c r="N8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>0.822905620361</v>
       </c>
       <c r="F9" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.801687763713</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.799026425591</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.799026425591</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>109</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="22"/>
       <c r="L12" s="22"/>
+      <c r="R12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="R13" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3734,37 +4665,52 @@
       <c r="L14" s="22" t="s">
         <v>173</v>
       </c>
+      <c r="R14" s="22" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="22" t="s">
         <v>114</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L16" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R16" s="22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,6 +4722,10 @@
         <v>135</v>
       </c>
       <c r="L19" s="22"/>
+      <c r="N19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -3785,100 +4735,140 @@
         <v>118</v>
       </c>
       <c r="H20" s="0" t="n">
+        <v>0.672427336999</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>0.707683741648</v>
       </c>
-      <c r="L20" s="22" t="s">
-        <v>180</v>
+      <c r="R20" s="22" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="22"/>
       <c r="L23" s="22"/>
+      <c r="R23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="22" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="22" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="22" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="22" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>191</v>
+        <v>199</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="22" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>193</v>
+        <v>202</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="22" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+      <c r="R29" s="22" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="22" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>197</v>
+        <v>208</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="22" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>199</v>
+        <v>211</v>
+      </c>
+      <c r="R31" s="22" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="22" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>201</v>
+        <v>214</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3890,19 +4880,29 @@
         <v>135</v>
       </c>
       <c r="L33" s="22"/>
+      <c r="N33" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
         <v>0.692118226601</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H34" s="0" t="n">
+        <v>0.674943566591</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="N34" s="0" t="n">
         <v>0.654391789919</v>
       </c>
-      <c r="L34" s="22" t="s">
-        <v>203</v>
+      <c r="R34" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3914,4 +4914,904 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.7265</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <f aca="false">AVERAGE(D4:D5)</f>
+        <v>0.71645</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <f aca="false">AVERAGE(J4:J5)</f>
+        <v>0.7155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.7064</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.727</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.6838</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <f aca="false">AVERAGE(D6:D8)</f>
+        <v>0.6788</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <f aca="false">AVERAGE(J6:J8)</f>
+        <v>0.670833333333333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.6705</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.6588</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.6821</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.6857</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.6122</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">AVERAGE(D9:D11)</f>
+        <v>0.604466666666667</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.5861</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <f aca="false">AVERAGE(J9:J11)</f>
+        <v>0.592466666666667</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.6044</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.5891</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>0.6022</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.5492</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <f aca="false">AVERAGE(D12:D14)</f>
+        <v>0.5327</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>0.5293</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <f aca="false">AVERAGE(J12:J14)</f>
+        <v>0.498266666666667</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.5258</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>0.4877</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.5231</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0.4778</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0.3964</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <f aca="false">AVERAGE(D15:D18)</f>
+        <v>0.439825</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>0.3827</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <f aca="false">AVERAGE(J15:J18)</f>
+        <v>0.41755</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>0.4347</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>0.4051</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0.4694</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>0.4682</v>
+      </c>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="M18" s="4" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0.1557</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <f aca="false">AVERAGE(D19:D22)</f>
+        <v>0.169425</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <f aca="false">AVERAGE(J19:J22)</f>
+        <v>0.243575</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>0.1638</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>0.2626</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>0.2348</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0.2702</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0.1084</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <f aca="false">AVERAGE(D23:D26)</f>
+        <v>0.067</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <f aca="false">AVERAGE(J23:J26)</f>
+        <v>0.210075</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <v>0.2688</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <v>0.1955</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>0.0748</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>0.2041</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <f aca="false">AVERAGE(D27:D30)</f>
+        <v>0.023375</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>0.2411</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <f aca="false">AVERAGE(J27:J30)</f>
+        <v>0.16375</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>0.1132</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>0.1777</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <f aca="false">L27</f>
+        <v>0.16375</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <f aca="false">F27</f>
+        <v>0.023375</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <f aca="false">L23</f>
+        <v>0.210075</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <f aca="false">F23</f>
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <f aca="false">L19</f>
+        <v>0.243575</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <f aca="false">F19</f>
+        <v>0.169425</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <f aca="false">L15</f>
+        <v>0.41755</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <f aca="false">F15</f>
+        <v>0.439825</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <f aca="false">L12</f>
+        <v>0.498266666666667</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <f aca="false">F12</f>
+        <v>0.5327</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <f aca="false">L9</f>
+        <v>0.592466666666667</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <f aca="false">F9</f>
+        <v>0.604466666666667</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <f aca="false">L6</f>
+        <v>0.670833333333333</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <f aca="false">F6</f>
+        <v>0.6788</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <f aca="false">L4</f>
+        <v>0.7155</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <f aca="false">F4</f>
+        <v>0.71645</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -909,7 +909,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1010,10 +1010,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1086,7 +1082,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart100.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1097,17 +1093,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Epochs!$K$35:$K$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No transfer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -1133,1217 +1118,185 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Epochs!$J$36:$J$235</c:f>
+              <c:f>Epochs!$P$3:$P$30</c:f>
               <c:strCache>
-                <c:ptCount val="200"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Epochs!$K$36:$K$235</c:f>
+              <c:f>Epochs!$Q$3:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0.54907363716</c:v>
+                  <c:v>0.643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.664238398186</c:v>
+                  <c:v>0.657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7351148097505</c:v>
+                  <c:v>0.6772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.740505573293</c:v>
+                  <c:v>0.6941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.773454595186</c:v>
+                  <c:v>0.6992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.786202285218</c:v>
+                  <c:v>0.7125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.791089714822</c:v>
+                  <c:v>0.7195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7963624695535</c:v>
+                  <c:v>0.7222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.807626751753</c:v>
+                  <c:v>0.7181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.815555880138</c:v>
+                  <c:v>0.7236</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.812810665421</c:v>
+                  <c:v>0.7194</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.816783189822</c:v>
+                  <c:v>0.727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.819958351713</c:v>
+                  <c:v>0.7265</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82247814948</c:v>
+                  <c:v>0.7197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.818846499006</c:v>
+                  <c:v>0.7208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8248949520025</c:v>
+                  <c:v>0.7207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.82449221264</c:v>
+                  <c:v>0.7166</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8273505980645</c:v>
+                  <c:v>0.7136</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.827625617535</c:v>
+                  <c:v>0.7226</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.828340792275</c:v>
+                  <c:v>0.7245</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.829270489822</c:v>
+                  <c:v>0.7158</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.829216314568</c:v>
+                  <c:v>0.7227</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.825177567549</c:v>
+                  <c:v>0.7326</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.82739541407</c:v>
+                  <c:v>0.7309</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.832260868522</c:v>
+                  <c:v>0.7158</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.828089931475</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8289827078735</c:v>
+                  <c:v>0.7144</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8325657608965</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.831707189591</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.8317315549765</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.8345088855215</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.8331399168195</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.832432506397</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.8324232969315</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.8322055707455</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.8327981282195</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.831251437244</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.832932262902</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.834315213392</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.8216662015185</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.8318716997105</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.8314786948935</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.8300189681555</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.8271076018835</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.8296943480645</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.832361998175</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.8323742598825</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.83048478739</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.8327848408815</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.8306132192795</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.8322748022995</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.83123983906</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.8306925263225</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.8314054429195</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.83139428655</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.832108858264</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.831989225762</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.8309912309915</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.830685798721</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.8337282453965</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.830585175731</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.8303073415725</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.82926823698</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.8293379738425</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.8293662573135</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.8295918802385</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.828899511705</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.82911674695</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.8284970447345</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.8270329349045</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.826610829602</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.827357867053</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.8228271471445</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.8230904736115</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.82651030952</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.823605670843</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.823664166641</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.825043287446</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.8284814663115</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.8285345612645</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.8229964582815</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.827321607997</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.828730814171</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.8268054260635</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.8251238451125</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.8249479951635</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.820781126783</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.8233186344355</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.8216100099275</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.8227652381315</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.8216853994265</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.8215388986965</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.827157516813</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.826555222793</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.824314916632</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.8221389339045</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.8216292278855</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.8240629082505</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.827004806998</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.8217679987345</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.822843437267</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.821099831835</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.823628526466</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.826388983913</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.8251434781715</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.8242395424255</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.823831861663</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.8244666725175</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.821757898604</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.822779146379</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.822131490247</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.822833210488</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.8236659172245</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.820152840238</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.821408777433</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.8209691947395</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.8229796591535</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.818767826094</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.8280878108065</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.8237474713245</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.8188146273925</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.819411640718</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.8204882549145</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.821446138711</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.8192953466265</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.82113667604</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.8211770795805</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.8182655295945</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.8220463631105</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.821542796921</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.821757898604</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.821050158177</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.822218089549</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.824310686713</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.8236934233555</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.8225200949945</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.823729240922</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.822599872569</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.8260356872695</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.8216294375235</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.823559572539</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.818777419624</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.817188789068</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.819113811791</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.819295271261</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.8210446626155</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.8176057183015</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.820464360542</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.8145324370115</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.819670762067</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.8212658668945</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.8221844283535</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.8239814057415</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.8235499466935</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.820475630427</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.815083878985</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.820373141774</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.8186763991485</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.819757517173</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.819735819736</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.819447182614</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.8203679331655</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.819735819736</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.819072423748</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.8185163874185</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.8195897230485</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.8209785408315</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.8197802197805</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.819189846538</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.8195088339785</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.8201013421745</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.8185264556235</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.819888897002</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.8193396007965</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.8200754359695</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.8196763742955</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.818402314197</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.8199939616015</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.8182695538295</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.8185529637455</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.8162393162395</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.818402314197</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.817243418904</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.816435736381</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.818084120808</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.816734560044</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.8174249951225</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.8180010792695</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.818384358205</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.819621869627</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.821314730151</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.81976193512</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.8173779889905</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.819647459413</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.8199407784385</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.8193396007965</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.820232005846</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.82223600772</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.818040435459</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.819875776398</c:v>
+                  <c:v>0.7172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,17 +1306,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Epochs!$L$35:$L$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transfer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
@@ -2389,1217 +1331,185 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Epochs!$J$36:$J$235</c:f>
+              <c:f>Epochs!$P$3:$P$30</c:f>
               <c:strCache>
-                <c:ptCount val="200"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Epochs!$L$36:$L$235</c:f>
+              <c:f>Epochs!$R$3:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0.582955349817</c:v>
+                  <c:v>0.584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.671683602510333</c:v>
+                  <c:v>0.645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.732885307357</c:v>
+                  <c:v>0.6617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.746346741711667</c:v>
+                  <c:v>0.682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.783395772440333</c:v>
+                  <c:v>0.6805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.794644906197667</c:v>
+                  <c:v>0.6945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.801879349467333</c:v>
+                  <c:v>0.6974</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.811661714688</c:v>
+                  <c:v>0.7026</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.812307382206</c:v>
+                  <c:v>0.7027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.813669373284</c:v>
+                  <c:v>0.7026</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.824729541776333</c:v>
+                  <c:v>0.7072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.831412011346667</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.835836875571333</c:v>
+                  <c:v>0.7095</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.834872069107667</c:v>
+                  <c:v>0.724</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84386518453</c:v>
+                  <c:v>0.7077</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.831397230590667</c:v>
+                  <c:v>0.7168</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.840001944036667</c:v>
+                  <c:v>0.715</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.847456752646667</c:v>
+                  <c:v>0.7168</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.842722277327333</c:v>
+                  <c:v>0.7221</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.845354211624667</c:v>
+                  <c:v>0.7289</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.845215825110333</c:v>
+                  <c:v>0.7128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.844901069911333</c:v>
+                  <c:v>0.721</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.842493237945333</c:v>
+                  <c:v>0.7115</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.846022612353</c:v>
+                  <c:v>0.7265</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.848474470259333</c:v>
+                  <c:v>0.7104</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.849721579819667</c:v>
+                  <c:v>0.7193</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.847630786619</c:v>
+                  <c:v>0.7261</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.845877862153</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.843373769846333</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.846746047259</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.847666193441667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.846435698093333</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.846703229368667</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.846019439038667</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.846022700181333</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.845364120996667</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.844876431785667</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.844579523091666</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.842176440927</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.846178748757</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.844696809562333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.843484556325</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.843713908595667</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.843943647354667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.845934106589</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.845411230772</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.84240729181</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.843596004473667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.844975906437333</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.840822481556333</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.846433106900667</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.847178174037</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.844009805516333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.843509824610667</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.843539054129667</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.844031039425667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.843733225105667</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.842914804862333</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.843530572816333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.844971946958667</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.845367606695333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.842688169196</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.843357684040667</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.842831139421333</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.843971278162333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.844342639748333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.844803385530333</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.842970390709</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.843114240614</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.842558819168</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.842882922125333</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.844500793746333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.844502111818333</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.844251582812333</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.844760156924</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.844970731749667</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.84417414081</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.845022322345</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.845548176264667</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.844482615459333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.844425575858333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.843214285754333</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.844761236342667</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.842032737591333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.843424935269</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.842028441152</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.843548231772</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.843237943965667</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.845375732768</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.843973848713333</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.845465939629667</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.8453741146</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.841263881760667</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.844307786146667</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.844535357873333</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.843627532989333</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.844277084217</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.842924442029667</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.843054219820667</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.844402321529333</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.843370594974333</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.842181909437333</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.844284191937333</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.844356066822333</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.842209487453333</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.843651264993</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.843729063631667</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.844502887439667</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.842084257713667</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.844101403594667</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.844222539462667</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.843120960095</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.842965859032667</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.841720863612667</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.841368035574</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.840066489206333</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.841066441792333</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.841260239438</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.84304208233</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.842163816565667</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.841293868186</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.841763450648333</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.843014985489333</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.841943275598333</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.840213278227</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.841183804703667</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.841840753625</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.84029835845</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.841298898126667</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.837014251368</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.839548264793667</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.841236222907</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.838258443462333</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.839354610569333</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.842073827407667</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.842036885133333</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.840104248337333</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.840247065164</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.839949337768667</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.839062175088666</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.836800643040333</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.834178667356333</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.835843363533333</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.837869224213667</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.838467154253</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.837171493276</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.836537628184333</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.838062487988333</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.837243640161333</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.838273193865333</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.839600310625667</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.839023677265</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.839058404734333</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.836297361292333</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.838323521815333</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.837633946201667</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.836837697714</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.837125985026667</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.838074250917</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.834848445514667</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.837482999876</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.837151458713667</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.836772586175333</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.836010217610667</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.836849713234667</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.836969462451</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.835799124087667</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.834715808044</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.834105972306</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.835117141245</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.834013683271333</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.837052702978333</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.835295881417</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.833756100981</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.834369280892667</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.834369280892667</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.836187451848667</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.834975542878</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.834298093111667</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.834266056973667</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.835571652974</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.835630052688333</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.835831178423</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.833312134581</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.833464225275667</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.833464225275667</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.833607885127667</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.834227996606667</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.834783607494333</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.834995208023667</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.835196974399333</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.836102097028333</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.833447505722333</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.834565287154333</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.83480045772</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.834903422646</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.834067683281667</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.835189563985667</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.834794961516667</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.837015817366</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,11 +1524,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="99303304"/>
-        <c:axId val="93939639"/>
+        <c:axId val="50690517"/>
+        <c:axId val="45856197"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99303304"/>
+        <c:axId val="50690517"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3653,14 +1563,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93939639"/>
+        <c:crossAx val="45856197"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93939639"/>
+        <c:axId val="45856197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,7 +1614,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99303304"/>
+        <c:crossAx val="50690517"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3741,7 +1651,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3754,11 +1664,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Partial!$C$37:$C$37</c:f>
+              <c:f>Epochs!$K$35:$K$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Transfer</c:v>
+                  <c:v>No transfer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3775,13 +1685,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
@@ -3794,65 +1698,1217 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Partial!$B$38:$B$45</c:f>
+              <c:f>Epochs!$J$36:$J$235</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.50%</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.00%</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.00%</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.00%</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.00%</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.00%</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.00%</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.00%</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Partial!$C$38:$C$45</c:f>
+              <c:f>Epochs!$K$36:$K$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.16375</c:v>
+                  <c:v>0.54907363716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.210075</c:v>
+                  <c:v>0.664238398186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.243575</c:v>
+                  <c:v>0.7351148097505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41755</c:v>
+                  <c:v>0.740505573293</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.498266666666667</c:v>
+                  <c:v>0.773454595186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.592466666666667</c:v>
+                  <c:v>0.786202285218</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.670833333333333</c:v>
+                  <c:v>0.791089714822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7155</c:v>
+                  <c:v>0.7963624695535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.807626751753</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.815555880138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.812810665421</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.816783189822</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.819958351713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82247814948</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.818846499006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8248949520025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82449221264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8273505980645</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.827625617535</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.828340792275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.829270489822</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.829216314568</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.825177567549</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.82739541407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.832260868522</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.828089931475</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8289827078735</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8325657608965</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.831707189591</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8317315549765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8345088855215</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8331399168195</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.832432506397</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8324232969315</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.8322055707455</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.8327981282195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.831251437244</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.832932262902</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.834315213392</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.8216662015185</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8318716997105</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8314786948935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.8300189681555</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8271076018835</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8296943480645</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.832361998175</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.8323742598825</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83048478739</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8327848408815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.8306132192795</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.8322748022995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83123983906</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.8306925263225</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.8314054429195</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83139428655</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.832108858264</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.831989225762</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.8309912309915</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.830685798721</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.8337282453965</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.830585175731</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.8303073415725</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.82926823698</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.8293379738425</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.8293662573135</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.8295918802385</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.828899511705</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.82911674695</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.8284970447345</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8270329349045</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.826610829602</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.827357867053</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.8228271471445</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.8230904736115</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.82651030952</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.823605670843</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.823664166641</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.825043287446</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8284814663115</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8285345612645</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8229964582815</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.827321607997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.828730814171</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8268054260635</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8251238451125</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8249479951635</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.820781126783</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.8233186344355</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8216100099275</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.8227652381315</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.8216853994265</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.8215388986965</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.827157516813</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.826555222793</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.824314916632</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.8221389339045</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.8216292278855</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8240629082505</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.827004806998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.8217679987345</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.822843437267</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.821099831835</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.823628526466</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.826388983913</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.8251434781715</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.8242395424255</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.823831861663</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.8244666725175</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.821757898604</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.822779146379</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.822131490247</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.822833210488</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.8236659172245</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.820152840238</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.821408777433</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.8209691947395</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.8229796591535</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.818767826094</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.8280878108065</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.8237474713245</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.8188146273925</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.819411640718</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.8204882549145</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.821446138711</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.8192953466265</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.82113667604</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.8211770795805</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.8182655295945</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.8220463631105</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.821542796921</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.821757898604</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.821050158177</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.822218089549</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.824310686713</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.8236934233555</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.8225200949945</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.823729240922</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.822599872569</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.8260356872695</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.8216294375235</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.823559572539</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.818777419624</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.817188789068</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.819113811791</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.819295271261</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.8210446626155</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.8176057183015</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.820464360542</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.8145324370115</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.819670762067</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.8212658668945</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.8221844283535</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.8239814057415</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.8235499466935</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.820475630427</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.815083878985</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.820373141774</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.8186763991485</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.819757517173</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.819735819736</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.819447182614</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.8203679331655</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.819735819736</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.819072423748</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.8185163874185</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.8195897230485</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.8209785408315</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.8197802197805</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.819189846538</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.8195088339785</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.8201013421745</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.8185264556235</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.819888897002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.8193396007965</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.8200754359695</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.8196763742955</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.818402314197</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.8199939616015</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.8182695538295</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.8185529637455</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.8162393162395</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.818402314197</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.817243418904</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.816435736381</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.818084120808</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.816734560044</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.8174249951225</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.8180010792695</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.818384358205</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.819621869627</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.821314730151</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.81976193512</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.8173779889905</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.819647459413</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.8199407784385</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.8193396007965</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.820232005846</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.82223600772</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.818040435459</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.819875776398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3864,11 +2920,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Partial!$D$37:$D$37</c:f>
+              <c:f>Epochs!$L$35:$L$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No transfer</c:v>
+                  <c:v>Transfer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3885,13 +2941,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
@@ -3904,65 +2954,1217 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Partial!$B$38:$B$45</c:f>
+              <c:f>Epochs!$J$36:$J$235</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.50%</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.00%</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.00%</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.00%</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.00%</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.00%</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.00%</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.00%</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Partial!$D$38:$D$45</c:f>
+              <c:f>Epochs!$L$36:$L$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.023375</c:v>
+                  <c:v>0.582955349817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.067</c:v>
+                  <c:v>0.671683602510333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.169425</c:v>
+                  <c:v>0.732885307357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.439825</c:v>
+                  <c:v>0.746346741711667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5327</c:v>
+                  <c:v>0.783395772440333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.604466666666667</c:v>
+                  <c:v>0.794644906197667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6788</c:v>
+                  <c:v>0.801879349467333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71645</c:v>
+                  <c:v>0.811661714688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.812307382206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.813669373284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.824729541776333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.831412011346667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.835836875571333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.834872069107667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84386518453</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.831397230590667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.840001944036667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.847456752646667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.842722277327333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.845354211624667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.845215825110333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.844901069911333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.842493237945333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.846022612353</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.848474470259333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.849721579819667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.847630786619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.845877862153</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.843373769846333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.846746047259</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.847666193441667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.846435698093333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.846703229368667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.846019439038667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.846022700181333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.845364120996667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.844876431785667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.844579523091666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.842176440927</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.846178748757</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.844696809562333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.843484556325</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.843713908595667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.843943647354667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.845934106589</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.845411230772</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.84240729181</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.843596004473667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.844975906437333</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.840822481556333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.846433106900667</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.847178174037</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.844009805516333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.843509824610667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.843539054129667</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.844031039425667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.843733225105667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.842914804862333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.843530572816333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.844971946958667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.845367606695333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.842688169196</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.843357684040667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.842831139421333</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.843971278162333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.844342639748333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.844803385530333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.842970390709</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.843114240614</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.842558819168</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.842882922125333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.844500793746333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.844502111818333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.844251582812333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.844760156924</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.844970731749667</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.84417414081</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.845022322345</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.845548176264667</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.844482615459333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.844425575858333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.843214285754333</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.844761236342667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.842032737591333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.843424935269</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.842028441152</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.843548231772</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.843237943965667</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.845375732768</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.843973848713333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.845465939629667</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.8453741146</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.841263881760667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.844307786146667</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.844535357873333</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.843627532989333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.844277084217</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.842924442029667</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.843054219820667</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.844402321529333</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.843370594974333</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.842181909437333</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.844284191937333</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.844356066822333</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.842209487453333</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.843651264993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.843729063631667</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.844502887439667</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.842084257713667</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.844101403594667</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.844222539462667</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.843120960095</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.842965859032667</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.841720863612667</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.841368035574</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.840066489206333</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.841066441792333</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.841260239438</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.84304208233</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.842163816565667</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.841293868186</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.841763450648333</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.843014985489333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.841943275598333</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.840213278227</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.841183804703667</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.841840753625</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.84029835845</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.841298898126667</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.837014251368</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.839548264793667</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.841236222907</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.838258443462333</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.839354610569333</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.842073827407667</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.842036885133333</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.840104248337333</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.840247065164</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.839949337768667</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.839062175088666</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.836800643040333</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.834178667356333</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.835843363533333</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.837869224213667</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.838467154253</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.837171493276</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.836537628184333</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.838062487988333</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.837243640161333</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.838273193865333</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.839600310625667</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.839023677265</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.839058404734333</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.836297361292333</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.838323521815333</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.837633946201667</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.836837697714</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.837125985026667</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.838074250917</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.834848445514667</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.837482999876</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.837151458713667</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.836772586175333</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.836010217610667</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.836849713234667</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.836969462451</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.835799124087667</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.834715808044</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.834105972306</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.835117141245</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.834013683271333</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.837052702978333</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.835295881417</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.833756100981</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.834369280892667</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.834369280892667</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.836187451848667</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.834975542878</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.834298093111667</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.834266056973667</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.835571652974</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.835630052688333</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.835831178423</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.833312134581</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.833464225275667</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.833464225275667</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.833607885127667</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.834227996606667</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.834783607494333</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.834995208023667</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.835196974399333</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.836102097028333</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.833447505722333</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.834565287154333</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.83480045772</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.834903422646</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.834067683281667</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.835189563985667</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.834794961516667</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.837015817366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3976,18 +4178,18 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="94808743"/>
-        <c:axId val="17382452"/>
+        <c:marker val="0"/>
+        <c:axId val="27284721"/>
+        <c:axId val="8685493"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94808743"/>
+        <c:axId val="27284721"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4016,14 +4218,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17382452"/>
+        <c:crossAx val="8685493"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17382452"/>
+        <c:axId val="8685493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,7 +4269,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94808743"/>
+        <c:crossAx val="27284721"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4104,7 +4306,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart99.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4115,6 +4317,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Partial!$C$37:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -4127,7 +4340,13 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
@@ -4140,185 +4359,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Epochs!$P$3:$P$30</c:f>
+              <c:f>Partial!$B$38:$B$45</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.50%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1.00%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2.00%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.00%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10.00%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>20.00%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>50.00%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>100.00%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Epochs!$Q$3:$Q$30</c:f>
+              <c:f>Partial!$C$38:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.643</c:v>
+                  <c:v>0.16375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.657</c:v>
+                  <c:v>0.210075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6772</c:v>
+                  <c:v>0.243575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6941</c:v>
+                  <c:v>0.41755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6992</c:v>
+                  <c:v>0.498266666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7125</c:v>
+                  <c:v>0.592466666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7195</c:v>
+                  <c:v>0.670833333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7222</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7181</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7236</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7194</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.727</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7265</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7197</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.7208</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.7207</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.7166</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.7136</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.7226</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.7245</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7158</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.7227</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.7326</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.7309</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.7158</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.7144</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.7172</c:v>
+                  <c:v>0.7155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4328,6 +4427,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Partial!$D$37:$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
@@ -4340,7 +4450,13 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
@@ -4353,185 +4469,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Epochs!$P$3:$P$30</c:f>
+              <c:f>Partial!$B$38:$B$45</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.50%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1.00%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2.00%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.00%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10.00%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>20.00%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>50.00%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>100.00%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Epochs!$R$3:$R$30</c:f>
+              <c:f>Partial!$D$38:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.584</c:v>
+                  <c:v>0.023375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.645</c:v>
+                  <c:v>0.067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6617</c:v>
+                  <c:v>0.169425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.682</c:v>
+                  <c:v>0.439825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6805</c:v>
+                  <c:v>0.5327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6945</c:v>
+                  <c:v>0.604466666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6974</c:v>
+                  <c:v>0.6788</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7026</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7072</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7095</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.724</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.7077</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.7168</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.715</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.7168</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.7221</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.7289</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7128</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.721</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.7115</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.7265</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.7104</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.7193</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.7261</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.72</c:v>
+                  <c:v>0.71645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4545,18 +4541,18 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="10709082"/>
-        <c:axId val="17038921"/>
+        <c:marker val="1"/>
+        <c:axId val="4413917"/>
+        <c:axId val="96158705"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10709082"/>
+        <c:axId val="4413917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4585,14 +4581,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17038921"/>
+        <c:crossAx val="96158705"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17038921"/>
+        <c:axId val="96158705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,7 +4632,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10709082"/>
+        <c:crossAx val="4413917"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4684,9 +4680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>562680</xdr:colOff>
+      <xdr:colOff>562320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4694,8 +4690,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3062160" y="361080"/>
-        <a:ext cx="5501520" cy="3238560"/>
+        <a:off x="3205080" y="361080"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4714,9 +4710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>464400</xdr:colOff>
+      <xdr:colOff>464040</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4725,7 +4721,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36373320"/>
-        <a:ext cx="17502120" cy="4487040"/>
+        <a:ext cx="18358920" cy="4486680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4749,9 +4745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>87120</xdr:colOff>
+      <xdr:colOff>86760</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4759,8 +4755,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2923920" y="6032880"/>
-        <a:ext cx="4135320" cy="3237840"/>
+        <a:off x="2876400" y="6032880"/>
+        <a:ext cx="4068360" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4786,7 +4782,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6094,19 +6090,19 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.31632653061224"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -6754,7 +6750,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7138,7 +7134,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7262,6 +7258,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8804,7 +8803,7 @@
       <c r="K69" s="4" t="n">
         <v>0.8324232969315</v>
       </c>
-      <c r="L69" s="25" t="n">
+      <c r="L69" s="4" t="n">
         <v>0.846019439038667</v>
       </c>
     </row>
@@ -12654,9 +12653,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -13077,16 +13073,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z31" activeCellId="0" sqref="Z31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -13230,6 +13223,7 @@
       <c r="T4" s="4" t="n">
         <v>0.7207</v>
       </c>
+      <c r="W4" s="4"/>
       <c r="X4" s="4" t="n">
         <v>1</v>
       </c>
@@ -13238,6 +13232,9 @@
       </c>
       <c r="Z4" s="4" t="n">
         <v>0.7215</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.7178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13268,6 +13265,7 @@
       <c r="T5" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="W5" s="4"/>
       <c r="X5" s="4" t="n">
         <v>1</v>
       </c>
@@ -13277,6 +13275,7 @@
       <c r="Z5" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="AD5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="n">
@@ -13314,6 +13313,9 @@
       <c r="T6" s="4" t="n">
         <v>0.6882</v>
       </c>
+      <c r="W6" s="4" t="n">
+        <v>0.669</v>
+      </c>
       <c r="X6" s="4" t="n">
         <v>0.5</v>
       </c>
@@ -13322,6 +13324,9 @@
       </c>
       <c r="Z6" s="4" t="n">
         <v>0.6829</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.6894</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13352,6 +13357,7 @@
       <c r="T7" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="W7" s="4"/>
       <c r="X7" s="4" t="n">
         <v>0.5</v>
       </c>
@@ -13361,6 +13367,7 @@
       <c r="Z7" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="AD7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="n">
@@ -13390,6 +13397,7 @@
       <c r="T8" s="4" t="n">
         <v>0.6652</v>
       </c>
+      <c r="W8" s="4"/>
       <c r="X8" s="4" t="n">
         <v>0.5</v>
       </c>
@@ -13398,6 +13406,9 @@
       </c>
       <c r="Z8" s="4" t="n">
         <v>0.6781</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.6954</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13436,6 +13447,9 @@
       <c r="T9" s="4" t="n">
         <v>0.6396</v>
       </c>
+      <c r="W9" s="4" t="n">
+        <v>0.6267</v>
+      </c>
       <c r="X9" s="4" t="n">
         <v>0.2</v>
       </c>
@@ -13444,6 +13458,9 @@
       </c>
       <c r="Z9" s="4" t="n">
         <v>0.6318</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.6236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13474,6 +13491,7 @@
       <c r="T10" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="W10" s="4"/>
       <c r="X10" s="4" t="n">
         <v>0.2</v>
       </c>
@@ -13483,6 +13501,7 @@
       <c r="Z10" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="AD10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="n">
@@ -13512,6 +13531,9 @@
       <c r="T11" s="4" t="n">
         <v>0.6345</v>
       </c>
+      <c r="W11" s="4" t="n">
+        <v>0.6449</v>
+      </c>
       <c r="X11" s="4" t="n">
         <v>0.2</v>
       </c>
@@ -13520,6 +13542,9 @@
       </c>
       <c r="Z11" s="4" t="n">
         <v>0.6522</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>0.6491</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13558,6 +13583,9 @@
       <c r="T12" s="4" t="n">
         <v>0.5056</v>
       </c>
+      <c r="W12" s="4" t="n">
+        <v>0.5254</v>
+      </c>
       <c r="X12" s="4" t="n">
         <v>0.1</v>
       </c>
@@ -13566,6 +13594,9 @@
       </c>
       <c r="Z12" s="4" t="n">
         <v>0.5359</v>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v>0.5423</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13596,6 +13627,7 @@
       <c r="T13" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="W13" s="4"/>
       <c r="X13" s="4" t="n">
         <v>0.1</v>
       </c>
@@ -13605,6 +13637,7 @@
       <c r="Z13" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="AD13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
@@ -13634,6 +13667,9 @@
       <c r="T14" s="4" t="n">
         <v>0.5468</v>
       </c>
+      <c r="W14" s="4" t="n">
+        <v>0.5616</v>
+      </c>
       <c r="X14" s="4" t="n">
         <v>0.1</v>
       </c>
@@ -13642,6 +13678,9 @@
       </c>
       <c r="Z14" s="4" t="n">
         <v>0.5271</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>0.5482</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13680,6 +13719,9 @@
       <c r="T15" s="4" t="n">
         <v>0.489</v>
       </c>
+      <c r="W15" s="4" t="n">
+        <v>0.4279</v>
+      </c>
       <c r="X15" s="4" t="n">
         <v>0.05</v>
       </c>
@@ -13688,6 +13730,9 @@
       </c>
       <c r="Z15" s="4" t="n">
         <v>0.4061</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>0.4708</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13718,6 +13763,7 @@
       <c r="T16" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="W16" s="4"/>
       <c r="X16" s="4" t="n">
         <v>0.05</v>
       </c>
@@ -13727,6 +13773,7 @@
       <c r="Z16" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="AD16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="n">
@@ -13757,6 +13804,9 @@
       <c r="T17" s="4" t="n">
         <v>0.4616</v>
       </c>
+      <c r="W17" s="4" t="n">
+        <v>0.4721</v>
+      </c>
       <c r="X17" s="4" t="n">
         <v>0.05</v>
       </c>
@@ -13765,6 +13815,9 @@
       </c>
       <c r="Z17" s="4" t="n">
         <v>0.4683</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>0.4767</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13814,6 +13867,9 @@
       <c r="T18" s="4" t="n">
         <v>0.5072</v>
       </c>
+      <c r="W18" s="4" t="n">
+        <v>0.5318</v>
+      </c>
       <c r="X18" s="4" t="n">
         <v>0.05</v>
       </c>
@@ -13822,6 +13878,9 @@
       </c>
       <c r="Z18" s="4" t="n">
         <v>0.4891</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>0.4791</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13866,6 +13925,9 @@
       <c r="T19" s="4" t="n">
         <v>0.2621</v>
       </c>
+      <c r="W19" s="4" t="n">
+        <v>0.3258</v>
+      </c>
       <c r="X19" s="4" t="n">
         <v>0.02</v>
       </c>
@@ -13875,6 +13937,7 @@
       <c r="Z19" s="4" t="n">
         <v>0.3737</v>
       </c>
+      <c r="AD19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4" t="n">
@@ -13910,6 +13973,7 @@
       <c r="T20" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="W20" s="4"/>
       <c r="X20" s="4" t="n">
         <v>0.02</v>
       </c>
@@ -13919,6 +13983,7 @@
       <c r="Z20" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="AD20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="n">
@@ -13955,6 +14020,9 @@
       <c r="T21" s="4" t="n">
         <v>0.3331</v>
       </c>
+      <c r="W21" s="4" t="n">
+        <v>0.3484</v>
+      </c>
       <c r="X21" s="4" t="n">
         <v>0.02</v>
       </c>
@@ -13964,6 +14032,7 @@
       <c r="Z21" s="4" t="n">
         <v>0.3423</v>
       </c>
+      <c r="AD21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="n">
@@ -13999,6 +14068,9 @@
       <c r="T22" s="4" t="n">
         <v>0.3899</v>
       </c>
+      <c r="W22" s="4" t="n">
+        <v>0.3682</v>
+      </c>
       <c r="X22" s="4" t="n">
         <v>0.02</v>
       </c>
@@ -14008,6 +14080,7 @@
       <c r="Z22" s="4" t="n">
         <v>0.3877</v>
       </c>
+      <c r="AD22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4" t="n">
@@ -14051,6 +14124,9 @@
       <c r="T23" s="4" t="n">
         <v>0.2191</v>
       </c>
+      <c r="W23" s="4" t="n">
+        <v>0.1542</v>
+      </c>
       <c r="X23" s="4" t="n">
         <v>0.01</v>
       </c>
@@ -14059,6 +14135,9 @@
       </c>
       <c r="Z23" s="4" t="n">
         <v>0.2317</v>
+      </c>
+      <c r="AD23" s="4" t="n">
+        <v>0.2366</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14096,6 +14175,7 @@
       <c r="T24" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="W24" s="4"/>
       <c r="X24" s="4" t="n">
         <v>0.01</v>
       </c>
@@ -14105,6 +14185,7 @@
       <c r="Z24" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="AD24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4" t="n">
@@ -14141,6 +14222,9 @@
       <c r="T25" s="4" t="n">
         <v>0.209</v>
       </c>
+      <c r="W25" s="4" t="n">
+        <v>0.2422</v>
+      </c>
       <c r="X25" s="4" t="n">
         <v>0.01</v>
       </c>
@@ -14149,6 +14233,9 @@
       </c>
       <c r="Z25" s="4" t="n">
         <v>0.2594</v>
+      </c>
+      <c r="AD25" s="4" t="n">
+        <v>0.2742</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14185,6 +14272,9 @@
       <c r="T26" s="4" t="n">
         <v>0.2472</v>
       </c>
+      <c r="W26" s="4" t="n">
+        <v>0.1683</v>
+      </c>
       <c r="X26" s="4" t="n">
         <v>0.01</v>
       </c>
@@ -14193,6 +14283,9 @@
       </c>
       <c r="Z26" s="4" t="n">
         <v>0.2047</v>
+      </c>
+      <c r="AD26" s="4" t="n">
+        <v>0.2826</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14237,6 +14330,9 @@
       <c r="T27" s="4" t="n">
         <v>0.1499</v>
       </c>
+      <c r="W27" s="4" t="n">
+        <v>0.1629</v>
+      </c>
       <c r="X27" s="4" t="n">
         <v>0.005</v>
       </c>
@@ -14245,6 +14341,9 @@
       </c>
       <c r="Z27" s="4" t="n">
         <v>0.2507</v>
+      </c>
+      <c r="AD27" s="4" t="n">
+        <v>0.2571</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14281,6 +14380,7 @@
       <c r="T28" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="W28" s="4"/>
       <c r="X28" s="4" t="n">
         <v>0.005</v>
       </c>
@@ -14290,6 +14390,7 @@
       <c r="Z28" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="AD28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4" t="n">
@@ -14325,6 +14426,9 @@
       <c r="T29" s="4" t="n">
         <v>0.2101</v>
       </c>
+      <c r="W29" s="4" t="n">
+        <v>0.255</v>
+      </c>
       <c r="X29" s="4" t="n">
         <v>0.005</v>
       </c>
@@ -14334,6 +14438,7 @@
       <c r="Z29" s="4" t="n">
         <v>0.3218</v>
       </c>
+      <c r="AD29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="4" t="n">
@@ -14369,6 +14474,9 @@
       <c r="T30" s="4" t="n">
         <v>0.2139</v>
       </c>
+      <c r="W30" s="4" t="n">
+        <v>0.2299</v>
+      </c>
       <c r="X30" s="4" t="n">
         <v>0.005</v>
       </c>
@@ -14378,6 +14486,7 @@
       <c r="Z30" s="4" t="n">
         <v>0.2365</v>
       </c>
+      <c r="AD30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="4"/>
@@ -14521,9 +14630,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet8" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Partial" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="TrainableNoTrainableTransfer" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="SkenarioPengujian" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="254">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -736,6 +737,60 @@
   </si>
   <si>
     <t xml:space="preserve">Labelling rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skenario Pengujian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedding (word &amp; char)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model (WE/CE/Both)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainable Embedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidirectional merge (char)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← model CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidirectional merge (word)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← model WE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← model Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NER Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← using val set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainable GRU</t>
   </si>
 </sst>
 </file>
@@ -747,7 +802,7 @@
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -793,8 +848,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +890,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -909,7 +982,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1010,6 +1083,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1044,7 +1129,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1082,7 +1167,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart148.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1524,11 +1609,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="50690517"/>
-        <c:axId val="45856197"/>
+        <c:axId val="44684170"/>
+        <c:axId val="22410993"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50690517"/>
+        <c:axId val="44684170"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,14 +1648,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45856197"/>
+        <c:crossAx val="22410993"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45856197"/>
+        <c:axId val="22410993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1699,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50690517"/>
+        <c:crossAx val="44684170"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1651,7 +1736,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4179,11 +4264,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="27284721"/>
-        <c:axId val="8685493"/>
+        <c:axId val="72964591"/>
+        <c:axId val="71480532"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27284721"/>
+        <c:axId val="72964591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4218,14 +4303,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8685493"/>
+        <c:crossAx val="71480532"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8685493"/>
+        <c:axId val="71480532"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4269,7 +4354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27284721"/>
+        <c:crossAx val="72964591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4306,7 +4391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart150.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4542,11 +4627,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="4413917"/>
-        <c:axId val="96158705"/>
+        <c:axId val="49038381"/>
+        <c:axId val="96294575"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4413917"/>
+        <c:axId val="49038381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4581,14 +4666,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96158705"/>
+        <c:crossAx val="96294575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96158705"/>
+        <c:axId val="96294575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4632,7 +4717,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4413917"/>
+        <c:crossAx val="49038381"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4680,9 +4765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>562320</xdr:colOff>
+      <xdr:colOff>561960</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4690,8 +4775,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3205080" y="361080"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:off x="3157560" y="361080"/>
+        <a:ext cx="5671800" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4710,9 +4795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>464040</xdr:colOff>
+      <xdr:colOff>463680</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4721,7 +4806,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36373320"/>
-        <a:ext cx="18358920" cy="4486680"/>
+        <a:ext cx="18072720" cy="4486320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4745,9 +4830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>86760</xdr:colOff>
+      <xdr:colOff>86400</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4755,8 +4840,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2876400" y="6032880"/>
-        <a:ext cx="4068360" cy="3237480"/>
+        <a:off x="3019320" y="6032880"/>
+        <a:ext cx="4267800" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4777,12 +4862,12 @@
   <dimension ref="A2:S50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6069,6 +6154,230 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:K31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(F6:F18)</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6090,19 +6399,19 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3928571428571"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -6423,7 +6732,7 @@
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6745,12 +7054,12 @@
   <dimension ref="B1:N41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7134,7 +7443,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7253,13 +7562,13 @@
   </sheetPr>
   <dimension ref="A1:R235"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A221" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L235" activeCellId="0" sqref="L235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12653,6 +12962,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -13075,11 +13387,14 @@
   </sheetPr>
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -14626,10 +14941,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="259">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -748,22 +748,37 @@
     <t xml:space="preserve">Embedding (word &amp; char)</t>
   </si>
   <si>
+    <t xml:space="preserve">auto_script.sh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model (WE/CE/Both)</t>
   </si>
   <si>
     <t xml:space="preserve">Trainable Embedding</t>
   </si>
   <si>
+    <t xml:space="preserve">← using best embedding; no trainable only, trainable data are get from previous experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_script_notrain.sh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bidirectional merge (char)</t>
   </si>
   <si>
     <t xml:space="preserve">← model CE</t>
   </si>
   <si>
+    <t xml:space="preserve">auto_script_ce.sh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bidirectional merge (word)</t>
   </si>
   <si>
     <t xml:space="preserve">← model WE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_script_we.sh</t>
   </si>
   <si>
     <t xml:space="preserve">Merging layer</t>
@@ -802,7 +817,7 @@
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -850,6 +865,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -982,7 +1004,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1087,11 +1109,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1167,7 +1193,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart148.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1609,11 +1635,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="44684170"/>
-        <c:axId val="22410993"/>
+        <c:axId val="24434116"/>
+        <c:axId val="59376137"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44684170"/>
+        <c:axId val="24434116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,14 +1674,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22410993"/>
+        <c:crossAx val="59376137"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22410993"/>
+        <c:axId val="59376137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1725,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44684170"/>
+        <c:crossAx val="24434116"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1736,7 +1762,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4264,11 +4290,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="72964591"/>
-        <c:axId val="71480532"/>
+        <c:axId val="33072852"/>
+        <c:axId val="92912983"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72964591"/>
+        <c:axId val="33072852"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,14 +4329,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71480532"/>
+        <c:crossAx val="92912983"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71480532"/>
+        <c:axId val="92912983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,7 +4380,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72964591"/>
+        <c:crossAx val="33072852"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4391,7 +4417,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart150.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4627,11 +4653,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="49038381"/>
-        <c:axId val="96294575"/>
+        <c:axId val="67022188"/>
+        <c:axId val="81346848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49038381"/>
+        <c:axId val="67022188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4666,14 +4692,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96294575"/>
+        <c:crossAx val="81346848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96294575"/>
+        <c:axId val="81346848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,7 +4743,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49038381"/>
+        <c:crossAx val="67022188"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4765,9 +4791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
+      <xdr:colOff>561600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4775,8 +4801,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3157560" y="361080"/>
-        <a:ext cx="5671800" cy="3237840"/>
+        <a:off x="3109680" y="361080"/>
+        <a:ext cx="5586120" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4795,9 +4821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>463680</xdr:colOff>
+      <xdr:colOff>463320</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4806,7 +4832,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36373320"/>
-        <a:ext cx="18072720" cy="4486320"/>
+        <a:ext cx="17786520" cy="4485960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4830,9 +4856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>86400</xdr:colOff>
+      <xdr:colOff>86040</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4840,8 +4866,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3019320" y="6032880"/>
-        <a:ext cx="4267800" cy="3237120"/>
+        <a:off x="2971800" y="6032880"/>
+        <a:ext cx="4200840" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4866,9 +4892,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -6169,12 +6192,12 @@
   <dimension ref="B2:K31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,15 +6215,18 @@
         <v>238</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>3</v>
@@ -6208,59 +6234,71 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>242</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="26" t="n">
+      <c r="B12" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="27" t="n">
         <v>3</v>
       </c>
       <c r="F12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="27" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="26" t="n">
-        <v>3</v>
-      </c>
       <c r="F14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -6271,7 +6309,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>8</v>
@@ -6282,7 +6320,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>14</v>
@@ -6291,17 +6329,17 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="0" t="n">
         <f aca="false">SUM(F6:F18)</f>
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="25" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="27" t="s">
-        <v>250</v>
+      <c r="B23" s="28" t="s">
+        <v>255</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>148</v>
@@ -6312,7 +6350,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1</v>
@@ -6321,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1</v>
@@ -6335,7 +6373,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>2</v>
@@ -6349,10 +6387,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>2</v>
@@ -6399,19 +6437,19 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.2602040816327"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -7059,7 +7097,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,9 +7480,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0" t="s">
@@ -7568,7 +7603,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12963,7 +12998,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13393,7 +13428,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14946,7 +14981,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,11 @@
     <sheet name="Partial" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="TrainableNoTrainableTransfer" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="SkenarioPengujian" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="OhNo" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="272">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -751,6 +755,9 @@
     <t xml:space="preserve">auto_script.sh</t>
   </si>
   <si>
+    <t xml:space="preserve">logExM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model (WE/CE/Both)</t>
   </si>
   <si>
@@ -763,6 +770,9 @@
     <t xml:space="preserve">auto_script_notrain.sh</t>
   </si>
   <si>
+    <t xml:space="preserve">logTxM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bidirectional merge (char)</t>
   </si>
   <si>
@@ -806,16 +816,50 @@
   </si>
   <si>
     <t xml:space="preserve">Trainable GRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1004,7 +1048,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1121,6 +1165,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1193,7 +1241,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1635,11 +1683,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24434116"/>
-        <c:axId val="59376137"/>
+        <c:axId val="55236653"/>
+        <c:axId val="8093166"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24434116"/>
+        <c:axId val="55236653"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,14 +1722,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59376137"/>
+        <c:crossAx val="8093166"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59376137"/>
+        <c:axId val="8093166"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1773,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24434116"/>
+        <c:crossAx val="55236653"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1762,7 +1810,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4290,11 +4338,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="33072852"/>
-        <c:axId val="92912983"/>
+        <c:axId val="86531954"/>
+        <c:axId val="88741849"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33072852"/>
+        <c:axId val="86531954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4329,14 +4377,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92912983"/>
+        <c:crossAx val="88741849"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92912983"/>
+        <c:axId val="88741849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4380,7 +4428,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33072852"/>
+        <c:crossAx val="86531954"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4417,7 +4465,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4653,11 +4701,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67022188"/>
-        <c:axId val="81346848"/>
+        <c:axId val="82237733"/>
+        <c:axId val="78941774"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67022188"/>
+        <c:axId val="82237733"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4692,14 +4740,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81346848"/>
+        <c:crossAx val="78941774"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81346848"/>
+        <c:axId val="78941774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,7 +4791,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67022188"/>
+        <c:crossAx val="82237733"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4791,9 +4839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>561600</xdr:colOff>
+      <xdr:colOff>561240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4801,8 +4849,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3109680" y="361080"/>
-        <a:ext cx="5586120" cy="3237480"/>
+        <a:off x="3062160" y="361080"/>
+        <a:ext cx="5500080" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4821,9 +4869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>463320</xdr:colOff>
+      <xdr:colOff>462960</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4832,7 +4880,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36373320"/>
-        <a:ext cx="17786520" cy="4485960"/>
+        <a:ext cx="17500680" cy="4485600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4856,9 +4904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
+      <xdr:colOff>85680</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4866,8 +4914,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2971800" y="6032880"/>
-        <a:ext cx="4200840" cy="3236760"/>
+        <a:off x="2923920" y="6032880"/>
+        <a:ext cx="4133880" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4878,6 +4926,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4892,6 +4944,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -6191,14 +6246,11 @@
   </sheetPr>
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
@@ -6223,10 +6275,13 @@
       <c r="H6" s="26" t="s">
         <v>239</v>
       </c>
+      <c r="J6" s="0" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>3</v>
@@ -6234,10 +6289,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -6246,12 +6301,15 @@
         <v>3</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
@@ -6259,11 +6317,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E12" s="27" t="n">
         <v>3</v>
@@ -6272,16 +6330,16 @@
         <v>4</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E14" s="27" t="n">
         <v>3</v>
@@ -6290,15 +6348,15 @@
         <v>4</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -6309,7 +6367,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>8</v>
@@ -6320,7 +6378,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>14</v>
@@ -6334,12 +6392,12 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>148</v>
@@ -6350,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1</v>
@@ -6359,7 +6417,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1</v>
@@ -6373,7 +6431,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>2</v>
@@ -6387,10 +6445,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>2</v>
@@ -6420,6 +6478,2835 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T75"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.71655193056</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.713732499255</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.71655193056</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.713732499255</v>
+      </c>
+      <c r="Q4" s="0" t="str">
+        <f aca="false">IF(K4&gt;O4,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">AVERAGE(K4:K10)</f>
+        <v>0.714672439525286</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">AVERAGE(O4:O10)</f>
+        <v>0.722212851650429</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.71089762834</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.724932654894</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.71089762834</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.724932654894</v>
+      </c>
+      <c r="Q5" s="0" t="str">
+        <f aca="false">IF(K5&gt;O5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.714972940469</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.726672667267</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.714972940469</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.726672667267</v>
+      </c>
+      <c r="Q6" s="0" t="str">
+        <f aca="false">IF(K6&gt;O6,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.713816771113</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.734510625561</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.713816771113</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.734510625561</v>
+      </c>
+      <c r="Q7" s="0" t="str">
+        <f aca="false">IF(K7&gt;O7,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.927015891701</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.928941786472</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.723072307231</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.710353081987</v>
+      </c>
+      <c r="Q8" s="0" t="str">
+        <f aca="false">IF(K8&gt;O8,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.723072307231</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.710353081987</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.716034637205</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.722884386174</v>
+      </c>
+      <c r="Q9" s="0" t="str">
+        <f aca="false">IF(K9&gt;O9,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.716034637205</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.722884386174</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.707360861759</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.722404046415</v>
+      </c>
+      <c r="Q10" s="0" t="str">
+        <f aca="false">IF(K10&gt;O10,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.707360861759</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.722404046415</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.687386843693</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.684848484848</v>
+      </c>
+      <c r="Q11" s="0" t="str">
+        <f aca="false">IF(K11&gt;O11,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">AVERAGE(K11:K17)</f>
+        <v>0.676948388972857</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">AVERAGE(O11:O17)</f>
+        <v>0.679980990292571</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.926826396656</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.928053738731</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.67438318611</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.669525267994</v>
+      </c>
+      <c r="Q12" s="0" t="str">
+        <f aca="false">IF(K12&gt;O12,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.687386843693</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.684848484848</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.696642685851</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.6741301059</v>
+      </c>
+      <c r="Q13" s="0" t="str">
+        <f aca="false">IF(K13&gt;O13,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.67438318611</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.669525267994</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.68109407875</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.702018680325</v>
+      </c>
+      <c r="Q14" s="0" t="str">
+        <f aca="false">IF(K14&gt;O14,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.696642685851</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.6741301059</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.667072428484</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.681359044995</v>
+      </c>
+      <c r="Q15" s="0" t="str">
+        <f aca="false">IF(K15&gt;O15,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.68109407875</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.702018680325</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.683000604961</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.692307692308</v>
+      </c>
+      <c r="Q16" s="0" t="str">
+        <f aca="false">IF(K16&gt;O16,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.920919269299</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.923240434577</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.649058894961</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.655677655678</v>
+      </c>
+      <c r="Q17" s="0" t="str">
+        <f aca="false">IF(K17&gt;O17,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.667072428484</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.681359044995</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.637457574823</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.630734680783</v>
+      </c>
+      <c r="Q18" s="0" t="str">
+        <f aca="false">IF(K18&gt;O18,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">AVERAGE(K18:K24)</f>
+        <v>0.620813189878571</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">AVERAGE(O18:O24)</f>
+        <v>0.617994024519</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.683000604961</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.692307692308</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.620174346202</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.620092735703</v>
+      </c>
+      <c r="Q19" s="0" t="str">
+        <f aca="false">IF(K19&gt;O19,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.649058894961</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.655677655678</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.618844984802</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.604881062712</v>
+      </c>
+      <c r="Q20" s="0" t="str">
+        <f aca="false">IF(K20&gt;O20,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.921888816837</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.919853635505</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.660741648789</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.646946564885</v>
+      </c>
+      <c r="Q21" s="0" t="str">
+        <f aca="false">IF(K21&gt;O21,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.637457574823</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.630734680783</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.591229684146</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.596347607053</v>
+      </c>
+      <c r="Q22" s="0" t="str">
+        <f aca="false">IF(K22&gt;O22,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.620174346202</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.620092735703</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.620440156768</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0.627998785302</v>
+      </c>
+      <c r="Q23" s="0" t="str">
+        <f aca="false">IF(K23&gt;O23,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.618844984802</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.604881062712</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.59680393362</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.598956735195</v>
+      </c>
+      <c r="Q24" s="0" t="str">
+        <f aca="false">IF(K24&gt;O24,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.660741648789</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.646946564885</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.592405063291</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.591849935317</v>
+      </c>
+      <c r="Q25" s="0" t="str">
+        <f aca="false">IF(K25&gt;O25,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">AVERAGE(K25:K31)</f>
+        <v>0.545992971736714</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">AVERAGE(O25:O31)</f>
+        <v>0.558633536236286</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.909959313639</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.908092792633</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0.53618628068</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0.555413196669</v>
+      </c>
+      <c r="Q26" s="0" t="str">
+        <f aca="false">IF(K26&gt;O26,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.591229684146</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.596347607053</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.550815558344</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.575385583884</v>
+      </c>
+      <c r="Q27" s="0" t="str">
+        <f aca="false">IF(K27&gt;O27,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.620440156768</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.627998785302</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.583968302347</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.57501569366</v>
+      </c>
+      <c r="Q28" s="0" t="str">
+        <f aca="false">IF(K28&gt;O28,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.59680393362</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.598956735195</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0.531849103278</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.55317769131</v>
+      </c>
+      <c r="Q29" s="0" t="str">
+        <f aca="false">IF(K29&gt;O29,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.904283009938</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.904539267326</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0.461977186312</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.507824976046</v>
+      </c>
+      <c r="Q30" s="0" t="str">
+        <f aca="false">IF(K30&gt;O30,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.592405063291</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.591849935317</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0.564749307905</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0.551767676768</v>
+      </c>
+      <c r="Q31" s="0" t="str">
+        <f aca="false">IF(K31&gt;O31,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.53618628068</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.555413196669</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0.472800537273</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0.491110365649</v>
+      </c>
+      <c r="Q32" s="0" t="str">
+        <f aca="false">IF(K32&gt;O32,"yes","no")</f>
+        <v>no</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <f aca="false">AVERAGE(K32:K38)</f>
+        <v>0.460743852672714</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <f aca="false">AVERAGE(O32:O38)</f>
+        <v>0.491037572215857</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.550815558344</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.575385583884</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0.434473854099</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.518118245391</v>
+      </c>
+      <c r="Q33" s="0" t="str">
+        <f aca="false">IF(K33&gt;O33,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.583968302347</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.57501569366</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0.510901399284</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.568085797855</v>
+      </c>
+      <c r="Q34" s="0" t="str">
+        <f aca="false">IF(K34&gt;O34,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.890085824208</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.894602458286</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0.474908200734</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.467459762071</v>
+      </c>
+      <c r="Q35" s="0" t="str">
+        <f aca="false">IF(K35&gt;O35,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.531849103278</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.55317769131</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0.486912645853</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.473755047106</v>
+      </c>
+      <c r="Q36" s="0" t="str">
+        <f aca="false">IF(K36&gt;O36,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.461977186312</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.507824976046</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0.368553459119</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.465788628333</v>
+      </c>
+      <c r="Q37" s="0" t="str">
+        <f aca="false">IF(K37&gt;O37,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.564749307905</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.551767676768</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0.476656872347</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.452945159106</v>
+      </c>
+      <c r="Q38" s="0" t="str">
+        <f aca="false">IF(K38&gt;O38,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.895278665247</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.894328216678</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0.260103312063</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0.300450266066</v>
+      </c>
+      <c r="Q39" s="0" t="str">
+        <f aca="false">IF(K39&gt;O39,"yes","no")</f>
+        <v>no</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <f aca="false">AVERAGE(K39:K45)</f>
+        <v>0.340001702230857</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <f aca="false">AVERAGE(O39:O45)</f>
+        <v>0.324978126076429</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.472800537273</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0.491110365649</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0.420795533845</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.352982211371</v>
+      </c>
+      <c r="Q40" s="0" t="str">
+        <f aca="false">IF(K40&gt;O40,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.434473854099</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.518118245391</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0.377164849262</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0.333449356074</v>
+      </c>
+      <c r="Q41" s="0" t="str">
+        <f aca="false">IF(K41&gt;O41,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.510901399284</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.568085797855</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0.361445783133</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.358992060753</v>
+      </c>
+      <c r="Q42" s="0" t="str">
+        <f aca="false">IF(K42&gt;O42,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.474908200734</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.467459762071</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0.3192550715</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.307990690458</v>
+      </c>
+      <c r="Q43" s="0" t="str">
+        <f aca="false">IF(K43&gt;O43,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.884699745095</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.88298567778</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0.295857988166</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.302325581395</v>
+      </c>
+      <c r="Q44" s="0" t="str">
+        <f aca="false">IF(K44&gt;O44,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.486912645853</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.473755047106</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0.345389377647</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0.318656716418</v>
+      </c>
+      <c r="Q45" s="0" t="str">
+        <f aca="false">IF(K45&gt;O45,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.368553459119</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0.465788628333</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0.250269687163</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.229408792319</v>
+      </c>
+      <c r="Q46" s="0" t="str">
+        <f aca="false">IF(K46&gt;O46,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <f aca="false">AVERAGE(K46:K52)</f>
+        <v>0.270123896568286</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <f aca="false">AVERAGE(O46:O52)</f>
+        <v>0.220517015050143</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.476656872347</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.452945159106</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0.324441240087</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.267498885421</v>
+      </c>
+      <c r="Q47" s="0" t="str">
+        <f aca="false">IF(K47&gt;O47,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.878253172027</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.86400661079</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0.266412940057</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0.184782608696</v>
+      </c>
+      <c r="Q48" s="0" t="str">
+        <f aca="false">IF(K48&gt;O48,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.260103312063</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0.300450266066</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0.296150049358</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>0.259302781042</v>
+      </c>
+      <c r="Q49" s="0" t="str">
+        <f aca="false">IF(K49&gt;O49,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.420795533845</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.352982211371</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0.22844126261</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>0.181978021978</v>
+      </c>
+      <c r="Q50" s="0" t="str">
+        <f aca="false">IF(K50&gt;O50,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.377164849262</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.333449356074</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0.292492687683</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>0.260307194826</v>
+      </c>
+      <c r="Q51" s="0" t="str">
+        <f aca="false">IF(K51&gt;O51,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.361445783133</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0.358992060753</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0.23265940902</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>0.160340821069</v>
+      </c>
+      <c r="Q52" s="0" t="str">
+        <f aca="false">IF(K52&gt;O52,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.867099541312</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.857176791971</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0.306393244873</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0.265205479452</v>
+      </c>
+      <c r="Q53" s="0" t="str">
+        <f aca="false">IF(K53&gt;O53,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <f aca="false">AVERAGE(K53:K59)</f>
+        <v>0.223615530575571</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <f aca="false">AVERAGE(O53:O59)</f>
+        <v>0.153999080267986</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.3192550715</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0.307990690458</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>0.171532846715</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>0.0791208791209</v>
+      </c>
+      <c r="Q54" s="0" t="str">
+        <f aca="false">IF(K54&gt;O54,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.295857988166</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0.302325581395</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>0.221264367816</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0.112512124151</v>
+      </c>
+      <c r="Q55" s="0" t="str">
+        <f aca="false">IF(K55&gt;O55,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.345389377647</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0.318656716418</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0.301687065829</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>0.231375985977</v>
+      </c>
+      <c r="Q56" s="0" t="str">
+        <f aca="false">IF(K56&gt;O56,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.850067802606</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.840415486308</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0.210690596957</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0.165316045381</v>
+      </c>
+      <c r="Q57" s="0" t="str">
+        <f aca="false">IF(K57&gt;O57,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.250269687163</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0.229408792319</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0.196775255018</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0.110410094637</v>
+      </c>
+      <c r="Q58" s="0" t="str">
+        <f aca="false">IF(K58&gt;O58,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.324441240087</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0.267498885421</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0.156965336821</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0.114052953157</v>
+      </c>
+      <c r="Q59" s="0" t="str">
+        <f aca="false">IF(K59&gt;O59,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.266412940057</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0.184782608696</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.296150049358</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0.259302781042</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.842689989363</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0.837042270105</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.22844126261</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0.181978021978</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.292492687683</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0.260307194826</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.23265940902</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0.160340821069</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.837181903864</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0.845913984821</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.306393244873</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0.265205479452</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.171532846715</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0.0791208791209</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.221264367816</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0.112512124151</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.301687065829</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0.231375985977</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.855546687949</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0.860190151146</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.210690596957</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0.165316045381</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.196775255018</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0.110410094637</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.156965336821</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0.114052953157</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.827683615819</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0.833646837526</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="Q3:R59"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6437,19 +9324,19 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.1224489795918"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -7097,7 +9984,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,6 +10367,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0" t="s">
@@ -7602,9 +10492,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -12998,7 +15885,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13428,7 +16315,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14981,7 +17868,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,9 +19,15 @@
     <sheet name="TrainableNoTrainableTransfer" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="SkenarioPengujian" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="OhNo" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="PengujianPOS" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="305">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -749,6 +755,12 @@
     <t xml:space="preserve">POS Tag</t>
   </si>
   <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Embedding (word &amp; char)</t>
   </si>
   <si>
@@ -758,9 +770,18 @@
     <t xml:space="preserve">logExM</t>
   </si>
   <si>
+    <t xml:space="preserve">← polyglot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model (WE/CE/Both)</t>
   </si>
   <si>
+    <t xml:space="preserve">← both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trainable Embedding</t>
   </si>
   <si>
@@ -773,6 +794,12 @@
     <t xml:space="preserve">logTxM</t>
   </si>
   <si>
+    <t xml:space="preserve">← trainable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bidirectional merge (char)</t>
   </si>
   <si>
@@ -782,6 +809,15 @@
     <t xml:space="preserve">auto_script_ce.sh</t>
   </si>
   <si>
+    <t xml:space="preserve">logCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← mul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bidirectional merge (word)</t>
   </si>
   <si>
@@ -791,18 +827,72 @@
     <t xml:space="preserve">auto_script_we.sh</t>
   </si>
   <si>
+    <t xml:space="preserve">logWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merging layer</t>
   </si>
   <si>
     <t xml:space="preserve">← model Both</t>
   </si>
   <si>
+    <t xml:space="preserve">auto_script_bo.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← maybe 3 (inconsistent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimizer</t>
   </si>
   <si>
+    <t xml:space="preserve">auto_script_ol.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← adam, binary_crossentropy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Loss function</t>
   </si>
   <si>
+    <t xml:space="preserve">p7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← using dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_script_epoch.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logEpoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← still three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_script_do.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← zero dropout</t>
+  </si>
+  <si>
     <t xml:space="preserve">NER Tag</t>
   </si>
   <si>
@@ -849,6 +939,21 @@
   </si>
   <si>
     <t xml:space="preserve">0.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rang Fasttext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rang Word2Vec</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1346,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1683,11 +1788,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="55236653"/>
-        <c:axId val="8093166"/>
+        <c:axId val="98054452"/>
+        <c:axId val="50606896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55236653"/>
+        <c:axId val="98054452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,14 +1827,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8093166"/>
+        <c:crossAx val="50606896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8093166"/>
+        <c:axId val="50606896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1878,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55236653"/>
+        <c:crossAx val="98054452"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1810,7 +1915,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4338,11 +4443,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="86531954"/>
-        <c:axId val="88741849"/>
+        <c:axId val="50611429"/>
+        <c:axId val="14609286"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86531954"/>
+        <c:axId val="50611429"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4377,14 +4482,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88741849"/>
+        <c:crossAx val="14609286"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88741849"/>
+        <c:axId val="14609286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4428,7 +4533,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86531954"/>
+        <c:crossAx val="50611429"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4465,7 +4570,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4701,11 +4806,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="82237733"/>
-        <c:axId val="78941774"/>
+        <c:axId val="46777520"/>
+        <c:axId val="76946684"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82237733"/>
+        <c:axId val="46777520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4740,14 +4845,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78941774"/>
+        <c:crossAx val="76946684"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78941774"/>
+        <c:axId val="76946684"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,7 +4896,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82237733"/>
+        <c:crossAx val="46777520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4839,9 +4944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>561240</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4849,8 +4954,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3062160" y="361080"/>
-        <a:ext cx="5500080" cy="3237120"/>
+        <a:off x="3205080" y="361080"/>
+        <a:ext cx="5755320" cy="3235320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4869,9 +4974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>462960</xdr:colOff>
+      <xdr:colOff>461160</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4880,7 +4985,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36373320"/>
-        <a:ext cx="17500680" cy="4485600"/>
+        <a:ext cx="18356040" cy="4483800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4904,9 +5009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4914,8 +5019,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2923920" y="6032880"/>
-        <a:ext cx="4133880" cy="3236400"/>
+        <a:off x="2876400" y="6032880"/>
+        <a:ext cx="4065480" cy="3234600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4940,12 +5045,12 @@
   <dimension ref="A2:S50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,13 +6349,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K31"/>
+  <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
@@ -6262,9 +6370,17 @@
         <v>237</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>239</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>5</v>
@@ -6273,26 +6389,35 @@
         <v>15</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="M7" s="0" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>246</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -6301,27 +6426,33 @@
         <v>3</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>252</v>
+      </c>
       <c r="B12" s="27" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E12" s="27" t="n">
         <v>3</v>
@@ -6330,16 +6461,25 @@
         <v>4</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>248</v>
+        <v>255</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>258</v>
+      </c>
       <c r="B14" s="27" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E14" s="27" t="n">
         <v>3</v>
@@ -6348,15 +6488,24 @@
         <v>4</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>251</v>
+        <v>261</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>264</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -6364,10 +6513,22 @@
       <c r="F16" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="H16" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>270</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>8</v>
@@ -6375,98 +6536,144 @@
       <c r="F18" s="0" t="n">
         <v>112</v>
       </c>
+      <c r="H18" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="0" t="n">
-        <f aca="false">SUM(F6:F18)</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="D32" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="K25" s="0" t="n">
+      <c r="J32" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E34" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="K27" s="0" t="n">
+      <c r="H34" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="K28" s="0" t="n">
+      <c r="F35" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="K35" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="0" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K37" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="0" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K38" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6488,13 +6695,13 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,19 +6709,19 @@
         <v>148</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>148</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>148</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6522,7 +6729,7 @@
         <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>150</v>
@@ -6532,7 +6739,7 @@
         <v>227</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>150</v>
@@ -6541,7 +6748,7 @@
         <v>227</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>150</v>
@@ -6551,19 +6758,19 @@
         <v>227</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>150</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6572,7 +6779,7 @@
         <v>0.71655193056</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -6581,7 +6788,7 @@
         <v>0.713732499255</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -6590,7 +6797,7 @@
         <v>0.71655193056</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>0</v>
@@ -6613,7 +6820,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -6622,7 +6829,7 @@
         <v>0.71089762834</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -6631,7 +6838,7 @@
         <v>0.724932654894</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -6640,7 +6847,7 @@
         <v>0.71089762834</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
@@ -6655,7 +6862,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
@@ -6664,7 +6871,7 @@
         <v>0.714972940469</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
@@ -6673,7 +6880,7 @@
         <v>0.726672667267</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>2</v>
@@ -6682,7 +6889,7 @@
         <v>0.714972940469</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>2</v>
@@ -6697,7 +6904,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3</v>
@@ -6706,7 +6913,7 @@
         <v>0.713816771113</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3</v>
@@ -6715,7 +6922,7 @@
         <v>0.734510625561</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>3</v>
@@ -6724,7 +6931,7 @@
         <v>0.713816771113</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>3</v>
@@ -6739,7 +6946,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>4</v>
@@ -6748,7 +6955,7 @@
         <v>0.927015891701</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -6757,7 +6964,7 @@
         <v>0.928941786472</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>5</v>
@@ -6766,7 +6973,7 @@
         <v>0.723072307231</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>5</v>
@@ -6781,7 +6988,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
@@ -6790,7 +6997,7 @@
         <v>0.723072307231</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5</v>
@@ -6799,7 +7006,7 @@
         <v>0.710353081987</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>6</v>
@@ -6808,7 +7015,7 @@
         <v>0.716034637205</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>6</v>
@@ -6823,7 +7030,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>6</v>
@@ -6832,7 +7039,7 @@
         <v>0.716034637205</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -6841,7 +7048,7 @@
         <v>0.722884386174</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>7</v>
@@ -6850,7 +7057,7 @@
         <v>0.707360861759</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>7</v>
@@ -6865,7 +7072,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>7</v>
@@ -6874,7 +7081,7 @@
         <v>0.707360861759</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -6883,7 +7090,7 @@
         <v>0.722404046415</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -6892,7 +7099,7 @@
         <v>0.687386843693</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>0</v>
@@ -6915,7 +7122,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>12</v>
@@ -6924,7 +7131,7 @@
         <v>0.926826396656</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>12</v>
@@ -6933,7 +7140,7 @@
         <v>0.928053738731</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -6942,7 +7149,7 @@
         <v>0.67438318611</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>1</v>
@@ -6957,7 +7164,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6966,7 +7173,7 @@
         <v>0.687386843693</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
@@ -6975,7 +7182,7 @@
         <v>0.684848484848</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>2</v>
@@ -6984,7 +7191,7 @@
         <v>0.696642685851</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>2</v>
@@ -6999,7 +7206,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -7008,7 +7215,7 @@
         <v>0.67438318611</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -7017,7 +7224,7 @@
         <v>0.669525267994</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>3</v>
@@ -7026,7 +7233,7 @@
         <v>0.68109407875</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>3</v>
@@ -7041,7 +7248,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
@@ -7050,7 +7257,7 @@
         <v>0.696642685851</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -7059,7 +7266,7 @@
         <v>0.6741301059</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>5</v>
@@ -7068,7 +7275,7 @@
         <v>0.667072428484</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>5</v>
@@ -7083,7 +7290,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
@@ -7092,7 +7299,7 @@
         <v>0.68109407875</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -7101,7 +7308,7 @@
         <v>0.702018680325</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>6</v>
@@ -7110,7 +7317,7 @@
         <v>0.683000604961</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>6</v>
@@ -7125,7 +7332,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
@@ -7134,7 +7341,7 @@
         <v>0.920919269299</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -7143,7 +7350,7 @@
         <v>0.923240434577</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>7</v>
@@ -7152,7 +7359,7 @@
         <v>0.649058894961</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>7</v>
@@ -7167,7 +7374,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
@@ -7176,7 +7383,7 @@
         <v>0.667072428484</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>5</v>
@@ -7185,7 +7392,7 @@
         <v>0.681359044995</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -7194,7 +7401,7 @@
         <v>0.637457574823</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>0</v>
@@ -7217,7 +7424,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6</v>
@@ -7226,7 +7433,7 @@
         <v>0.683000604961</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>6</v>
@@ -7235,7 +7442,7 @@
         <v>0.692307692308</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>1</v>
@@ -7244,7 +7451,7 @@
         <v>0.620174346202</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>1</v>
@@ -7259,7 +7466,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>7</v>
@@ -7268,7 +7475,7 @@
         <v>0.649058894961</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -7277,7 +7484,7 @@
         <v>0.655677655678</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>2</v>
@@ -7286,7 +7493,7 @@
         <v>0.618844984802</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>2</v>
@@ -7301,7 +7508,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>12</v>
@@ -7310,7 +7517,7 @@
         <v>0.921888816837</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>12</v>
@@ -7319,7 +7526,7 @@
         <v>0.919853635505</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>3</v>
@@ -7328,7 +7535,7 @@
         <v>0.660741648789</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>3</v>
@@ -7343,7 +7550,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7352,7 +7559,7 @@
         <v>0.637457574823</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
@@ -7361,7 +7568,7 @@
         <v>0.630734680783</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>5</v>
@@ -7370,7 +7577,7 @@
         <v>0.591229684146</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>5</v>
@@ -7385,7 +7592,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -7394,7 +7601,7 @@
         <v>0.620174346202</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -7403,7 +7610,7 @@
         <v>0.620092735703</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>6</v>
@@ -7412,7 +7619,7 @@
         <v>0.620440156768</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>6</v>
@@ -7427,7 +7634,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
@@ -7436,7 +7643,7 @@
         <v>0.618844984802</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2</v>
@@ -7445,7 +7652,7 @@
         <v>0.604881062712</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>7</v>
@@ -7454,7 +7661,7 @@
         <v>0.59680393362</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>7</v>
@@ -7469,7 +7676,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>3</v>
@@ -7478,7 +7685,7 @@
         <v>0.660741648789</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>3</v>
@@ -7487,7 +7694,7 @@
         <v>0.646946564885</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -7496,7 +7703,7 @@
         <v>0.592405063291</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>0</v>
@@ -7519,7 +7726,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>4</v>
@@ -7528,7 +7735,7 @@
         <v>0.909959313639</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4</v>
@@ -7537,7 +7744,7 @@
         <v>0.908092792633</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>1</v>
@@ -7546,7 +7753,7 @@
         <v>0.53618628068</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>1</v>
@@ -7561,7 +7768,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>5</v>
@@ -7570,7 +7777,7 @@
         <v>0.591229684146</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
@@ -7579,7 +7786,7 @@
         <v>0.596347607053</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>2</v>
@@ -7588,7 +7795,7 @@
         <v>0.550815558344</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="N27" s="0" t="n">
         <v>2</v>
@@ -7603,7 +7810,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>6</v>
@@ -7612,7 +7819,7 @@
         <v>0.620440156768</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -7621,7 +7828,7 @@
         <v>0.627998785302</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>3</v>
@@ -7630,7 +7837,7 @@
         <v>0.583968302347</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="N28" s="0" t="n">
         <v>3</v>
@@ -7645,7 +7852,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>7</v>
@@ -7654,7 +7861,7 @@
         <v>0.59680393362</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>7</v>
@@ -7663,7 +7870,7 @@
         <v>0.598956735195</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>5</v>
@@ -7672,7 +7879,7 @@
         <v>0.531849103278</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>5</v>
@@ -7687,7 +7894,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>12</v>
@@ -7696,7 +7903,7 @@
         <v>0.904283009938</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>12</v>
@@ -7705,7 +7912,7 @@
         <v>0.904539267326</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>6</v>
@@ -7714,7 +7921,7 @@
         <v>0.461977186312</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>6</v>
@@ -7729,7 +7936,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7738,7 +7945,7 @@
         <v>0.592405063291</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
@@ -7747,7 +7954,7 @@
         <v>0.591849935317</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>7</v>
@@ -7756,7 +7963,7 @@
         <v>0.564749307905</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="N31" s="0" t="n">
         <v>7</v>
@@ -7771,7 +7978,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -7780,7 +7987,7 @@
         <v>0.53618628068</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -7789,7 +7996,7 @@
         <v>0.555413196669</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -7798,7 +8005,7 @@
         <v>0.472800537273</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>0</v>
@@ -7821,7 +8028,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2</v>
@@ -7830,7 +8037,7 @@
         <v>0.550815558344</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -7839,7 +8046,7 @@
         <v>0.575385583884</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -7848,7 +8055,7 @@
         <v>0.434473854099</v>
       </c>
       <c r="M33" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>1</v>
@@ -7863,7 +8070,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3</v>
@@ -7872,7 +8079,7 @@
         <v>0.583968302347</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>3</v>
@@ -7881,7 +8088,7 @@
         <v>0.57501569366</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>2</v>
@@ -7890,7 +8097,7 @@
         <v>0.510901399284</v>
       </c>
       <c r="M34" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>2</v>
@@ -7905,7 +8112,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>4</v>
@@ -7914,7 +8121,7 @@
         <v>0.890085824208</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>4</v>
@@ -7923,7 +8130,7 @@
         <v>0.894602458286</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>3</v>
@@ -7932,7 +8139,7 @@
         <v>0.474908200734</v>
       </c>
       <c r="M35" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N35" s="0" t="n">
         <v>3</v>
@@ -7947,7 +8154,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>5</v>
@@ -7956,7 +8163,7 @@
         <v>0.531849103278</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>5</v>
@@ -7965,7 +8172,7 @@
         <v>0.55317769131</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>5</v>
@@ -7974,7 +8181,7 @@
         <v>0.486912645853</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N36" s="0" t="n">
         <v>5</v>
@@ -7989,7 +8196,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>6</v>
@@ -7998,7 +8205,7 @@
         <v>0.461977186312</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>6</v>
@@ -8007,7 +8214,7 @@
         <v>0.507824976046</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>6</v>
@@ -8016,7 +8223,7 @@
         <v>0.368553459119</v>
       </c>
       <c r="M37" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>6</v>
@@ -8031,7 +8238,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>7</v>
@@ -8040,7 +8247,7 @@
         <v>0.564749307905</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>7</v>
@@ -8049,7 +8256,7 @@
         <v>0.551767676768</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>7</v>
@@ -8058,7 +8265,7 @@
         <v>0.476656872347</v>
       </c>
       <c r="M38" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>7</v>
@@ -8073,7 +8280,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>12</v>
@@ -8082,7 +8289,7 @@
         <v>0.895278665247</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>12</v>
@@ -8091,7 +8298,7 @@
         <v>0.894328216678</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -8100,7 +8307,7 @@
         <v>0.260103312063</v>
       </c>
       <c r="M39" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>0</v>
@@ -8123,7 +8330,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -8132,7 +8339,7 @@
         <v>0.472800537273</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>0</v>
@@ -8141,7 +8348,7 @@
         <v>0.491110365649</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>1</v>
@@ -8150,7 +8357,7 @@
         <v>0.420795533845</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>1</v>
@@ -8165,7 +8372,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -8174,7 +8381,7 @@
         <v>0.434473854099</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
@@ -8183,7 +8390,7 @@
         <v>0.518118245391</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>2</v>
@@ -8192,7 +8399,7 @@
         <v>0.377164849262</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>2</v>
@@ -8207,7 +8414,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -8216,7 +8423,7 @@
         <v>0.510901399284</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2</v>
@@ -8225,7 +8432,7 @@
         <v>0.568085797855</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>3</v>
@@ -8234,7 +8441,7 @@
         <v>0.361445783133</v>
       </c>
       <c r="M42" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="N42" s="0" t="n">
         <v>3</v>
@@ -8249,7 +8456,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>3</v>
@@ -8258,7 +8465,7 @@
         <v>0.474908200734</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>3</v>
@@ -8267,7 +8474,7 @@
         <v>0.467459762071</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>5</v>
@@ -8276,7 +8483,7 @@
         <v>0.3192550715</v>
       </c>
       <c r="M43" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>5</v>
@@ -8291,7 +8498,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>4</v>
@@ -8300,7 +8507,7 @@
         <v>0.884699745095</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>4</v>
@@ -8309,7 +8516,7 @@
         <v>0.88298567778</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>6</v>
@@ -8318,7 +8525,7 @@
         <v>0.295857988166</v>
       </c>
       <c r="M44" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>6</v>
@@ -8333,7 +8540,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>5</v>
@@ -8342,7 +8549,7 @@
         <v>0.486912645853</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>5</v>
@@ -8351,7 +8558,7 @@
         <v>0.473755047106</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>7</v>
@@ -8360,7 +8567,7 @@
         <v>0.345389377647</v>
       </c>
       <c r="M45" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>7</v>
@@ -8375,7 +8582,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>6</v>
@@ -8384,7 +8591,7 @@
         <v>0.368553459119</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>6</v>
@@ -8393,7 +8600,7 @@
         <v>0.465788628333</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -8402,7 +8609,7 @@
         <v>0.250269687163</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>0</v>
@@ -8425,7 +8632,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>7</v>
@@ -8434,7 +8641,7 @@
         <v>0.476656872347</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>7</v>
@@ -8443,7 +8650,7 @@
         <v>0.452945159106</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>1</v>
@@ -8452,7 +8659,7 @@
         <v>0.324441240087</v>
       </c>
       <c r="M47" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="N47" s="0" t="n">
         <v>1</v>
@@ -8467,7 +8674,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>12</v>
@@ -8476,7 +8683,7 @@
         <v>0.878253172027</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>12</v>
@@ -8485,7 +8692,7 @@
         <v>0.86400661079</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>2</v>
@@ -8494,7 +8701,7 @@
         <v>0.266412940057</v>
       </c>
       <c r="M48" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="N48" s="0" t="n">
         <v>2</v>
@@ -8509,7 +8716,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -8518,7 +8725,7 @@
         <v>0.260103312063</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>0</v>
@@ -8527,7 +8734,7 @@
         <v>0.300450266066</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>3</v>
@@ -8536,7 +8743,7 @@
         <v>0.296150049358</v>
       </c>
       <c r="M49" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="N49" s="0" t="n">
         <v>3</v>
@@ -8551,7 +8758,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
@@ -8560,7 +8767,7 @@
         <v>0.420795533845</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
@@ -8569,7 +8776,7 @@
         <v>0.352982211371</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>5</v>
@@ -8578,7 +8785,7 @@
         <v>0.22844126261</v>
       </c>
       <c r="M50" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="N50" s="0" t="n">
         <v>5</v>
@@ -8593,7 +8800,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2</v>
@@ -8602,7 +8809,7 @@
         <v>0.377164849262</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2</v>
@@ -8611,7 +8818,7 @@
         <v>0.333449356074</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>6</v>
@@ -8620,7 +8827,7 @@
         <v>0.292492687683</v>
       </c>
       <c r="M51" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="N51" s="0" t="n">
         <v>6</v>
@@ -8635,7 +8842,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3</v>
@@ -8644,7 +8851,7 @@
         <v>0.361445783133</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>3</v>
@@ -8653,7 +8860,7 @@
         <v>0.358992060753</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>7</v>
@@ -8662,7 +8869,7 @@
         <v>0.23265940902</v>
       </c>
       <c r="M52" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>7</v>
@@ -8677,7 +8884,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -8686,7 +8893,7 @@
         <v>0.867099541312</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>4</v>
@@ -8695,7 +8902,7 @@
         <v>0.857176791971</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>0</v>
@@ -8704,7 +8911,7 @@
         <v>0.306393244873</v>
       </c>
       <c r="M53" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>0</v>
@@ -8727,7 +8934,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -8736,7 +8943,7 @@
         <v>0.3192550715</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>5</v>
@@ -8745,7 +8952,7 @@
         <v>0.307990690458</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>1</v>
@@ -8754,7 +8961,7 @@
         <v>0.171532846715</v>
       </c>
       <c r="M54" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N54" s="0" t="n">
         <v>1</v>
@@ -8769,7 +8976,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -8778,7 +8985,7 @@
         <v>0.295857988166</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>6</v>
@@ -8787,7 +8994,7 @@
         <v>0.302325581395</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>2</v>
@@ -8796,7 +9003,7 @@
         <v>0.221264367816</v>
       </c>
       <c r="M55" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N55" s="0" t="n">
         <v>2</v>
@@ -8811,7 +9018,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>7</v>
@@ -8820,7 +9027,7 @@
         <v>0.345389377647</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7</v>
@@ -8829,7 +9036,7 @@
         <v>0.318656716418</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>3</v>
@@ -8838,7 +9045,7 @@
         <v>0.301687065829</v>
       </c>
       <c r="M56" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N56" s="0" t="n">
         <v>3</v>
@@ -8853,7 +9060,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>12</v>
@@ -8862,7 +9069,7 @@
         <v>0.850067802606</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>12</v>
@@ -8871,7 +9078,7 @@
         <v>0.840415486308</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>5</v>
@@ -8880,7 +9087,7 @@
         <v>0.210690596957</v>
       </c>
       <c r="M57" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N57" s="0" t="n">
         <v>5</v>
@@ -8895,7 +9102,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -8904,7 +9111,7 @@
         <v>0.250269687163</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>0</v>
@@ -8913,7 +9120,7 @@
         <v>0.229408792319</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>6</v>
@@ -8922,7 +9129,7 @@
         <v>0.196775255018</v>
       </c>
       <c r="M58" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N58" s="0" t="n">
         <v>6</v>
@@ -8937,7 +9144,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -8946,7 +9153,7 @@
         <v>0.324441240087</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
@@ -8955,7 +9162,7 @@
         <v>0.267498885421</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>7</v>
@@ -8964,7 +9171,7 @@
         <v>0.156965336821</v>
       </c>
       <c r="M59" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N59" s="0" t="n">
         <v>7</v>
@@ -8979,7 +9186,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -8988,7 +9195,7 @@
         <v>0.266412940057</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2</v>
@@ -8999,7 +9206,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>3</v>
@@ -9008,7 +9215,7 @@
         <v>0.296150049358</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>3</v>
@@ -9019,7 +9226,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>4</v>
@@ -9028,7 +9235,7 @@
         <v>0.842689989363</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>4</v>
@@ -9039,7 +9246,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>5</v>
@@ -9048,7 +9255,7 @@
         <v>0.22844126261</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>5</v>
@@ -9059,7 +9266,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>6</v>
@@ -9068,7 +9275,7 @@
         <v>0.292492687683</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>6</v>
@@ -9079,7 +9286,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>7</v>
@@ -9088,7 +9295,7 @@
         <v>0.23265940902</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>7</v>
@@ -9099,7 +9306,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>12</v>
@@ -9108,7 +9315,7 @@
         <v>0.837181903864</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>12</v>
@@ -9119,7 +9326,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0</v>
@@ -9128,7 +9335,7 @@
         <v>0.306393244873</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>0</v>
@@ -9139,7 +9346,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1</v>
@@ -9148,7 +9355,7 @@
         <v>0.171532846715</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1</v>
@@ -9159,7 +9366,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -9168,7 +9375,7 @@
         <v>0.221264367816</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2</v>
@@ -9179,7 +9386,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>3</v>
@@ -9188,7 +9395,7 @@
         <v>0.301687065829</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>3</v>
@@ -9199,7 +9406,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>4</v>
@@ -9208,7 +9415,7 @@
         <v>0.855546687949</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>4</v>
@@ -9219,7 +9426,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>5</v>
@@ -9228,7 +9435,7 @@
         <v>0.210690596957</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>5</v>
@@ -9239,7 +9446,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>6</v>
@@ -9248,7 +9455,7 @@
         <v>0.196775255018</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>6</v>
@@ -9259,7 +9466,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>7</v>
@@ -9268,7 +9475,7 @@
         <v>0.156965336821</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>7</v>
@@ -9279,7 +9486,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>12</v>
@@ -9288,7 +9495,7 @@
         <v>0.827683615819</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>12</v>
@@ -9307,6 +9514,65 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:E5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -9324,19 +9590,19 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.44897959183673"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="7.96428571428571"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -9984,7 +10250,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.88265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10368,7 +10634,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10492,6 +10758,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -15884,9 +16153,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -16314,9 +16580,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -17867,9 +18130,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="306">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -888,6 +889,9 @@
   </si>
   <si>
     <t xml:space="preserve">auto_script_do.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logDO</t>
   </si>
   <si>
     <t xml:space="preserve">← zero dropout</t>
@@ -1346,7 +1350,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1788,11 +1792,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="98054452"/>
-        <c:axId val="50606896"/>
+        <c:axId val="58634396"/>
+        <c:axId val="11984011"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98054452"/>
+        <c:axId val="58634396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,14 +1831,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50606896"/>
+        <c:crossAx val="11984011"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50606896"/>
+        <c:axId val="11984011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1882,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98054452"/>
+        <c:crossAx val="58634396"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1915,7 +1919,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4443,11 +4447,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="50611429"/>
-        <c:axId val="14609286"/>
+        <c:axId val="56056231"/>
+        <c:axId val="580661"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50611429"/>
+        <c:axId val="56056231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4482,14 +4486,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14609286"/>
+        <c:crossAx val="580661"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14609286"/>
+        <c:axId val="580661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4533,7 +4537,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50611429"/>
+        <c:crossAx val="56056231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4570,7 +4574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4806,11 +4810,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="46777520"/>
-        <c:axId val="76946684"/>
+        <c:axId val="11454140"/>
+        <c:axId val="37738835"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46777520"/>
+        <c:axId val="11454140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4845,14 +4849,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76946684"/>
+        <c:crossAx val="37738835"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76946684"/>
+        <c:axId val="37738835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4896,7 +4900,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46777520"/>
+        <c:crossAx val="11454140"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4944,9 +4948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>559440</xdr:colOff>
+      <xdr:colOff>559080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4954,8 +4958,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3205080" y="361080"/>
-        <a:ext cx="5755320" cy="3235320"/>
+        <a:off x="3157560" y="361080"/>
+        <a:ext cx="5668920" cy="3234960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4974,9 +4978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>461160</xdr:colOff>
+      <xdr:colOff>460800</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4985,7 +4989,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36373320"/>
-        <a:ext cx="18356040" cy="4483800"/>
+        <a:ext cx="18069840" cy="4483440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5009,9 +5013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83520</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5019,8 +5023,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2876400" y="6032880"/>
-        <a:ext cx="4065480" cy="3234600"/>
+        <a:off x="3019320" y="6032880"/>
+        <a:ext cx="4264920" cy="3234240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5050,7 +5054,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,13 +6355,13 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6593,18 +6597,21 @@
       <c r="H23" s="26" t="s">
         <v>282</v>
       </c>
+      <c r="J23" s="0" t="s">
+        <v>283</v>
+      </c>
       <c r="M23" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>148</v>
@@ -6615,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1</v>
@@ -6624,7 +6631,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>1</v>
@@ -6652,10 +6659,10 @@
         <v>5</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>2</v>
@@ -6700,28 +6707,25 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>148</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>148</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>148</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,7 +6733,7 @@
         <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>150</v>
@@ -6739,7 +6743,7 @@
         <v>227</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>150</v>
@@ -6748,7 +6752,7 @@
         <v>227</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>150</v>
@@ -6758,19 +6762,19 @@
         <v>227</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>150</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6779,7 +6783,7 @@
         <v>0.71655193056</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -6788,7 +6792,7 @@
         <v>0.713732499255</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -6797,7 +6801,7 @@
         <v>0.71655193056</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>0</v>
@@ -6820,7 +6824,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -6829,7 +6833,7 @@
         <v>0.71089762834</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -6838,7 +6842,7 @@
         <v>0.724932654894</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -6847,7 +6851,7 @@
         <v>0.71089762834</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
@@ -6862,7 +6866,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
@@ -6871,7 +6875,7 @@
         <v>0.714972940469</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
@@ -6880,7 +6884,7 @@
         <v>0.726672667267</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>2</v>
@@ -6889,7 +6893,7 @@
         <v>0.714972940469</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>2</v>
@@ -6904,7 +6908,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3</v>
@@ -6913,7 +6917,7 @@
         <v>0.713816771113</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3</v>
@@ -6922,7 +6926,7 @@
         <v>0.734510625561</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>3</v>
@@ -6931,7 +6935,7 @@
         <v>0.713816771113</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>3</v>
@@ -6946,7 +6950,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>4</v>
@@ -6955,7 +6959,7 @@
         <v>0.927015891701</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -6964,7 +6968,7 @@
         <v>0.928941786472</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>5</v>
@@ -6973,7 +6977,7 @@
         <v>0.723072307231</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>5</v>
@@ -6988,7 +6992,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
@@ -6997,7 +7001,7 @@
         <v>0.723072307231</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5</v>
@@ -7006,7 +7010,7 @@
         <v>0.710353081987</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>6</v>
@@ -7015,7 +7019,7 @@
         <v>0.716034637205</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>6</v>
@@ -7030,7 +7034,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>6</v>
@@ -7039,7 +7043,7 @@
         <v>0.716034637205</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -7048,7 +7052,7 @@
         <v>0.722884386174</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>7</v>
@@ -7057,7 +7061,7 @@
         <v>0.707360861759</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>7</v>
@@ -7072,7 +7076,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>7</v>
@@ -7081,7 +7085,7 @@
         <v>0.707360861759</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -7090,7 +7094,7 @@
         <v>0.722404046415</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -7099,7 +7103,7 @@
         <v>0.687386843693</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>0</v>
@@ -7122,7 +7126,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>12</v>
@@ -7131,7 +7135,7 @@
         <v>0.926826396656</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>12</v>
@@ -7140,7 +7144,7 @@
         <v>0.928053738731</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -7149,7 +7153,7 @@
         <v>0.67438318611</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>1</v>
@@ -7164,7 +7168,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -7173,7 +7177,7 @@
         <v>0.687386843693</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
@@ -7182,7 +7186,7 @@
         <v>0.684848484848</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>2</v>
@@ -7191,7 +7195,7 @@
         <v>0.696642685851</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>2</v>
@@ -7206,7 +7210,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -7215,7 +7219,7 @@
         <v>0.67438318611</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -7224,7 +7228,7 @@
         <v>0.669525267994</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>3</v>
@@ -7233,7 +7237,7 @@
         <v>0.68109407875</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>3</v>
@@ -7248,7 +7252,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
@@ -7257,7 +7261,7 @@
         <v>0.696642685851</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -7266,7 +7270,7 @@
         <v>0.6741301059</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>5</v>
@@ -7275,7 +7279,7 @@
         <v>0.667072428484</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>5</v>
@@ -7290,7 +7294,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
@@ -7299,7 +7303,7 @@
         <v>0.68109407875</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -7308,7 +7312,7 @@
         <v>0.702018680325</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>6</v>
@@ -7317,7 +7321,7 @@
         <v>0.683000604961</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>6</v>
@@ -7332,7 +7336,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
@@ -7341,7 +7345,7 @@
         <v>0.920919269299</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -7350,7 +7354,7 @@
         <v>0.923240434577</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>7</v>
@@ -7359,7 +7363,7 @@
         <v>0.649058894961</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>7</v>
@@ -7374,7 +7378,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
@@ -7383,7 +7387,7 @@
         <v>0.667072428484</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>5</v>
@@ -7392,7 +7396,7 @@
         <v>0.681359044995</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -7401,7 +7405,7 @@
         <v>0.637457574823</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>0</v>
@@ -7424,7 +7428,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6</v>
@@ -7433,7 +7437,7 @@
         <v>0.683000604961</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>6</v>
@@ -7442,7 +7446,7 @@
         <v>0.692307692308</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>1</v>
@@ -7451,7 +7455,7 @@
         <v>0.620174346202</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>1</v>
@@ -7466,7 +7470,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>7</v>
@@ -7475,7 +7479,7 @@
         <v>0.649058894961</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -7484,7 +7488,7 @@
         <v>0.655677655678</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>2</v>
@@ -7493,7 +7497,7 @@
         <v>0.618844984802</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>2</v>
@@ -7508,7 +7512,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>12</v>
@@ -7517,7 +7521,7 @@
         <v>0.921888816837</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>12</v>
@@ -7526,7 +7530,7 @@
         <v>0.919853635505</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>3</v>
@@ -7535,7 +7539,7 @@
         <v>0.660741648789</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>3</v>
@@ -7550,7 +7554,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7559,7 +7563,7 @@
         <v>0.637457574823</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
@@ -7568,7 +7572,7 @@
         <v>0.630734680783</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>5</v>
@@ -7577,7 +7581,7 @@
         <v>0.591229684146</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>5</v>
@@ -7592,7 +7596,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -7601,7 +7605,7 @@
         <v>0.620174346202</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -7610,7 +7614,7 @@
         <v>0.620092735703</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>6</v>
@@ -7619,7 +7623,7 @@
         <v>0.620440156768</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>6</v>
@@ -7634,7 +7638,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
@@ -7643,7 +7647,7 @@
         <v>0.618844984802</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2</v>
@@ -7652,7 +7656,7 @@
         <v>0.604881062712</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>7</v>
@@ -7661,7 +7665,7 @@
         <v>0.59680393362</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>7</v>
@@ -7676,7 +7680,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>3</v>
@@ -7685,7 +7689,7 @@
         <v>0.660741648789</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>3</v>
@@ -7694,7 +7698,7 @@
         <v>0.646946564885</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -7703,7 +7707,7 @@
         <v>0.592405063291</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>0</v>
@@ -7726,7 +7730,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>4</v>
@@ -7735,7 +7739,7 @@
         <v>0.909959313639</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4</v>
@@ -7744,7 +7748,7 @@
         <v>0.908092792633</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>1</v>
@@ -7753,7 +7757,7 @@
         <v>0.53618628068</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>1</v>
@@ -7768,7 +7772,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>5</v>
@@ -7777,7 +7781,7 @@
         <v>0.591229684146</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
@@ -7786,7 +7790,7 @@
         <v>0.596347607053</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>2</v>
@@ -7795,7 +7799,7 @@
         <v>0.550815558344</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N27" s="0" t="n">
         <v>2</v>
@@ -7810,7 +7814,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>6</v>
@@ -7819,7 +7823,7 @@
         <v>0.620440156768</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -7828,7 +7832,7 @@
         <v>0.627998785302</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>3</v>
@@ -7837,7 +7841,7 @@
         <v>0.583968302347</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N28" s="0" t="n">
         <v>3</v>
@@ -7852,7 +7856,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>7</v>
@@ -7861,7 +7865,7 @@
         <v>0.59680393362</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>7</v>
@@ -7870,7 +7874,7 @@
         <v>0.598956735195</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>5</v>
@@ -7879,7 +7883,7 @@
         <v>0.531849103278</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>5</v>
@@ -7894,7 +7898,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>12</v>
@@ -7903,7 +7907,7 @@
         <v>0.904283009938</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>12</v>
@@ -7912,7 +7916,7 @@
         <v>0.904539267326</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>6</v>
@@ -7921,7 +7925,7 @@
         <v>0.461977186312</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>6</v>
@@ -7936,7 +7940,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7945,7 +7949,7 @@
         <v>0.592405063291</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
@@ -7954,7 +7958,7 @@
         <v>0.591849935317</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>7</v>
@@ -7963,7 +7967,7 @@
         <v>0.564749307905</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" s="0" t="n">
         <v>7</v>
@@ -7978,7 +7982,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -7987,7 +7991,7 @@
         <v>0.53618628068</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -7996,7 +8000,7 @@
         <v>0.555413196669</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -8005,7 +8009,7 @@
         <v>0.472800537273</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>0</v>
@@ -8028,7 +8032,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2</v>
@@ -8037,7 +8041,7 @@
         <v>0.550815558344</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -8046,7 +8050,7 @@
         <v>0.575385583884</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -8055,7 +8059,7 @@
         <v>0.434473854099</v>
       </c>
       <c r="M33" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>1</v>
@@ -8070,7 +8074,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3</v>
@@ -8079,7 +8083,7 @@
         <v>0.583968302347</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>3</v>
@@ -8088,7 +8092,7 @@
         <v>0.57501569366</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>2</v>
@@ -8097,7 +8101,7 @@
         <v>0.510901399284</v>
       </c>
       <c r="M34" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>2</v>
@@ -8112,7 +8116,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>4</v>
@@ -8121,7 +8125,7 @@
         <v>0.890085824208</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>4</v>
@@ -8130,7 +8134,7 @@
         <v>0.894602458286</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>3</v>
@@ -8139,7 +8143,7 @@
         <v>0.474908200734</v>
       </c>
       <c r="M35" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N35" s="0" t="n">
         <v>3</v>
@@ -8154,7 +8158,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>5</v>
@@ -8163,7 +8167,7 @@
         <v>0.531849103278</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>5</v>
@@ -8172,7 +8176,7 @@
         <v>0.55317769131</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>5</v>
@@ -8181,7 +8185,7 @@
         <v>0.486912645853</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N36" s="0" t="n">
         <v>5</v>
@@ -8196,7 +8200,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>6</v>
@@ -8205,7 +8209,7 @@
         <v>0.461977186312</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>6</v>
@@ -8214,7 +8218,7 @@
         <v>0.507824976046</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>6</v>
@@ -8223,7 +8227,7 @@
         <v>0.368553459119</v>
       </c>
       <c r="M37" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>6</v>
@@ -8238,7 +8242,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>7</v>
@@ -8247,7 +8251,7 @@
         <v>0.564749307905</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>7</v>
@@ -8256,7 +8260,7 @@
         <v>0.551767676768</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>7</v>
@@ -8265,7 +8269,7 @@
         <v>0.476656872347</v>
       </c>
       <c r="M38" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>7</v>
@@ -8280,7 +8284,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>12</v>
@@ -8289,7 +8293,7 @@
         <v>0.895278665247</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>12</v>
@@ -8298,7 +8302,7 @@
         <v>0.894328216678</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -8307,7 +8311,7 @@
         <v>0.260103312063</v>
       </c>
       <c r="M39" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>0</v>
@@ -8330,7 +8334,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -8339,7 +8343,7 @@
         <v>0.472800537273</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>0</v>
@@ -8348,7 +8352,7 @@
         <v>0.491110365649</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>1</v>
@@ -8357,7 +8361,7 @@
         <v>0.420795533845</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>1</v>
@@ -8372,7 +8376,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -8381,7 +8385,7 @@
         <v>0.434473854099</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
@@ -8390,7 +8394,7 @@
         <v>0.518118245391</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>2</v>
@@ -8399,7 +8403,7 @@
         <v>0.377164849262</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>2</v>
@@ -8414,7 +8418,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -8423,7 +8427,7 @@
         <v>0.510901399284</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2</v>
@@ -8432,7 +8436,7 @@
         <v>0.568085797855</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>3</v>
@@ -8441,7 +8445,7 @@
         <v>0.361445783133</v>
       </c>
       <c r="M42" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N42" s="0" t="n">
         <v>3</v>
@@ -8456,7 +8460,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>3</v>
@@ -8465,7 +8469,7 @@
         <v>0.474908200734</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>3</v>
@@ -8474,7 +8478,7 @@
         <v>0.467459762071</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>5</v>
@@ -8483,7 +8487,7 @@
         <v>0.3192550715</v>
       </c>
       <c r="M43" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>5</v>
@@ -8498,7 +8502,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>4</v>
@@ -8507,7 +8511,7 @@
         <v>0.884699745095</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>4</v>
@@ -8516,7 +8520,7 @@
         <v>0.88298567778</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>6</v>
@@ -8525,7 +8529,7 @@
         <v>0.295857988166</v>
       </c>
       <c r="M44" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>6</v>
@@ -8540,7 +8544,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>5</v>
@@ -8549,7 +8553,7 @@
         <v>0.486912645853</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>5</v>
@@ -8558,7 +8562,7 @@
         <v>0.473755047106</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>7</v>
@@ -8567,7 +8571,7 @@
         <v>0.345389377647</v>
       </c>
       <c r="M45" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>7</v>
@@ -8582,7 +8586,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>6</v>
@@ -8591,7 +8595,7 @@
         <v>0.368553459119</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>6</v>
@@ -8600,7 +8604,7 @@
         <v>0.465788628333</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -8609,7 +8613,7 @@
         <v>0.250269687163</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>0</v>
@@ -8632,7 +8636,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>7</v>
@@ -8641,7 +8645,7 @@
         <v>0.476656872347</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>7</v>
@@ -8650,7 +8654,7 @@
         <v>0.452945159106</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>1</v>
@@ -8659,7 +8663,7 @@
         <v>0.324441240087</v>
       </c>
       <c r="M47" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N47" s="0" t="n">
         <v>1</v>
@@ -8674,7 +8678,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>12</v>
@@ -8683,7 +8687,7 @@
         <v>0.878253172027</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>12</v>
@@ -8692,7 +8696,7 @@
         <v>0.86400661079</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>2</v>
@@ -8701,7 +8705,7 @@
         <v>0.266412940057</v>
       </c>
       <c r="M48" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N48" s="0" t="n">
         <v>2</v>
@@ -8716,7 +8720,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -8725,7 +8729,7 @@
         <v>0.260103312063</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>0</v>
@@ -8734,7 +8738,7 @@
         <v>0.300450266066</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>3</v>
@@ -8743,7 +8747,7 @@
         <v>0.296150049358</v>
       </c>
       <c r="M49" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N49" s="0" t="n">
         <v>3</v>
@@ -8758,7 +8762,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
@@ -8767,7 +8771,7 @@
         <v>0.420795533845</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
@@ -8776,7 +8780,7 @@
         <v>0.352982211371</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>5</v>
@@ -8785,7 +8789,7 @@
         <v>0.22844126261</v>
       </c>
       <c r="M50" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N50" s="0" t="n">
         <v>5</v>
@@ -8800,7 +8804,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2</v>
@@ -8809,7 +8813,7 @@
         <v>0.377164849262</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2</v>
@@ -8818,7 +8822,7 @@
         <v>0.333449356074</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>6</v>
@@ -8827,7 +8831,7 @@
         <v>0.292492687683</v>
       </c>
       <c r="M51" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N51" s="0" t="n">
         <v>6</v>
@@ -8842,7 +8846,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3</v>
@@ -8851,7 +8855,7 @@
         <v>0.361445783133</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>3</v>
@@ -8860,7 +8864,7 @@
         <v>0.358992060753</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>7</v>
@@ -8869,7 +8873,7 @@
         <v>0.23265940902</v>
       </c>
       <c r="M52" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>7</v>
@@ -8884,7 +8888,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -8893,7 +8897,7 @@
         <v>0.867099541312</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>4</v>
@@ -8902,7 +8906,7 @@
         <v>0.857176791971</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>0</v>
@@ -8911,7 +8915,7 @@
         <v>0.306393244873</v>
       </c>
       <c r="M53" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>0</v>
@@ -8934,7 +8938,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -8943,7 +8947,7 @@
         <v>0.3192550715</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>5</v>
@@ -8952,7 +8956,7 @@
         <v>0.307990690458</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>1</v>
@@ -8961,7 +8965,7 @@
         <v>0.171532846715</v>
       </c>
       <c r="M54" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N54" s="0" t="n">
         <v>1</v>
@@ -8976,7 +8980,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -8985,7 +8989,7 @@
         <v>0.295857988166</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>6</v>
@@ -8994,7 +8998,7 @@
         <v>0.302325581395</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>2</v>
@@ -9003,7 +9007,7 @@
         <v>0.221264367816</v>
       </c>
       <c r="M55" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N55" s="0" t="n">
         <v>2</v>
@@ -9018,7 +9022,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>7</v>
@@ -9027,7 +9031,7 @@
         <v>0.345389377647</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7</v>
@@ -9036,7 +9040,7 @@
         <v>0.318656716418</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>3</v>
@@ -9045,7 +9049,7 @@
         <v>0.301687065829</v>
       </c>
       <c r="M56" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N56" s="0" t="n">
         <v>3</v>
@@ -9060,7 +9064,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>12</v>
@@ -9069,7 +9073,7 @@
         <v>0.850067802606</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>12</v>
@@ -9078,7 +9082,7 @@
         <v>0.840415486308</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>5</v>
@@ -9087,7 +9091,7 @@
         <v>0.210690596957</v>
       </c>
       <c r="M57" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N57" s="0" t="n">
         <v>5</v>
@@ -9102,7 +9106,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -9111,7 +9115,7 @@
         <v>0.250269687163</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>0</v>
@@ -9120,7 +9124,7 @@
         <v>0.229408792319</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>6</v>
@@ -9129,7 +9133,7 @@
         <v>0.196775255018</v>
       </c>
       <c r="M58" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N58" s="0" t="n">
         <v>6</v>
@@ -9144,7 +9148,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -9153,7 +9157,7 @@
         <v>0.324441240087</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
@@ -9162,7 +9166,7 @@
         <v>0.267498885421</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>7</v>
@@ -9171,7 +9175,7 @@
         <v>0.156965336821</v>
       </c>
       <c r="M59" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N59" s="0" t="n">
         <v>7</v>
@@ -9186,7 +9190,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -9195,7 +9199,7 @@
         <v>0.266412940057</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2</v>
@@ -9206,7 +9210,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>3</v>
@@ -9215,7 +9219,7 @@
         <v>0.296150049358</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>3</v>
@@ -9226,7 +9230,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>4</v>
@@ -9235,7 +9239,7 @@
         <v>0.842689989363</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>4</v>
@@ -9246,7 +9250,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>5</v>
@@ -9255,7 +9259,7 @@
         <v>0.22844126261</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>5</v>
@@ -9266,7 +9270,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>6</v>
@@ -9275,7 +9279,7 @@
         <v>0.292492687683</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>6</v>
@@ -9286,7 +9290,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>7</v>
@@ -9295,7 +9299,7 @@
         <v>0.23265940902</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>7</v>
@@ -9306,7 +9310,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>12</v>
@@ -9315,7 +9319,7 @@
         <v>0.837181903864</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>12</v>
@@ -9326,7 +9330,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0</v>
@@ -9335,7 +9339,7 @@
         <v>0.306393244873</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>0</v>
@@ -9346,7 +9350,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1</v>
@@ -9355,7 +9359,7 @@
         <v>0.171532846715</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1</v>
@@ -9366,7 +9370,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -9375,7 +9379,7 @@
         <v>0.221264367816</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2</v>
@@ -9386,7 +9390,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>3</v>
@@ -9395,7 +9399,7 @@
         <v>0.301687065829</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>3</v>
@@ -9406,7 +9410,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>4</v>
@@ -9415,7 +9419,7 @@
         <v>0.855546687949</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>4</v>
@@ -9426,7 +9430,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>5</v>
@@ -9435,7 +9439,7 @@
         <v>0.210690596957</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>5</v>
@@ -9446,7 +9450,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>6</v>
@@ -9455,7 +9459,7 @@
         <v>0.196775255018</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>6</v>
@@ -9466,7 +9470,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>7</v>
@@ -9475,7 +9479,7 @@
         <v>0.156965336821</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>7</v>
@@ -9486,7 +9490,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>12</v>
@@ -9495,7 +9499,7 @@
         <v>0.827683615819</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>12</v>
@@ -9530,12 +9534,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>2</v>
@@ -9543,10 +9547,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>20</v>
@@ -9557,12 +9561,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -9590,19 +9594,19 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.31632653061224"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -10250,7 +10254,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10634,7 +10638,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10759,7 +10763,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16153,6 +16157,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -16580,6 +16587,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -18130,6 +18140,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -29,6 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="309">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -850,6 +851,15 @@
   </si>
   <si>
     <t xml:space="preserve">← maybe 3 (inconsistent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_script_bocw.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logBOCW</t>
   </si>
   <si>
     <t xml:space="preserve">p6</t>
@@ -1792,11 +1802,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="58634396"/>
-        <c:axId val="11984011"/>
+        <c:axId val="17380917"/>
+        <c:axId val="28121558"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58634396"/>
+        <c:axId val="17380917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,14 +1841,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11984011"/>
+        <c:crossAx val="28121558"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11984011"/>
+        <c:axId val="28121558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58634396"/>
+        <c:crossAx val="17380917"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4447,11 +4457,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="56056231"/>
-        <c:axId val="580661"/>
+        <c:axId val="20496168"/>
+        <c:axId val="83313608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56056231"/>
+        <c:axId val="20496168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4486,14 +4496,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580661"/>
+        <c:crossAx val="83313608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="580661"/>
+        <c:axId val="83313608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4537,7 +4547,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56056231"/>
+        <c:crossAx val="20496168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4810,11 +4820,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="11454140"/>
-        <c:axId val="37738835"/>
+        <c:axId val="15863724"/>
+        <c:axId val="49579803"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11454140"/>
+        <c:axId val="15863724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4849,14 +4859,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37738835"/>
+        <c:crossAx val="49579803"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37738835"/>
+        <c:axId val="49579803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,7 +4910,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11454140"/>
+        <c:crossAx val="15863724"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4948,9 +4958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>559080</xdr:colOff>
+      <xdr:colOff>558720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4958,8 +4968,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3157560" y="361080"/>
-        <a:ext cx="5668920" cy="3234960"/>
+        <a:off x="3109680" y="361080"/>
+        <a:ext cx="5583240" cy="3234600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4978,9 +4988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>460800</xdr:colOff>
+      <xdr:colOff>460440</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4989,7 +4999,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36373320"/>
-        <a:ext cx="18069840" cy="4483440"/>
+        <a:ext cx="17783640" cy="4483080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5013,9 +5023,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5023,8 +5033,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3019320" y="6032880"/>
-        <a:ext cx="4264920" cy="3234240"/>
+        <a:off x="2971800" y="6032880"/>
+        <a:ext cx="4197960" cy="3233880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5053,9 +5063,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -6353,15 +6360,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:M38"/>
+  <dimension ref="A2:M40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,7 +6493,7 @@
         <v>260</v>
       </c>
       <c r="E14" s="27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -6532,155 +6539,172 @@
         <v>270</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="J18" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="H18" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="H20" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="J23" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="M23" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="25" t="s">
+      <c r="H25" s="26" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="28" t="s">
+      <c r="J25" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="M25" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E36" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H36" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E37" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="K35" s="0" t="n">
+      <c r="F37" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="K37" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="0" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K39" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="0" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K40" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6707,25 +6731,28 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>148</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>148</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>148</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,7 +6760,7 @@
         <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>150</v>
@@ -6743,7 +6770,7 @@
         <v>227</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>150</v>
@@ -6752,7 +6779,7 @@
         <v>227</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>150</v>
@@ -6762,19 +6789,19 @@
         <v>227</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>150</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6783,7 +6810,7 @@
         <v>0.71655193056</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -6792,7 +6819,7 @@
         <v>0.713732499255</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -6801,7 +6828,7 @@
         <v>0.71655193056</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>0</v>
@@ -6824,7 +6851,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -6833,7 +6860,7 @@
         <v>0.71089762834</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -6842,7 +6869,7 @@
         <v>0.724932654894</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -6851,7 +6878,7 @@
         <v>0.71089762834</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
@@ -6866,7 +6893,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
@@ -6875,7 +6902,7 @@
         <v>0.714972940469</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
@@ -6884,7 +6911,7 @@
         <v>0.726672667267</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>2</v>
@@ -6893,7 +6920,7 @@
         <v>0.714972940469</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>2</v>
@@ -6908,7 +6935,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3</v>
@@ -6917,7 +6944,7 @@
         <v>0.713816771113</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3</v>
@@ -6926,7 +6953,7 @@
         <v>0.734510625561</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>3</v>
@@ -6935,7 +6962,7 @@
         <v>0.713816771113</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>3</v>
@@ -6950,7 +6977,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>4</v>
@@ -6959,7 +6986,7 @@
         <v>0.927015891701</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -6968,7 +6995,7 @@
         <v>0.928941786472</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>5</v>
@@ -6977,7 +7004,7 @@
         <v>0.723072307231</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>5</v>
@@ -6992,7 +7019,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
@@ -7001,7 +7028,7 @@
         <v>0.723072307231</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5</v>
@@ -7010,7 +7037,7 @@
         <v>0.710353081987</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>6</v>
@@ -7019,7 +7046,7 @@
         <v>0.716034637205</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>6</v>
@@ -7034,7 +7061,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>6</v>
@@ -7043,7 +7070,7 @@
         <v>0.716034637205</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -7052,7 +7079,7 @@
         <v>0.722884386174</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>7</v>
@@ -7061,7 +7088,7 @@
         <v>0.707360861759</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>7</v>
@@ -7076,7 +7103,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>7</v>
@@ -7085,7 +7112,7 @@
         <v>0.707360861759</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -7094,7 +7121,7 @@
         <v>0.722404046415</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -7103,7 +7130,7 @@
         <v>0.687386843693</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>0</v>
@@ -7126,7 +7153,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>12</v>
@@ -7135,7 +7162,7 @@
         <v>0.926826396656</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>12</v>
@@ -7144,7 +7171,7 @@
         <v>0.928053738731</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -7153,7 +7180,7 @@
         <v>0.67438318611</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>1</v>
@@ -7168,7 +7195,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -7177,7 +7204,7 @@
         <v>0.687386843693</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
@@ -7186,7 +7213,7 @@
         <v>0.684848484848</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>2</v>
@@ -7195,7 +7222,7 @@
         <v>0.696642685851</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>2</v>
@@ -7210,7 +7237,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -7219,7 +7246,7 @@
         <v>0.67438318611</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -7228,7 +7255,7 @@
         <v>0.669525267994</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>3</v>
@@ -7237,7 +7264,7 @@
         <v>0.68109407875</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>3</v>
@@ -7252,7 +7279,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
@@ -7261,7 +7288,7 @@
         <v>0.696642685851</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -7270,7 +7297,7 @@
         <v>0.6741301059</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>5</v>
@@ -7279,7 +7306,7 @@
         <v>0.667072428484</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>5</v>
@@ -7294,7 +7321,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
@@ -7303,7 +7330,7 @@
         <v>0.68109407875</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -7312,7 +7339,7 @@
         <v>0.702018680325</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>6</v>
@@ -7321,7 +7348,7 @@
         <v>0.683000604961</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>6</v>
@@ -7336,7 +7363,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
@@ -7345,7 +7372,7 @@
         <v>0.920919269299</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -7354,7 +7381,7 @@
         <v>0.923240434577</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>7</v>
@@ -7363,7 +7390,7 @@
         <v>0.649058894961</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>7</v>
@@ -7378,7 +7405,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
@@ -7387,7 +7414,7 @@
         <v>0.667072428484</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>5</v>
@@ -7396,7 +7423,7 @@
         <v>0.681359044995</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -7405,7 +7432,7 @@
         <v>0.637457574823</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>0</v>
@@ -7428,7 +7455,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6</v>
@@ -7437,7 +7464,7 @@
         <v>0.683000604961</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>6</v>
@@ -7446,7 +7473,7 @@
         <v>0.692307692308</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>1</v>
@@ -7455,7 +7482,7 @@
         <v>0.620174346202</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>1</v>
@@ -7470,7 +7497,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>7</v>
@@ -7479,7 +7506,7 @@
         <v>0.649058894961</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -7488,7 +7515,7 @@
         <v>0.655677655678</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>2</v>
@@ -7497,7 +7524,7 @@
         <v>0.618844984802</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>2</v>
@@ -7512,7 +7539,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>12</v>
@@ -7521,7 +7548,7 @@
         <v>0.921888816837</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>12</v>
@@ -7530,7 +7557,7 @@
         <v>0.919853635505</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>3</v>
@@ -7539,7 +7566,7 @@
         <v>0.660741648789</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>3</v>
@@ -7554,7 +7581,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7563,7 +7590,7 @@
         <v>0.637457574823</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
@@ -7572,7 +7599,7 @@
         <v>0.630734680783</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>5</v>
@@ -7581,7 +7608,7 @@
         <v>0.591229684146</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>5</v>
@@ -7596,7 +7623,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -7605,7 +7632,7 @@
         <v>0.620174346202</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -7614,7 +7641,7 @@
         <v>0.620092735703</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>6</v>
@@ -7623,7 +7650,7 @@
         <v>0.620440156768</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>6</v>
@@ -7638,7 +7665,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
@@ -7647,7 +7674,7 @@
         <v>0.618844984802</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2</v>
@@ -7656,7 +7683,7 @@
         <v>0.604881062712</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>7</v>
@@ -7665,7 +7692,7 @@
         <v>0.59680393362</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>7</v>
@@ -7680,7 +7707,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>3</v>
@@ -7689,7 +7716,7 @@
         <v>0.660741648789</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>3</v>
@@ -7698,7 +7725,7 @@
         <v>0.646946564885</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -7707,7 +7734,7 @@
         <v>0.592405063291</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>0</v>
@@ -7730,7 +7757,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>4</v>
@@ -7739,7 +7766,7 @@
         <v>0.909959313639</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4</v>
@@ -7748,7 +7775,7 @@
         <v>0.908092792633</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>1</v>
@@ -7757,7 +7784,7 @@
         <v>0.53618628068</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>1</v>
@@ -7772,7 +7799,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>5</v>
@@ -7781,7 +7808,7 @@
         <v>0.591229684146</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
@@ -7790,7 +7817,7 @@
         <v>0.596347607053</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>2</v>
@@ -7799,7 +7826,7 @@
         <v>0.550815558344</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N27" s="0" t="n">
         <v>2</v>
@@ -7814,7 +7841,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>6</v>
@@ -7823,7 +7850,7 @@
         <v>0.620440156768</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -7832,7 +7859,7 @@
         <v>0.627998785302</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>3</v>
@@ -7841,7 +7868,7 @@
         <v>0.583968302347</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N28" s="0" t="n">
         <v>3</v>
@@ -7856,7 +7883,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>7</v>
@@ -7865,7 +7892,7 @@
         <v>0.59680393362</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>7</v>
@@ -7874,7 +7901,7 @@
         <v>0.598956735195</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>5</v>
@@ -7883,7 +7910,7 @@
         <v>0.531849103278</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>5</v>
@@ -7898,7 +7925,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>12</v>
@@ -7907,7 +7934,7 @@
         <v>0.904283009938</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>12</v>
@@ -7916,7 +7943,7 @@
         <v>0.904539267326</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>6</v>
@@ -7925,7 +7952,7 @@
         <v>0.461977186312</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>6</v>
@@ -7940,7 +7967,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7949,7 +7976,7 @@
         <v>0.592405063291</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
@@ -7958,7 +7985,7 @@
         <v>0.591849935317</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>7</v>
@@ -7967,7 +7994,7 @@
         <v>0.564749307905</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N31" s="0" t="n">
         <v>7</v>
@@ -7982,7 +8009,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -7991,7 +8018,7 @@
         <v>0.53618628068</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -8000,7 +8027,7 @@
         <v>0.555413196669</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -8009,7 +8036,7 @@
         <v>0.472800537273</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>0</v>
@@ -8032,7 +8059,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2</v>
@@ -8041,7 +8068,7 @@
         <v>0.550815558344</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -8050,7 +8077,7 @@
         <v>0.575385583884</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -8059,7 +8086,7 @@
         <v>0.434473854099</v>
       </c>
       <c r="M33" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>1</v>
@@ -8074,7 +8101,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3</v>
@@ -8083,7 +8110,7 @@
         <v>0.583968302347</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>3</v>
@@ -8092,7 +8119,7 @@
         <v>0.57501569366</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>2</v>
@@ -8101,7 +8128,7 @@
         <v>0.510901399284</v>
       </c>
       <c r="M34" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>2</v>
@@ -8116,7 +8143,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>4</v>
@@ -8125,7 +8152,7 @@
         <v>0.890085824208</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>4</v>
@@ -8134,7 +8161,7 @@
         <v>0.894602458286</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>3</v>
@@ -8143,7 +8170,7 @@
         <v>0.474908200734</v>
       </c>
       <c r="M35" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N35" s="0" t="n">
         <v>3</v>
@@ -8158,7 +8185,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>5</v>
@@ -8167,7 +8194,7 @@
         <v>0.531849103278</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>5</v>
@@ -8176,7 +8203,7 @@
         <v>0.55317769131</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>5</v>
@@ -8185,7 +8212,7 @@
         <v>0.486912645853</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N36" s="0" t="n">
         <v>5</v>
@@ -8200,7 +8227,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>6</v>
@@ -8209,7 +8236,7 @@
         <v>0.461977186312</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>6</v>
@@ -8218,7 +8245,7 @@
         <v>0.507824976046</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>6</v>
@@ -8227,7 +8254,7 @@
         <v>0.368553459119</v>
       </c>
       <c r="M37" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>6</v>
@@ -8242,7 +8269,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>7</v>
@@ -8251,7 +8278,7 @@
         <v>0.564749307905</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>7</v>
@@ -8260,7 +8287,7 @@
         <v>0.551767676768</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>7</v>
@@ -8269,7 +8296,7 @@
         <v>0.476656872347</v>
       </c>
       <c r="M38" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>7</v>
@@ -8284,7 +8311,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>12</v>
@@ -8293,7 +8320,7 @@
         <v>0.895278665247</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>12</v>
@@ -8302,7 +8329,7 @@
         <v>0.894328216678</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -8311,7 +8338,7 @@
         <v>0.260103312063</v>
       </c>
       <c r="M39" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>0</v>
@@ -8334,7 +8361,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -8343,7 +8370,7 @@
         <v>0.472800537273</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>0</v>
@@ -8352,7 +8379,7 @@
         <v>0.491110365649</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>1</v>
@@ -8361,7 +8388,7 @@
         <v>0.420795533845</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>1</v>
@@ -8376,7 +8403,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -8385,7 +8412,7 @@
         <v>0.434473854099</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
@@ -8394,7 +8421,7 @@
         <v>0.518118245391</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>2</v>
@@ -8403,7 +8430,7 @@
         <v>0.377164849262</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>2</v>
@@ -8418,7 +8445,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -8427,7 +8454,7 @@
         <v>0.510901399284</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2</v>
@@ -8436,7 +8463,7 @@
         <v>0.568085797855</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>3</v>
@@ -8445,7 +8472,7 @@
         <v>0.361445783133</v>
       </c>
       <c r="M42" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N42" s="0" t="n">
         <v>3</v>
@@ -8460,7 +8487,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>3</v>
@@ -8469,7 +8496,7 @@
         <v>0.474908200734</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>3</v>
@@ -8478,7 +8505,7 @@
         <v>0.467459762071</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>5</v>
@@ -8487,7 +8514,7 @@
         <v>0.3192550715</v>
       </c>
       <c r="M43" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>5</v>
@@ -8502,7 +8529,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>4</v>
@@ -8511,7 +8538,7 @@
         <v>0.884699745095</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>4</v>
@@ -8520,7 +8547,7 @@
         <v>0.88298567778</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>6</v>
@@ -8529,7 +8556,7 @@
         <v>0.295857988166</v>
       </c>
       <c r="M44" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>6</v>
@@ -8544,7 +8571,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>5</v>
@@ -8553,7 +8580,7 @@
         <v>0.486912645853</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>5</v>
@@ -8562,7 +8589,7 @@
         <v>0.473755047106</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>7</v>
@@ -8571,7 +8598,7 @@
         <v>0.345389377647</v>
       </c>
       <c r="M45" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>7</v>
@@ -8586,7 +8613,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>6</v>
@@ -8595,7 +8622,7 @@
         <v>0.368553459119</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>6</v>
@@ -8604,7 +8631,7 @@
         <v>0.465788628333</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -8613,7 +8640,7 @@
         <v>0.250269687163</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>0</v>
@@ -8636,7 +8663,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>7</v>
@@ -8645,7 +8672,7 @@
         <v>0.476656872347</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>7</v>
@@ -8654,7 +8681,7 @@
         <v>0.452945159106</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>1</v>
@@ -8663,7 +8690,7 @@
         <v>0.324441240087</v>
       </c>
       <c r="M47" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N47" s="0" t="n">
         <v>1</v>
@@ -8678,7 +8705,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>12</v>
@@ -8687,7 +8714,7 @@
         <v>0.878253172027</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>12</v>
@@ -8696,7 +8723,7 @@
         <v>0.86400661079</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>2</v>
@@ -8705,7 +8732,7 @@
         <v>0.266412940057</v>
       </c>
       <c r="M48" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N48" s="0" t="n">
         <v>2</v>
@@ -8720,7 +8747,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -8729,7 +8756,7 @@
         <v>0.260103312063</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>0</v>
@@ -8738,7 +8765,7 @@
         <v>0.300450266066</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>3</v>
@@ -8747,7 +8774,7 @@
         <v>0.296150049358</v>
       </c>
       <c r="M49" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N49" s="0" t="n">
         <v>3</v>
@@ -8762,7 +8789,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
@@ -8771,7 +8798,7 @@
         <v>0.420795533845</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
@@ -8780,7 +8807,7 @@
         <v>0.352982211371</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>5</v>
@@ -8789,7 +8816,7 @@
         <v>0.22844126261</v>
       </c>
       <c r="M50" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N50" s="0" t="n">
         <v>5</v>
@@ -8804,7 +8831,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2</v>
@@ -8813,7 +8840,7 @@
         <v>0.377164849262</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2</v>
@@ -8822,7 +8849,7 @@
         <v>0.333449356074</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>6</v>
@@ -8831,7 +8858,7 @@
         <v>0.292492687683</v>
       </c>
       <c r="M51" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N51" s="0" t="n">
         <v>6</v>
@@ -8846,7 +8873,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3</v>
@@ -8855,7 +8882,7 @@
         <v>0.361445783133</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>3</v>
@@ -8864,7 +8891,7 @@
         <v>0.358992060753</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>7</v>
@@ -8873,7 +8900,7 @@
         <v>0.23265940902</v>
       </c>
       <c r="M52" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>7</v>
@@ -8888,7 +8915,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -8897,7 +8924,7 @@
         <v>0.867099541312</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>4</v>
@@ -8906,7 +8933,7 @@
         <v>0.857176791971</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>0</v>
@@ -8915,7 +8942,7 @@
         <v>0.306393244873</v>
       </c>
       <c r="M53" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>0</v>
@@ -8938,7 +8965,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -8947,7 +8974,7 @@
         <v>0.3192550715</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>5</v>
@@ -8956,7 +8983,7 @@
         <v>0.307990690458</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>1</v>
@@ -8965,7 +8992,7 @@
         <v>0.171532846715</v>
       </c>
       <c r="M54" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N54" s="0" t="n">
         <v>1</v>
@@ -8980,7 +9007,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -8989,7 +9016,7 @@
         <v>0.295857988166</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>6</v>
@@ -8998,7 +9025,7 @@
         <v>0.302325581395</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>2</v>
@@ -9007,7 +9034,7 @@
         <v>0.221264367816</v>
       </c>
       <c r="M55" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N55" s="0" t="n">
         <v>2</v>
@@ -9022,7 +9049,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>7</v>
@@ -9031,7 +9058,7 @@
         <v>0.345389377647</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7</v>
@@ -9040,7 +9067,7 @@
         <v>0.318656716418</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>3</v>
@@ -9049,7 +9076,7 @@
         <v>0.301687065829</v>
       </c>
       <c r="M56" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N56" s="0" t="n">
         <v>3</v>
@@ -9064,7 +9091,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>12</v>
@@ -9073,7 +9100,7 @@
         <v>0.850067802606</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>12</v>
@@ -9082,7 +9109,7 @@
         <v>0.840415486308</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>5</v>
@@ -9091,7 +9118,7 @@
         <v>0.210690596957</v>
       </c>
       <c r="M57" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N57" s="0" t="n">
         <v>5</v>
@@ -9106,7 +9133,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -9115,7 +9142,7 @@
         <v>0.250269687163</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>0</v>
@@ -9124,7 +9151,7 @@
         <v>0.229408792319</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>6</v>
@@ -9133,7 +9160,7 @@
         <v>0.196775255018</v>
       </c>
       <c r="M58" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N58" s="0" t="n">
         <v>6</v>
@@ -9148,7 +9175,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -9157,7 +9184,7 @@
         <v>0.324441240087</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
@@ -9166,7 +9193,7 @@
         <v>0.267498885421</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>7</v>
@@ -9175,7 +9202,7 @@
         <v>0.156965336821</v>
       </c>
       <c r="M59" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N59" s="0" t="n">
         <v>7</v>
@@ -9190,7 +9217,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -9199,7 +9226,7 @@
         <v>0.266412940057</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2</v>
@@ -9210,7 +9237,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>3</v>
@@ -9219,7 +9246,7 @@
         <v>0.296150049358</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>3</v>
@@ -9230,7 +9257,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>4</v>
@@ -9239,7 +9266,7 @@
         <v>0.842689989363</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>4</v>
@@ -9250,7 +9277,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>5</v>
@@ -9259,7 +9286,7 @@
         <v>0.22844126261</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>5</v>
@@ -9270,7 +9297,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>6</v>
@@ -9279,7 +9306,7 @@
         <v>0.292492687683</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>6</v>
@@ -9290,7 +9317,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>7</v>
@@ -9299,7 +9326,7 @@
         <v>0.23265940902</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>7</v>
@@ -9310,7 +9337,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>12</v>
@@ -9319,7 +9346,7 @@
         <v>0.837181903864</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>12</v>
@@ -9330,7 +9357,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0</v>
@@ -9339,7 +9366,7 @@
         <v>0.306393244873</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>0</v>
@@ -9350,7 +9377,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1</v>
@@ -9359,7 +9386,7 @@
         <v>0.171532846715</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1</v>
@@ -9370,7 +9397,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -9379,7 +9406,7 @@
         <v>0.221264367816</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2</v>
@@ -9390,7 +9417,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>3</v>
@@ -9399,7 +9426,7 @@
         <v>0.301687065829</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>3</v>
@@ -9410,7 +9437,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>4</v>
@@ -9419,7 +9446,7 @@
         <v>0.855546687949</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>4</v>
@@ -9430,7 +9457,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>5</v>
@@ -9439,7 +9466,7 @@
         <v>0.210690596957</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>5</v>
@@ -9450,7 +9477,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>6</v>
@@ -9459,7 +9486,7 @@
         <v>0.196775255018</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>6</v>
@@ -9470,7 +9497,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>7</v>
@@ -9479,7 +9506,7 @@
         <v>0.156965336821</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>7</v>
@@ -9490,7 +9517,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>12</v>
@@ -9499,7 +9526,7 @@
         <v>0.827683615819</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>12</v>
@@ -9533,13 +9560,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>2</v>
@@ -9547,10 +9571,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>20</v>
@@ -9561,12 +9585,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -9594,19 +9618,19 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -10254,7 +10278,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,9 +10661,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0" t="s">
@@ -10763,7 +10784,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16158,7 +16179,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16588,7 +16609,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18141,7 +18162,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua A Kosasih\Documents\_kuliah_TA\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D1EE6A-AE3F-47B3-ACB9-4AF5938DD4BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00703702-655B-4F31-B13F-2FD1AD13BFC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ClassWeigh" sheetId="5" r:id="rId5"/>
     <sheet name="Epochs" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet8" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
+    <sheet name="anaGo" sheetId="13" r:id="rId8"/>
     <sheet name="Partial" sheetId="8" r:id="rId9"/>
     <sheet name="TrainableNoTrainableTransfer" sheetId="9" r:id="rId10"/>
     <sheet name="SkenarioPengujian" sheetId="10" r:id="rId11"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="336">
   <si>
     <t>Embedding</t>
   </si>
@@ -1048,13 +1048,19 @@
   </si>
   <si>
     <t xml:space="preserve">  O</t>
+  </si>
+  <si>
+    <t>Polyglot</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/rmyeid/projects/polyglot#TOC-Download-the-Embeddings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1089,6 +1095,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1230,10 +1244,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1273,8 +1288,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5531,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S50"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5963,6 +5982,9 @@
       <c r="J13" s="6">
         <v>0.92200000000000004</v>
       </c>
+      <c r="O13" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -5993,6 +6015,13 @@
       <c r="J14" s="6">
         <v>0.90200000000000002</v>
       </c>
+      <c r="O14" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -6818,8 +6847,11 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:F43"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O14" r:id="rId1" location="TOC-Download-the-Embeddings" display="TOC-Download-the-Embeddings" xr:uid="{38200943-0C69-496B-9CFA-A748D94CB249}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -17057,8 +17089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E25D346-49E5-436F-8039-668ED9EE7998}">
   <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,6 +35,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="373">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -1107,6 +1108,9 @@
     <t xml:space="preserve">strm</t>
   </si>
   <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
     <t xml:space="preserve">p11</t>
   </si>
   <si>
@@ -1117,9 +1121,6 @@
   </si>
   <si>
     <t xml:space="preserve">sdefault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home</t>
   </si>
   <si>
     <t xml:space="preserve">NER Tag</t>
@@ -1589,7 +1590,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1597,6 +1598,7 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2031,11 +2033,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="54279619"/>
-        <c:axId val="23758906"/>
+        <c:axId val="47466800"/>
+        <c:axId val="54510941"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54279619"/>
+        <c:axId val="47466800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,14 +2073,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23758906"/>
+        <c:crossAx val="54510941"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23758906"/>
+        <c:axId val="54510941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2126,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54279619"/>
+        <c:crossAx val="47466800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2161,7 +2163,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2169,6 +2171,7 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4689,11 +4692,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="50125166"/>
-        <c:axId val="5882495"/>
+        <c:axId val="32317438"/>
+        <c:axId val="34218085"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50125166"/>
+        <c:axId val="32317438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4729,14 +4732,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5882495"/>
+        <c:crossAx val="34218085"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5882495"/>
+        <c:axId val="34218085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4782,7 +4785,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50125166"/>
+        <c:crossAx val="32317438"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4819,7 +4822,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4827,6 +4830,7 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5055,11 +5059,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="75653216"/>
-        <c:axId val="49251833"/>
+        <c:axId val="32476798"/>
+        <c:axId val="62975425"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75653216"/>
+        <c:axId val="32476798"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,14 +5099,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49251833"/>
+        <c:crossAx val="62975425"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49251833"/>
+        <c:axId val="62975425"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5148,7 +5152,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75653216"/>
+        <c:crossAx val="32476798"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5196,9 +5200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>556560</xdr:colOff>
+      <xdr:colOff>556200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5207,7 +5211,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3014640" y="359640"/>
-        <a:ext cx="5409360" cy="3219840"/>
+        <a:ext cx="5409000" cy="3219480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5226,9 +5230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>458280</xdr:colOff>
+      <xdr:colOff>457920</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5237,7 +5241,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36252000"/>
-        <a:ext cx="17210160" cy="4463640"/>
+        <a:ext cx="17209800" cy="4463280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5261,9 +5265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5272,7 +5276,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2876400" y="6009480"/>
-        <a:ext cx="4062600" cy="3219120"/>
+        <a:ext cx="4062240" cy="3218760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5296,13 +5300,13 @@
   </sheetPr>
   <dimension ref="A2:S50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,7 +6605,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6616,13 +6620,13 @@
   </sheetPr>
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.10204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8366,7 +8370,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8382,13 +8386,13 @@
   </sheetPr>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.96428571428571"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9051,6 +9055,9 @@
       <c r="K32" s="0" t="s">
         <v>352</v>
       </c>
+      <c r="L32" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
@@ -9063,14 +9070,14 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>4</v>
@@ -9078,10 +9085,10 @@
       <c r="H34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9218,7 +9225,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9233,13 +9240,13 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12159,7 +12166,7 @@
   <autoFilter ref="Q3:R59"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -12175,27 +12182,27 @@
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="6.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12542,7 +12549,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -12557,13 +12564,13 @@
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U5" activeCellId="0" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.29081632653061"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13083,7 +13090,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -13098,13 +13105,13 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.29081632653061"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13484,7 +13491,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13499,13 +13506,13 @@
   </sheetPr>
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.0765306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="6.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13868,7 +13875,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13883,13 +13890,13 @@
   </sheetPr>
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13993,7 +14000,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -14008,13 +14015,13 @@
   </sheetPr>
   <dimension ref="A1:R235"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.96428571428571"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19642,7 +19649,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -19658,13 +19665,13 @@
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.10204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20158,7 +20165,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -20173,13 +20180,13 @@
   </sheetPr>
   <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21192,7 +21199,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,6 +36,8 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="373">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -895,36 +897,33 @@
     <t xml:space="preserve">sexm</t>
   </si>
   <si>
+    <t xml:space="preserve">Dukun &amp; HPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model (WE/CE/Both)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainable Embedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← using best embedding; no trainable only, trainable data are get from previous experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_script_notrain.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logTxM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stxm</t>
+  </si>
+  <si>
     <t xml:space="preserve">dukun</t>
   </si>
   <si>
-    <t xml:space="preserve">← polyglot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model (WE/CE/Both)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">← both</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainable Embedding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">← using best embedding; no trainable only, trainable data are get from previous experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto_script_notrain.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logTxM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stxm</t>
-  </si>
-  <si>
     <t xml:space="preserve">← trainable</t>
   </si>
   <si>
@@ -1013,6 +1012,9 @@
   </si>
   <si>
     <t xml:space="preserve">soad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaib</t>
   </si>
   <si>
     <t xml:space="preserve">← adam, binary_crossentropy</t>
@@ -1590,7 +1592,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1598,7 +1600,6 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2033,11 +2034,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="47466800"/>
-        <c:axId val="54510941"/>
+        <c:axId val="43941534"/>
+        <c:axId val="24560121"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47466800"/>
+        <c:axId val="43941534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,14 +2074,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54510941"/>
+        <c:crossAx val="24560121"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54510941"/>
+        <c:axId val="24560121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2127,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47466800"/>
+        <c:crossAx val="43941534"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2163,7 +2164,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2171,7 +2172,6 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4692,11 +4692,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="32317438"/>
-        <c:axId val="34218085"/>
+        <c:axId val="614559"/>
+        <c:axId val="75482370"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32317438"/>
+        <c:axId val="614559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4732,14 +4732,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34218085"/>
+        <c:crossAx val="75482370"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34218085"/>
+        <c:axId val="75482370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4785,7 +4785,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32317438"/>
+        <c:crossAx val="614559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4822,7 +4822,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4830,7 +4830,6 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5059,11 +5058,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="32476798"/>
-        <c:axId val="62975425"/>
+        <c:axId val="70731624"/>
+        <c:axId val="63158668"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32476798"/>
+        <c:axId val="70731624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,14 +5098,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62975425"/>
+        <c:crossAx val="63158668"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62975425"/>
+        <c:axId val="63158668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5152,7 +5151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32476798"/>
+        <c:crossAx val="70731624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5199,10 +5198,10 @@
       <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>556200</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5210,8 +5209,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3014640" y="359640"/>
-        <a:ext cx="5409000" cy="3219480"/>
+        <a:off x="2919240" y="359640"/>
+        <a:ext cx="5227560" cy="3218760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5230,9 +5229,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>457920</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5241,7 +5240,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36252000"/>
-        <a:ext cx="17209800" cy="4463280"/>
+        <a:ext cx="16637400" cy="4462560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5265,9 +5264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>80640</xdr:colOff>
+      <xdr:colOff>79920</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5275,8 +5274,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2876400" y="6009480"/>
-        <a:ext cx="4062240" cy="3218760"/>
+        <a:off x="2781000" y="6009480"/>
+        <a:ext cx="3928320" cy="3218040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5300,14 +5299,11 @@
   </sheetPr>
   <dimension ref="A2:S50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -6605,7 +6601,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6620,13 +6616,13 @@
   </sheetPr>
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.1"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8370,7 +8366,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8386,13 +8382,13 @@
   </sheetPr>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.96"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,6 +8405,9 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
@@ -8426,6 +8425,9 @@
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
@@ -8441,6 +8443,9 @@
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
@@ -8458,6 +8463,9 @@
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -8475,6 +8483,9 @@
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -8505,14 +8516,14 @@
       <c r="L6" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="R6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
@@ -8526,9 +8537,9 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
-      <c r="M7" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="R7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
@@ -8544,17 +8555,20 @@
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -8564,26 +8578,29 @@
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="R9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -8598,6 +8615,9 @@
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
@@ -8613,17 +8633,20 @@
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>293</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>294</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="30" t="n">
         <v>3</v>
@@ -8633,17 +8656,20 @@
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28" t="s">
-        <v>298</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="R12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28"/>
@@ -8659,17 +8685,20 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
+      <c r="R13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>299</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>300</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E14" s="30" t="n">
         <v>4</v>
@@ -8679,17 +8708,20 @@
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28" t="s">
-        <v>304</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="R14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28"/>
@@ -8705,17 +8737,20 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
+      <c r="R15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>305</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>306</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E16" s="28" t="n">
         <v>5</v>
@@ -8725,96 +8760,118 @@
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28" t="s">
-        <v>310</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="R16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>294</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>96</v>
       </c>
+      <c r="G18" s="0"/>
       <c r="H18" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="M18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="G20" s="0"/>
       <c r="H20" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="L20" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="L20" s="0"/>
       <c r="M20" s="1" t="s">
         <v>322</v>
       </c>
@@ -8829,10 +8886,15 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
       <c r="H21" s="29"/>
       <c r="I21" s="28"/>
       <c r="J21" s="0"/>
@@ -8840,12 +8902,20 @@
         <v>326</v>
       </c>
       <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="T21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="1" t="s">
         <v>327</v>
       </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
       <c r="H22" s="29"/>
       <c r="I22" s="28"/>
       <c r="J22" s="0"/>
@@ -8853,14 +8923,26 @@
         <v>328</v>
       </c>
       <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="T22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
       <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
       <c r="H23" s="29"/>
       <c r="I23" s="28"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="T23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -8869,11 +8951,13 @@
       <c r="B24" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="C24" s="0"/>
       <c r="D24" s="0"/>
       <c r="E24" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="0"/>
@@ -8890,9 +8974,11 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
       <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="0"/>
@@ -8994,6 +9080,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
       <c r="B29" s="0"/>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
@@ -9029,12 +9116,15 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
       <c r="B31" s="0"/>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="H31" s="0"/>
       <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -9060,6 +9150,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
       <c r="B33" s="0"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
@@ -9067,6 +9158,7 @@
       <c r="H33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -9179,7 +9271,7 @@
       </c>
       <c r="F42" s="0"/>
       <c r="H42" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>2</v>
@@ -9225,7 +9317,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9240,13 +9332,13 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12166,7 +12258,7 @@
   <autoFilter ref="Q3:R59"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -12182,27 +12274,27 @@
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="6.08"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12549,7 +12641,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -12564,13 +12656,13 @@
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U5" activeCellId="0" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.29"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12861,6 +12953,7 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
+      <c r="O12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
@@ -12875,6 +12968,7 @@
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
+      <c r="O13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
@@ -12889,6 +12983,7 @@
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
+      <c r="O14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
@@ -13090,7 +13185,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -13105,13 +13200,13 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.29"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13491,7 +13586,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13506,13 +13601,13 @@
   </sheetPr>
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="6.08"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13875,7 +13970,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13890,14 +13985,11 @@
   </sheetPr>
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
@@ -14000,7 +14092,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -14015,13 +14107,13 @@
   </sheetPr>
   <dimension ref="A1:R235"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="7.96"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19649,7 +19741,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -19665,13 +19757,13 @@
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.1"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20165,7 +20257,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -20180,14 +20272,11 @@
   </sheetPr>
   <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -21199,7 +21288,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -38,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="375">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -1014,9 +1015,6 @@
     <t xml:space="preserve">soad</t>
   </si>
   <si>
-    <t xml:space="preserve">gaib</t>
-  </si>
-  <si>
     <t xml:space="preserve">← adam, binary_crossentropy</t>
   </si>
   <si>
@@ -1131,7 +1129,16 @@
     <t xml:space="preserve">← using val set</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">logNoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st</t>
   </si>
   <si>
     <t xml:space="preserve">Trainable GRU</t>
@@ -2034,11 +2041,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="43941534"/>
-        <c:axId val="24560121"/>
+        <c:axId val="7554458"/>
+        <c:axId val="65735680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43941534"/>
+        <c:axId val="7554458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,14 +2081,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24560121"/>
+        <c:crossAx val="65735680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24560121"/>
+        <c:axId val="65735680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2134,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43941534"/>
+        <c:crossAx val="7554458"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4692,11 +4699,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="614559"/>
-        <c:axId val="75482370"/>
+        <c:axId val="86649881"/>
+        <c:axId val="42407028"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="614559"/>
+        <c:axId val="86649881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4732,14 +4739,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75482370"/>
+        <c:crossAx val="42407028"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75482370"/>
+        <c:axId val="42407028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4785,7 +4792,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614559"/>
+        <c:crossAx val="86649881"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5058,11 +5065,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="70731624"/>
-        <c:axId val="63158668"/>
+        <c:axId val="34770021"/>
+        <c:axId val="63641640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70731624"/>
+        <c:axId val="34770021"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5098,14 +5105,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63158668"/>
+        <c:crossAx val="63641640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63158668"/>
+        <c:axId val="63641640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5151,7 +5158,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70731624"/>
+        <c:crossAx val="34770021"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5199,9 +5206,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5209,8 +5216,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2919240" y="359640"/>
-        <a:ext cx="5227560" cy="3218760"/>
+        <a:off x="2871720" y="359640"/>
+        <a:ext cx="5132160" cy="3218400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5229,9 +5236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>456840</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5240,7 +5247,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36252000"/>
-        <a:ext cx="16637400" cy="4462560"/>
+        <a:ext cx="16351560" cy="4462200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5264,9 +5271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5274,8 +5281,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2781000" y="6009480"/>
-        <a:ext cx="3928320" cy="3218040"/>
+        <a:off x="2733480" y="6009480"/>
+        <a:ext cx="3861000" cy="3217680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5304,6 +5311,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -6622,7 +6632,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8382,13 +8392,13 @@
   </sheetPr>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8516,6 +8526,7 @@
       <c r="L6" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="M6" s="0"/>
       <c r="R6" s="0"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
@@ -8537,6 +8548,7 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
       <c r="R7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="0"/>
@@ -8870,19 +8882,19 @@
         <v>320</v>
       </c>
       <c r="L20" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8891,7 +8903,7 @@
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -8899,7 +8911,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
@@ -8912,7 +8924,7 @@
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -8920,7 +8932,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
@@ -8946,10 +8958,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -8968,7 +8980,7 @@
         <v>14</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8989,19 +9001,19 @@
         <v>18</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E26" s="28" t="n">
         <v>1</v>
@@ -9011,22 +9023,22 @@
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9050,10 +9062,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="1" t="n">
@@ -9063,20 +9075,20 @@
         <v>10</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9092,10 +9104,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0" t="n">
@@ -9106,13 +9118,13 @@
       </c>
       <c r="H30" s="0"/>
       <c r="J30" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,14 +9140,14 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
@@ -9143,10 +9155,10 @@
       <c r="H32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9162,14 +9174,14 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>354</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>355</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>4</v>
@@ -9177,10 +9189,10 @@
       <c r="H34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9194,7 +9206,7 @@
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
@@ -9219,50 +9231,77 @@
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
       <c r="F38" s="0"/>
-      <c r="H38" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L38" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
       <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
+      <c r="L39" s="0"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E40" s="1" t="n">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E40" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="F40" s="0"/>
-      <c r="H40" s="1" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K40" s="1" t="n">
+      <c r="M40" s="28"/>
+      <c r="N40" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="O40" s="28" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
       <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
       <c r="K41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
         <v>265</v>
       </c>
@@ -9270,49 +9309,84 @@
         <v>8</v>
       </c>
       <c r="F42" s="0"/>
-      <c r="H42" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="K42" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="K43" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O45" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="0"/>
-      <c r="K44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K45" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K46" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9338,7 +9412,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9349,7 +9423,7 @@
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -9360,7 +9434,7 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
@@ -9369,7 +9443,7 @@
         <v>160</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9396,7 +9470,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>162</v>
@@ -9405,7 +9479,7 @@
         <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>162</v>
@@ -9414,7 +9488,7 @@
         <v>265</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>162</v>
@@ -9423,20 +9497,20 @@
         <v>265</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>162</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="R3" s="0"/>
       <c r="T3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0</v>
@@ -9445,7 +9519,7 @@
         <v>0.71655193056</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
@@ -9454,7 +9528,7 @@
         <v>0.713732499255</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0</v>
@@ -9463,7 +9537,7 @@
         <v>0.71655193056</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>0</v>
@@ -9486,7 +9560,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
@@ -9495,7 +9569,7 @@
         <v>0.71089762834</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
@@ -9504,7 +9578,7 @@
         <v>0.724932654894</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>1</v>
@@ -9513,7 +9587,7 @@
         <v>0.71089762834</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>1</v>
@@ -9530,7 +9604,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
@@ -9539,7 +9613,7 @@
         <v>0.714972940469</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>2</v>
@@ -9548,7 +9622,7 @@
         <v>0.726672667267</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>2</v>
@@ -9557,7 +9631,7 @@
         <v>0.714972940469</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>2</v>
@@ -9574,7 +9648,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
@@ -9583,7 +9657,7 @@
         <v>0.713816771113</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>3</v>
@@ -9592,7 +9666,7 @@
         <v>0.734510625561</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>3</v>
@@ -9601,7 +9675,7 @@
         <v>0.713816771113</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>3</v>
@@ -9618,7 +9692,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>4</v>
@@ -9627,7 +9701,7 @@
         <v>0.927015891701</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>4</v>
@@ -9636,7 +9710,7 @@
         <v>0.928941786472</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>5</v>
@@ -9645,7 +9719,7 @@
         <v>0.723072307231</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>5</v>
@@ -9662,7 +9736,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>5</v>
@@ -9671,7 +9745,7 @@
         <v>0.723072307231</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>5</v>
@@ -9680,7 +9754,7 @@
         <v>0.710353081987</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>6</v>
@@ -9689,7 +9763,7 @@
         <v>0.716034637205</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>6</v>
@@ -9706,7 +9780,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>6</v>
@@ -9715,7 +9789,7 @@
         <v>0.716034637205</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>6</v>
@@ -9724,7 +9798,7 @@
         <v>0.722884386174</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>7</v>
@@ -9733,7 +9807,7 @@
         <v>0.707360861759</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>7</v>
@@ -9750,7 +9824,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>7</v>
@@ -9759,7 +9833,7 @@
         <v>0.707360861759</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>7</v>
@@ -9768,7 +9842,7 @@
         <v>0.722404046415</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>0</v>
@@ -9777,7 +9851,7 @@
         <v>0.687386843693</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>0</v>
@@ -9800,7 +9874,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>12</v>
@@ -9809,7 +9883,7 @@
         <v>0.926826396656</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>12</v>
@@ -9818,7 +9892,7 @@
         <v>0.928053738731</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>1</v>
@@ -9827,7 +9901,7 @@
         <v>0.67438318611</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>1</v>
@@ -9844,7 +9918,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
@@ -9853,7 +9927,7 @@
         <v>0.687386843693</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0</v>
@@ -9862,7 +9936,7 @@
         <v>0.684848484848</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>2</v>
@@ -9871,7 +9945,7 @@
         <v>0.696642685851</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>2</v>
@@ -9888,7 +9962,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
@@ -9897,7 +9971,7 @@
         <v>0.67438318611</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>1</v>
@@ -9906,7 +9980,7 @@
         <v>0.669525267994</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>3</v>
@@ -9915,7 +9989,7 @@
         <v>0.68109407875</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>3</v>
@@ -9932,7 +10006,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
@@ -9941,7 +10015,7 @@
         <v>0.696642685851</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>2</v>
@@ -9950,7 +10024,7 @@
         <v>0.6741301059</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>5</v>
@@ -9959,7 +10033,7 @@
         <v>0.667072428484</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>5</v>
@@ -9976,7 +10050,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
@@ -9985,7 +10059,7 @@
         <v>0.68109407875</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>3</v>
@@ -9994,7 +10068,7 @@
         <v>0.702018680325</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>6</v>
@@ -10003,7 +10077,7 @@
         <v>0.683000604961</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>6</v>
@@ -10020,7 +10094,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>4</v>
@@ -10029,7 +10103,7 @@
         <v>0.920919269299</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>4</v>
@@ -10038,7 +10112,7 @@
         <v>0.923240434577</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>7</v>
@@ -10047,7 +10121,7 @@
         <v>0.649058894961</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>7</v>
@@ -10064,7 +10138,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>5</v>
@@ -10073,7 +10147,7 @@
         <v>0.667072428484</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>5</v>
@@ -10082,7 +10156,7 @@
         <v>0.681359044995</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>0</v>
@@ -10091,7 +10165,7 @@
         <v>0.637457574823</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>0</v>
@@ -10114,7 +10188,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>6</v>
@@ -10123,7 +10197,7 @@
         <v>0.683000604961</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>6</v>
@@ -10132,7 +10206,7 @@
         <v>0.692307692308</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>1</v>
@@ -10141,7 +10215,7 @@
         <v>0.620174346202</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>1</v>
@@ -10158,7 +10232,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>7</v>
@@ -10167,7 +10241,7 @@
         <v>0.649058894961</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>7</v>
@@ -10176,7 +10250,7 @@
         <v>0.655677655678</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>2</v>
@@ -10185,7 +10259,7 @@
         <v>0.618844984802</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>2</v>
@@ -10202,7 +10276,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -10211,7 +10285,7 @@
         <v>0.921888816837</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>12</v>
@@ -10220,7 +10294,7 @@
         <v>0.919853635505</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>3</v>
@@ -10229,7 +10303,7 @@
         <v>0.660741648789</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>3</v>
@@ -10246,7 +10320,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0</v>
@@ -10255,7 +10329,7 @@
         <v>0.637457574823</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
@@ -10264,7 +10338,7 @@
         <v>0.630734680783</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>5</v>
@@ -10273,7 +10347,7 @@
         <v>0.591229684146</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>5</v>
@@ -10290,7 +10364,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1</v>
@@ -10299,7 +10373,7 @@
         <v>0.620174346202</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>1</v>
@@ -10308,7 +10382,7 @@
         <v>0.620092735703</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>6</v>
@@ -10317,7 +10391,7 @@
         <v>0.620440156768</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>6</v>
@@ -10334,7 +10408,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2</v>
@@ -10343,7 +10417,7 @@
         <v>0.618844984802</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>2</v>
@@ -10352,7 +10426,7 @@
         <v>0.604881062712</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>7</v>
@@ -10361,7 +10435,7 @@
         <v>0.59680393362</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>7</v>
@@ -10378,7 +10452,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>3</v>
@@ -10387,7 +10461,7 @@
         <v>0.660741648789</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>3</v>
@@ -10396,7 +10470,7 @@
         <v>0.646946564885</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>0</v>
@@ -10405,7 +10479,7 @@
         <v>0.592405063291</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>0</v>
@@ -10428,7 +10502,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>4</v>
@@ -10437,7 +10511,7 @@
         <v>0.909959313639</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>4</v>
@@ -10446,7 +10520,7 @@
         <v>0.908092792633</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>1</v>
@@ -10455,7 +10529,7 @@
         <v>0.53618628068</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>1</v>
@@ -10472,7 +10546,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>5</v>
@@ -10481,7 +10555,7 @@
         <v>0.591229684146</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>5</v>
@@ -10490,7 +10564,7 @@
         <v>0.596347607053</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>2</v>
@@ -10499,7 +10573,7 @@
         <v>0.550815558344</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>2</v>
@@ -10516,7 +10590,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>6</v>
@@ -10525,7 +10599,7 @@
         <v>0.620440156768</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>6</v>
@@ -10534,7 +10608,7 @@
         <v>0.627998785302</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>3</v>
@@ -10543,7 +10617,7 @@
         <v>0.583968302347</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>3</v>
@@ -10560,7 +10634,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>7</v>
@@ -10569,7 +10643,7 @@
         <v>0.59680393362</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>7</v>
@@ -10578,7 +10652,7 @@
         <v>0.598956735195</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>5</v>
@@ -10587,7 +10661,7 @@
         <v>0.531849103278</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>5</v>
@@ -10604,7 +10678,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>12</v>
@@ -10613,7 +10687,7 @@
         <v>0.904283009938</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>12</v>
@@ -10622,7 +10696,7 @@
         <v>0.904539267326</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>6</v>
@@ -10631,7 +10705,7 @@
         <v>0.461977186312</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>6</v>
@@ -10648,7 +10722,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>0</v>
@@ -10657,7 +10731,7 @@
         <v>0.592405063291</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>0</v>
@@ -10666,7 +10740,7 @@
         <v>0.591849935317</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>7</v>
@@ -10675,7 +10749,7 @@
         <v>0.564749307905</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N31" s="1" t="n">
         <v>7</v>
@@ -10692,7 +10766,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -10701,7 +10775,7 @@
         <v>0.53618628068</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>1</v>
@@ -10710,7 +10784,7 @@
         <v>0.555413196669</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>0</v>
@@ -10719,7 +10793,7 @@
         <v>0.472800537273</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>0</v>
@@ -10742,7 +10816,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>2</v>
@@ -10751,7 +10825,7 @@
         <v>0.550815558344</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>2</v>
@@ -10760,7 +10834,7 @@
         <v>0.575385583884</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>1</v>
@@ -10769,7 +10843,7 @@
         <v>0.434473854099</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>1</v>
@@ -10786,7 +10860,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>3</v>
@@ -10795,7 +10869,7 @@
         <v>0.583968302347</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>3</v>
@@ -10804,7 +10878,7 @@
         <v>0.57501569366</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>2</v>
@@ -10813,7 +10887,7 @@
         <v>0.510901399284</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N34" s="1" t="n">
         <v>2</v>
@@ -10830,7 +10904,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>4</v>
@@ -10839,7 +10913,7 @@
         <v>0.890085824208</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>4</v>
@@ -10848,7 +10922,7 @@
         <v>0.894602458286</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>3</v>
@@ -10857,7 +10931,7 @@
         <v>0.474908200734</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N35" s="1" t="n">
         <v>3</v>
@@ -10874,7 +10948,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>5</v>
@@ -10883,7 +10957,7 @@
         <v>0.531849103278</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>5</v>
@@ -10892,7 +10966,7 @@
         <v>0.55317769131</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>5</v>
@@ -10901,7 +10975,7 @@
         <v>0.486912645853</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N36" s="1" t="n">
         <v>5</v>
@@ -10918,7 +10992,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>6</v>
@@ -10927,7 +11001,7 @@
         <v>0.461977186312</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>6</v>
@@ -10936,7 +11010,7 @@
         <v>0.507824976046</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>6</v>
@@ -10945,7 +11019,7 @@
         <v>0.368553459119</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N37" s="1" t="n">
         <v>6</v>
@@ -10962,7 +11036,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>7</v>
@@ -10971,7 +11045,7 @@
         <v>0.564749307905</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>7</v>
@@ -10980,7 +11054,7 @@
         <v>0.551767676768</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J38" s="1" t="n">
         <v>7</v>
@@ -10989,7 +11063,7 @@
         <v>0.476656872347</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N38" s="1" t="n">
         <v>7</v>
@@ -11006,7 +11080,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>12</v>
@@ -11015,7 +11089,7 @@
         <v>0.895278665247</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>12</v>
@@ -11024,7 +11098,7 @@
         <v>0.894328216678</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J39" s="1" t="n">
         <v>0</v>
@@ -11033,7 +11107,7 @@
         <v>0.260103312063</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N39" s="1" t="n">
         <v>0</v>
@@ -11056,7 +11130,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>0</v>
@@ -11065,7 +11139,7 @@
         <v>0.472800537273</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>0</v>
@@ -11074,7 +11148,7 @@
         <v>0.491110365649</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>1</v>
@@ -11083,7 +11157,7 @@
         <v>0.420795533845</v>
       </c>
       <c r="M40" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N40" s="1" t="n">
         <v>1</v>
@@ -11100,7 +11174,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
@@ -11109,7 +11183,7 @@
         <v>0.434473854099</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>1</v>
@@ -11118,7 +11192,7 @@
         <v>0.518118245391</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>2</v>
@@ -11127,7 +11201,7 @@
         <v>0.377164849262</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N41" s="1" t="n">
         <v>2</v>
@@ -11144,7 +11218,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2</v>
@@ -11153,7 +11227,7 @@
         <v>0.510901399284</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>2</v>
@@ -11162,7 +11236,7 @@
         <v>0.568085797855</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>3</v>
@@ -11171,7 +11245,7 @@
         <v>0.361445783133</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N42" s="1" t="n">
         <v>3</v>
@@ -11188,7 +11262,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>3</v>
@@ -11197,7 +11271,7 @@
         <v>0.474908200734</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>3</v>
@@ -11206,7 +11280,7 @@
         <v>0.467459762071</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J43" s="1" t="n">
         <v>5</v>
@@ -11215,7 +11289,7 @@
         <v>0.3192550715</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N43" s="1" t="n">
         <v>5</v>
@@ -11232,7 +11306,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>4</v>
@@ -11241,7 +11315,7 @@
         <v>0.884699745095</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>4</v>
@@ -11250,7 +11324,7 @@
         <v>0.88298567778</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J44" s="1" t="n">
         <v>6</v>
@@ -11259,7 +11333,7 @@
         <v>0.295857988166</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N44" s="1" t="n">
         <v>6</v>
@@ -11276,7 +11350,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>5</v>
@@ -11285,7 +11359,7 @@
         <v>0.486912645853</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>5</v>
@@ -11294,7 +11368,7 @@
         <v>0.473755047106</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>7</v>
@@ -11303,7 +11377,7 @@
         <v>0.345389377647</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N45" s="1" t="n">
         <v>7</v>
@@ -11320,7 +11394,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>6</v>
@@ -11329,7 +11403,7 @@
         <v>0.368553459119</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>6</v>
@@ -11338,7 +11412,7 @@
         <v>0.465788628333</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>0</v>
@@ -11347,7 +11421,7 @@
         <v>0.250269687163</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N46" s="1" t="n">
         <v>0</v>
@@ -11370,7 +11444,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>7</v>
@@ -11379,7 +11453,7 @@
         <v>0.476656872347</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>7</v>
@@ -11388,7 +11462,7 @@
         <v>0.452945159106</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J47" s="1" t="n">
         <v>1</v>
@@ -11397,7 +11471,7 @@
         <v>0.324441240087</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N47" s="1" t="n">
         <v>1</v>
@@ -11414,7 +11488,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>12</v>
@@ -11423,7 +11497,7 @@
         <v>0.878253172027</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>12</v>
@@ -11432,7 +11506,7 @@
         <v>0.86400661079</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>2</v>
@@ -11441,7 +11515,7 @@
         <v>0.266412940057</v>
       </c>
       <c r="M48" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N48" s="1" t="n">
         <v>2</v>
@@ -11458,7 +11532,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>0</v>
@@ -11467,7 +11541,7 @@
         <v>0.260103312063</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>0</v>
@@ -11476,7 +11550,7 @@
         <v>0.300450266066</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J49" s="1" t="n">
         <v>3</v>
@@ -11485,7 +11559,7 @@
         <v>0.296150049358</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N49" s="1" t="n">
         <v>3</v>
@@ -11502,7 +11576,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1</v>
@@ -11511,7 +11585,7 @@
         <v>0.420795533845</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>1</v>
@@ -11520,7 +11594,7 @@
         <v>0.352982211371</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J50" s="1" t="n">
         <v>5</v>
@@ -11529,7 +11603,7 @@
         <v>0.22844126261</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N50" s="1" t="n">
         <v>5</v>
@@ -11546,7 +11620,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>2</v>
@@ -11555,7 +11629,7 @@
         <v>0.377164849262</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>2</v>
@@ -11564,7 +11638,7 @@
         <v>0.333449356074</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>6</v>
@@ -11573,7 +11647,7 @@
         <v>0.292492687683</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N51" s="1" t="n">
         <v>6</v>
@@ -11590,7 +11664,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>3</v>
@@ -11599,7 +11673,7 @@
         <v>0.361445783133</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>3</v>
@@ -11608,7 +11682,7 @@
         <v>0.358992060753</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J52" s="1" t="n">
         <v>7</v>
@@ -11617,7 +11691,7 @@
         <v>0.23265940902</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N52" s="1" t="n">
         <v>7</v>
@@ -11634,7 +11708,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>4</v>
@@ -11643,7 +11717,7 @@
         <v>0.867099541312</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>4</v>
@@ -11652,7 +11726,7 @@
         <v>0.857176791971</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J53" s="1" t="n">
         <v>0</v>
@@ -11661,7 +11735,7 @@
         <v>0.306393244873</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N53" s="1" t="n">
         <v>0</v>
@@ -11684,7 +11758,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>5</v>
@@ -11693,7 +11767,7 @@
         <v>0.3192550715</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>5</v>
@@ -11702,7 +11776,7 @@
         <v>0.307990690458</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>1</v>
@@ -11711,7 +11785,7 @@
         <v>0.171532846715</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N54" s="1" t="n">
         <v>1</v>
@@ -11726,7 +11800,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>6</v>
@@ -11735,7 +11809,7 @@
         <v>0.295857988166</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>6</v>
@@ -11744,7 +11818,7 @@
         <v>0.302325581395</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>2</v>
@@ -11753,7 +11827,7 @@
         <v>0.221264367816</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N55" s="1" t="n">
         <v>2</v>
@@ -11768,7 +11842,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>7</v>
@@ -11777,7 +11851,7 @@
         <v>0.345389377647</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>7</v>
@@ -11786,7 +11860,7 @@
         <v>0.318656716418</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>3</v>
@@ -11795,7 +11869,7 @@
         <v>0.301687065829</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N56" s="1" t="n">
         <v>3</v>
@@ -11810,7 +11884,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>12</v>
@@ -11819,7 +11893,7 @@
         <v>0.850067802606</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>12</v>
@@ -11828,7 +11902,7 @@
         <v>0.840415486308</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>5</v>
@@ -11837,7 +11911,7 @@
         <v>0.210690596957</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N57" s="1" t="n">
         <v>5</v>
@@ -11852,7 +11926,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>0</v>
@@ -11861,7 +11935,7 @@
         <v>0.250269687163</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>0</v>
@@ -11870,7 +11944,7 @@
         <v>0.229408792319</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J58" s="1" t="n">
         <v>6</v>
@@ -11879,7 +11953,7 @@
         <v>0.196775255018</v>
       </c>
       <c r="M58" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N58" s="1" t="n">
         <v>6</v>
@@ -11894,7 +11968,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>1</v>
@@ -11903,7 +11977,7 @@
         <v>0.324441240087</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>1</v>
@@ -11912,7 +11986,7 @@
         <v>0.267498885421</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J59" s="1" t="n">
         <v>7</v>
@@ -11921,7 +11995,7 @@
         <v>0.156965336821</v>
       </c>
       <c r="M59" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N59" s="1" t="n">
         <v>7</v>
@@ -11936,7 +12010,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2</v>
@@ -11945,7 +12019,7 @@
         <v>0.266412940057</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>2</v>
@@ -11956,7 +12030,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>3</v>
@@ -11965,7 +12039,7 @@
         <v>0.296150049358</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>3</v>
@@ -11976,7 +12050,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>4</v>
@@ -11985,7 +12059,7 @@
         <v>0.842689989363</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>4</v>
@@ -11996,7 +12070,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>5</v>
@@ -12005,7 +12079,7 @@
         <v>0.22844126261</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>5</v>
@@ -12016,7 +12090,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>6</v>
@@ -12025,7 +12099,7 @@
         <v>0.292492687683</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>6</v>
@@ -12036,7 +12110,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>7</v>
@@ -12045,7 +12119,7 @@
         <v>0.23265940902</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>7</v>
@@ -12056,7 +12130,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>12</v>
@@ -12065,7 +12139,7 @@
         <v>0.837181903864</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>12</v>
@@ -12076,7 +12150,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>0</v>
@@ -12085,7 +12159,7 @@
         <v>0.306393244873</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>0</v>
@@ -12096,7 +12170,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>1</v>
@@ -12105,7 +12179,7 @@
         <v>0.171532846715</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>1</v>
@@ -12116,7 +12190,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>2</v>
@@ -12125,7 +12199,7 @@
         <v>0.221264367816</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>2</v>
@@ -12136,7 +12210,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>3</v>
@@ -12145,7 +12219,7 @@
         <v>0.301687065829</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>3</v>
@@ -12156,7 +12230,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>4</v>
@@ -12165,7 +12239,7 @@
         <v>0.855546687949</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F71" s="1" t="n">
         <v>4</v>
@@ -12176,7 +12250,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>5</v>
@@ -12185,7 +12259,7 @@
         <v>0.210690596957</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F72" s="1" t="n">
         <v>5</v>
@@ -12196,7 +12270,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>6</v>
@@ -12205,7 +12279,7 @@
         <v>0.196775255018</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F73" s="1" t="n">
         <v>6</v>
@@ -12216,7 +12290,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>7</v>
@@ -12225,7 +12299,7 @@
         <v>0.156965336821</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>7</v>
@@ -12236,7 +12310,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>12</v>
@@ -12245,7 +12319,7 @@
         <v>0.827683615819</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>12</v>
@@ -12281,19 +12355,19 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.9285714285714"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="6.47959183673469"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -12662,7 +12736,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.88265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13206,7 +13280,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.88265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13990,6 +14064,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
@@ -14113,7 +14190,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19763,7 +19840,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20277,6 +20354,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="375">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -1599,7 +1600,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2041,11 +2042,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="7554458"/>
-        <c:axId val="65735680"/>
+        <c:axId val="76473441"/>
+        <c:axId val="86076574"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7554458"/>
+        <c:axId val="76473441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,14 +2082,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65735680"/>
+        <c:crossAx val="86076574"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65735680"/>
+        <c:axId val="86076574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7554458"/>
+        <c:crossAx val="76473441"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2171,7 +2172,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4699,11 +4700,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="86649881"/>
-        <c:axId val="42407028"/>
+        <c:axId val="58386841"/>
+        <c:axId val="20866231"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86649881"/>
+        <c:axId val="58386841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,14 +4740,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42407028"/>
+        <c:crossAx val="20866231"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42407028"/>
+        <c:axId val="20866231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4792,7 +4793,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86649881"/>
+        <c:crossAx val="58386841"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4829,7 +4830,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5065,11 +5066,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="34770021"/>
-        <c:axId val="63641640"/>
+        <c:axId val="64130482"/>
+        <c:axId val="58179785"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34770021"/>
+        <c:axId val="64130482"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5105,14 +5106,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63641640"/>
+        <c:crossAx val="58179785"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63641640"/>
+        <c:axId val="58179785"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,7 +5159,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34770021"/>
+        <c:crossAx val="64130482"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5206,9 +5207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5216,8 +5217,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2871720" y="359640"/>
-        <a:ext cx="5132160" cy="3218400"/>
+        <a:off x="2824200" y="359640"/>
+        <a:ext cx="5036400" cy="3218040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5236,9 +5237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5247,7 +5248,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36252000"/>
-        <a:ext cx="16351560" cy="4462200"/>
+        <a:ext cx="16065360" cy="4461840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5271,9 +5272,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
+      <xdr:colOff>79200</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5281,8 +5282,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2733480" y="6009480"/>
-        <a:ext cx="3861000" cy="3217680"/>
+        <a:off x="2685960" y="6009480"/>
+        <a:ext cx="3794040" cy="3217320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5312,7 +5313,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,7 +6633,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8393,12 +8394,12 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8415,7 +8416,12 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
       <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
       <c r="T1" s="0"/>
       <c r="U1" s="0"/>
     </row>
@@ -8435,7 +8441,12 @@
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
       <c r="T2" s="0"/>
       <c r="U2" s="0"/>
     </row>
@@ -8453,7 +8464,12 @@
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
     </row>
@@ -8473,7 +8489,12 @@
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
       <c r="T4" s="0"/>
       <c r="U4" s="0"/>
     </row>
@@ -8493,7 +8514,12 @@
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
       <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
       <c r="T5" s="0"/>
       <c r="U5" s="0"/>
     </row>
@@ -8527,7 +8553,12 @@
         <v>282</v>
       </c>
       <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
       <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
     </row>
@@ -8549,7 +8580,12 @@
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
       <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="0"/>
     </row>
@@ -8567,7 +8603,12 @@
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
       <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="0"/>
     </row>
@@ -8605,7 +8646,12 @@
       <c r="M9" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
       <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="0"/>
     </row>
@@ -8627,7 +8673,12 @@
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
       <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0"/>
     </row>
@@ -8645,7 +8696,12 @@
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
       <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0"/>
     </row>
@@ -8679,7 +8735,12 @@
       <c r="M12" s="28" t="s">
         <v>297</v>
       </c>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
       <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0"/>
     </row>
@@ -8697,7 +8758,12 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
       <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0"/>
     </row>
@@ -8731,7 +8797,12 @@
       <c r="M14" s="28" t="s">
         <v>303</v>
       </c>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
       <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0"/>
     </row>
@@ -8749,7 +8820,12 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
       <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="0"/>
     </row>
@@ -8783,7 +8859,12 @@
       <c r="M16" s="28" t="s">
         <v>309</v>
       </c>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
       <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0"/>
     </row>
@@ -8801,7 +8882,12 @@
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
       <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0"/>
     </row>
@@ -8835,7 +8921,12 @@
         <v>315</v>
       </c>
       <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
       <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="0"/>
     </row>
@@ -8853,7 +8944,12 @@
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
       <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0"/>
     </row>
@@ -8887,9 +8983,14 @@
       <c r="M20" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
       <c r="R20" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="S20" s="0"/>
       <c r="T20" s="1" t="s">
         <v>322</v>
       </c>
@@ -8913,9 +9014,16 @@
       <c r="K21" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="L21" s="0"/>
+      <c r="L21" s="0" t="s">
+        <v>290</v>
+      </c>
       <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
       <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
       <c r="T21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8931,12 +9039,19 @@
       <c r="H22" s="29"/>
       <c r="I22" s="28"/>
       <c r="J22" s="0"/>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L22" s="0"/>
+      <c r="L22" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
       <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
       <c r="T22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8953,7 +9068,12 @@
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
       <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
       <c r="T23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8976,9 +9096,14 @@
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
       <c r="R24" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="S24" s="0"/>
       <c r="T24" s="1" t="s">
         <v>330</v>
       </c>
@@ -8997,9 +9122,14 @@
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
       <c r="R25" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="S25" s="0"/>
       <c r="T25" s="1" t="s">
         <v>331</v>
       </c>
@@ -9034,9 +9164,14 @@
       <c r="M26" s="28" t="s">
         <v>335</v>
       </c>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
       <c r="R26" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="S26" s="0"/>
       <c r="T26" s="1" t="s">
         <v>336</v>
       </c>
@@ -9044,18 +9179,25 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
       <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
       <c r="R27" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="S27" s="0"/>
       <c r="T27" s="1" t="s">
         <v>22</v>
       </c>
@@ -9067,6 +9209,7 @@
       <c r="B28" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="C28" s="0"/>
       <c r="D28" s="0"/>
       <c r="E28" s="1" t="n">
         <v>10</v>
@@ -9074,6 +9217,7 @@
       <c r="F28" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="G28" s="0"/>
       <c r="H28" s="29" t="s">
         <v>339</v>
       </c>
@@ -9090,17 +9234,33 @@
       <c r="M28" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
       <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -9109,6 +9269,7 @@
       <c r="B30" s="0" t="s">
         <v>345</v>
       </c>
+      <c r="C30" s="0"/>
       <c r="D30" s="0"/>
       <c r="E30" s="0" t="n">
         <v>10</v>
@@ -9116,7 +9277,9 @@
       <c r="F30" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="G30" s="0"/>
       <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
       <c r="J30" s="0" t="s">
         <v>346</v>
       </c>
@@ -9126,17 +9289,34 @@
       <c r="L30" s="1" t="s">
         <v>342</v>
       </c>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
       <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -9145,6 +9325,7 @@
       <c r="B32" s="0" t="s">
         <v>349</v>
       </c>
+      <c r="C32" s="0"/>
       <c r="D32" s="0"/>
       <c r="E32" s="0" t="s">
         <v>350</v>
@@ -9152,7 +9333,9 @@
       <c r="F32" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G32" s="0"/>
       <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0" t="s">
         <v>351</v>
@@ -9160,17 +9343,34 @@
       <c r="L32" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
       <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
       <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -9179,6 +9379,7 @@
       <c r="B34" s="0" t="s">
         <v>354</v>
       </c>
+      <c r="C34" s="0"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0" t="s">
         <v>355</v>
@@ -9186,7 +9387,9 @@
       <c r="F34" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G34" s="0"/>
       <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0" t="s">
         <v>356</v>
@@ -9194,43 +9397,85 @@
       <c r="L34" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
       <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="27" t="s">
         <v>357</v>
       </c>
+      <c r="C36" s="0"/>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
       <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
       <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
       <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="31" t="s">
         <v>234</v>
       </c>
+      <c r="C38" s="0"/>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
       <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
       <c r="H38" s="0"/>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
@@ -9238,25 +9483,33 @@
       <c r="L38" s="31" t="s">
         <v>160</v>
       </c>
+      <c r="M38" s="0"/>
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
       <c r="P38" s="0"/>
       <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
       <c r="H39" s="0"/>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
       <c r="L39" s="0"/>
+      <c r="M39" s="0"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
       <c r="P39" s="0"/>
       <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="28" t="s">
@@ -9287,6 +9540,8 @@
       </c>
       <c r="P40" s="0"/>
       <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
+      <c r="S40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
@@ -9300,6 +9555,8 @@
       <c r="O41" s="0"/>
       <c r="P41" s="0"/>
       <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
@@ -9357,6 +9614,8 @@
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="O44" s="0"/>
       <c r="P44" s="0"/>
       <c r="Q44" s="0"/>
     </row>
@@ -9412,7 +9671,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12355,19 +12614,19 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.6581632653061"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -12736,7 +12995,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13280,7 +13539,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14065,7 +14324,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14190,7 +14449,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19840,7 +20099,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20355,7 +20614,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -40,6 +40,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDB_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDB_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="375">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -1125,9 +1126,6 @@
   </si>
   <si>
     <t xml:space="preserve">snt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home?</t>
   </si>
   <si>
     <t xml:space="preserve">← using val set</t>
@@ -1242,8 +1240,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1460,7 +1457,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1621,6 +1618,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1718,7 +1719,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2160,11 +2161,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83860775"/>
-        <c:axId val="64413468"/>
+        <c:axId val="98455811"/>
+        <c:axId val="83519058"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83860775"/>
+        <c:axId val="98455811"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,14 +2201,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64413468"/>
+        <c:crossAx val="83519058"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64413468"/>
+        <c:axId val="83519058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2254,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83860775"/>
+        <c:crossAx val="98455811"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2290,7 +2291,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4818,11 +4819,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="68628836"/>
-        <c:axId val="92068741"/>
+        <c:axId val="33780506"/>
+        <c:axId val="50365708"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68628836"/>
+        <c:axId val="33780506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4858,14 +4859,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92068741"/>
+        <c:crossAx val="50365708"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92068741"/>
+        <c:axId val="50365708"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,7 +4912,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68628836"/>
+        <c:crossAx val="33780506"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4948,7 +4949,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5184,11 +5185,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39937281"/>
-        <c:axId val="25947497"/>
+        <c:axId val="52794301"/>
+        <c:axId val="62632654"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39937281"/>
+        <c:axId val="52794301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5224,14 +5225,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25947497"/>
+        <c:crossAx val="62632654"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25947497"/>
+        <c:axId val="62632654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5277,7 +5278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39937281"/>
+        <c:crossAx val="52794301"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5325,9 +5326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5335,8 +5336,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2776320" y="359640"/>
-        <a:ext cx="4941000" cy="3217680"/>
+        <a:off x="2728800" y="359640"/>
+        <a:ext cx="4845240" cy="3217320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5355,9 +5356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5366,7 +5367,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36252000"/>
-        <a:ext cx="15779160" cy="4461480"/>
+        <a:ext cx="15492960" cy="4461120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5390,9 +5391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>78840</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5400,8 +5401,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2638440" y="6009480"/>
-        <a:ext cx="3726720" cy="3216960"/>
+        <a:off x="2590560" y="6009480"/>
+        <a:ext cx="3660120" cy="3216600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5430,9 +5431,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -6751,7 +6749,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8512,12 +8510,12 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,10 +8534,14 @@
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
       <c r="R1" s="0"/>
       <c r="S1" s="0"/>
       <c r="T1" s="0"/>
       <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
@@ -8559,10 +8561,14 @@
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
       <c r="S2" s="0"/>
       <c r="T2" s="0"/>
       <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
@@ -8580,10 +8586,14 @@
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
       <c r="S3" s="0"/>
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
@@ -8603,10 +8613,14 @@
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
       <c r="S4" s="0"/>
       <c r="T4" s="0"/>
       <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
@@ -9607,6 +9621,7 @@
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
@@ -9625,6 +9640,7 @@
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
       <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -9641,6 +9657,7 @@
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
       <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -9690,45 +9707,49 @@
       <c r="B40" s="39" t="s">
         <v>265</v>
       </c>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
       <c r="E40" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
       <c r="H40" s="1" t="s">
         <v>356</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J40" s="38" t="s">
+      <c r="J40" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="L40" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="L40" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="O40" s="40" t="n">
+      <c r="O40" s="41" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="0"/>
       <c r="S40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42" t="n">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="44"/>
       <c r="L41" s="0"/>
       <c r="O41" s="0"/>
       <c r="R41" s="0"/>
@@ -9743,6 +9764,7 @@
       <c r="G42" s="0"/>
       <c r="H42" s="0"/>
       <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
       <c r="L42" s="1" t="s">
         <v>265</v>
       </c>
@@ -9750,15 +9772,15 @@
         <v>8</v>
       </c>
       <c r="R42" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -9766,7 +9788,7 @@
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="44"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="35"/>
       <c r="L43" s="1" t="s">
         <v>266</v>
@@ -9777,6 +9799,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="39"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
       <c r="J44" s="38"/>
       <c r="L44" s="0"/>
       <c r="O44" s="0"/>
@@ -9785,11 +9814,15 @@
       <c r="B45" s="39" t="s">
         <v>265</v>
       </c>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
       <c r="E45" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
       <c r="H45" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>354</v>
@@ -9805,21 +9838,21 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42" t="n">
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="44"/>
       <c r="L46" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O46" s="1" t="n">
         <v>2</v>
@@ -9852,7 +9885,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9862,7 +9895,7 @@
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="E1" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -9872,7 +9905,7 @@
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
       <c r="M1" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
@@ -9881,7 +9914,7 @@
         <v>160</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9906,7 +9939,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>162</v>
@@ -9915,7 +9948,7 @@
         <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>162</v>
@@ -9924,7 +9957,7 @@
         <v>265</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>162</v>
@@ -9933,20 +9966,20 @@
         <v>265</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>162</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R3" s="0"/>
       <c r="T3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
-        <v>368</v>
+      <c r="A4" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0</v>
@@ -9954,8 +9987,8 @@
       <c r="C4" s="1" t="n">
         <v>0.71655193056</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>368</v>
+      <c r="E4" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
@@ -9963,8 +9996,8 @@
       <c r="G4" s="1" t="n">
         <v>0.713732499255</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>368</v>
+      <c r="I4" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0</v>
@@ -9972,8 +10005,8 @@
       <c r="K4" s="1" t="n">
         <v>0.71655193056</v>
       </c>
-      <c r="M4" s="45" t="s">
-        <v>368</v>
+      <c r="M4" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>0</v>
@@ -9995,8 +10028,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
-        <v>368</v>
+      <c r="A5" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
@@ -10004,8 +10037,8 @@
       <c r="C5" s="1" t="n">
         <v>0.71089762834</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>368</v>
+      <c r="E5" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
@@ -10013,8 +10046,8 @@
       <c r="G5" s="1" t="n">
         <v>0.724932654894</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>368</v>
+      <c r="I5" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>1</v>
@@ -10022,8 +10055,8 @@
       <c r="K5" s="1" t="n">
         <v>0.71089762834</v>
       </c>
-      <c r="M5" s="45" t="s">
-        <v>368</v>
+      <c r="M5" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>1</v>
@@ -10039,8 +10072,8 @@
       <c r="T5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
-        <v>368</v>
+      <c r="A6" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
@@ -10048,8 +10081,8 @@
       <c r="C6" s="1" t="n">
         <v>0.714972940469</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>368</v>
+      <c r="E6" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>2</v>
@@ -10057,8 +10090,8 @@
       <c r="G6" s="1" t="n">
         <v>0.726672667267</v>
       </c>
-      <c r="I6" s="45" t="s">
-        <v>368</v>
+      <c r="I6" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>2</v>
@@ -10066,8 +10099,8 @@
       <c r="K6" s="1" t="n">
         <v>0.714972940469</v>
       </c>
-      <c r="M6" s="45" t="s">
-        <v>368</v>
+      <c r="M6" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>2</v>
@@ -10083,8 +10116,8 @@
       <c r="T6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
-        <v>368</v>
+      <c r="A7" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
@@ -10092,8 +10125,8 @@
       <c r="C7" s="1" t="n">
         <v>0.713816771113</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>368</v>
+      <c r="E7" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>3</v>
@@ -10101,8 +10134,8 @@
       <c r="G7" s="1" t="n">
         <v>0.734510625561</v>
       </c>
-      <c r="I7" s="45" t="s">
-        <v>368</v>
+      <c r="I7" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>3</v>
@@ -10110,8 +10143,8 @@
       <c r="K7" s="1" t="n">
         <v>0.713816771113</v>
       </c>
-      <c r="M7" s="45" t="s">
-        <v>368</v>
+      <c r="M7" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>3</v>
@@ -10127,8 +10160,8 @@
       <c r="T7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
-        <v>368</v>
+      <c r="A8" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>4</v>
@@ -10136,8 +10169,8 @@
       <c r="C8" s="1" t="n">
         <v>0.927015891701</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>368</v>
+      <c r="E8" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>4</v>
@@ -10145,8 +10178,8 @@
       <c r="G8" s="1" t="n">
         <v>0.928941786472</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>368</v>
+      <c r="I8" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>5</v>
@@ -10154,8 +10187,8 @@
       <c r="K8" s="1" t="n">
         <v>0.723072307231</v>
       </c>
-      <c r="M8" s="45" t="s">
-        <v>368</v>
+      <c r="M8" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>5</v>
@@ -10171,8 +10204,8 @@
       <c r="T8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
-        <v>368</v>
+      <c r="A9" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>5</v>
@@ -10180,8 +10213,8 @@
       <c r="C9" s="1" t="n">
         <v>0.723072307231</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>368</v>
+      <c r="E9" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>5</v>
@@ -10189,8 +10222,8 @@
       <c r="G9" s="1" t="n">
         <v>0.710353081987</v>
       </c>
-      <c r="I9" s="45" t="s">
-        <v>368</v>
+      <c r="I9" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>6</v>
@@ -10198,8 +10231,8 @@
       <c r="K9" s="1" t="n">
         <v>0.716034637205</v>
       </c>
-      <c r="M9" s="45" t="s">
-        <v>368</v>
+      <c r="M9" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>6</v>
@@ -10215,8 +10248,8 @@
       <c r="T9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
-        <v>368</v>
+      <c r="A10" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>6</v>
@@ -10224,8 +10257,8 @@
       <c r="C10" s="1" t="n">
         <v>0.716034637205</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>368</v>
+      <c r="E10" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>6</v>
@@ -10233,8 +10266,8 @@
       <c r="G10" s="1" t="n">
         <v>0.722884386174</v>
       </c>
-      <c r="I10" s="45" t="s">
-        <v>368</v>
+      <c r="I10" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>7</v>
@@ -10242,8 +10275,8 @@
       <c r="K10" s="1" t="n">
         <v>0.707360861759</v>
       </c>
-      <c r="M10" s="45" t="s">
-        <v>368</v>
+      <c r="M10" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>7</v>
@@ -10259,8 +10292,8 @@
       <c r="T10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
-        <v>368</v>
+      <c r="A11" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>7</v>
@@ -10268,8 +10301,8 @@
       <c r="C11" s="1" t="n">
         <v>0.707360861759</v>
       </c>
-      <c r="E11" s="45" t="s">
-        <v>368</v>
+      <c r="E11" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>7</v>
@@ -10277,8 +10310,8 @@
       <c r="G11" s="1" t="n">
         <v>0.722404046415</v>
       </c>
-      <c r="I11" s="45" t="s">
-        <v>369</v>
+      <c r="I11" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>0</v>
@@ -10286,8 +10319,8 @@
       <c r="K11" s="1" t="n">
         <v>0.687386843693</v>
       </c>
-      <c r="M11" s="45" t="s">
-        <v>369</v>
+      <c r="M11" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>0</v>
@@ -10309,8 +10342,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="s">
-        <v>368</v>
+      <c r="A12" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>12</v>
@@ -10318,8 +10351,8 @@
       <c r="C12" s="1" t="n">
         <v>0.926826396656</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>368</v>
+      <c r="E12" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>12</v>
@@ -10327,8 +10360,8 @@
       <c r="G12" s="1" t="n">
         <v>0.928053738731</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>369</v>
+      <c r="I12" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>1</v>
@@ -10336,8 +10369,8 @@
       <c r="K12" s="1" t="n">
         <v>0.67438318611</v>
       </c>
-      <c r="M12" s="45" t="s">
-        <v>369</v>
+      <c r="M12" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>1</v>
@@ -10353,8 +10386,8 @@
       <c r="T12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45" t="s">
-        <v>369</v>
+      <c r="A13" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
@@ -10362,8 +10395,8 @@
       <c r="C13" s="1" t="n">
         <v>0.687386843693</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>369</v>
+      <c r="E13" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0</v>
@@ -10371,8 +10404,8 @@
       <c r="G13" s="1" t="n">
         <v>0.684848484848</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>369</v>
+      <c r="I13" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>2</v>
@@ -10380,8 +10413,8 @@
       <c r="K13" s="1" t="n">
         <v>0.696642685851</v>
       </c>
-      <c r="M13" s="45" t="s">
-        <v>369</v>
+      <c r="M13" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>2</v>
@@ -10397,8 +10430,8 @@
       <c r="T13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="45" t="s">
-        <v>369</v>
+      <c r="A14" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
@@ -10406,8 +10439,8 @@
       <c r="C14" s="1" t="n">
         <v>0.67438318611</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>369</v>
+      <c r="E14" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>1</v>
@@ -10415,8 +10448,8 @@
       <c r="G14" s="1" t="n">
         <v>0.669525267994</v>
       </c>
-      <c r="I14" s="45" t="s">
-        <v>369</v>
+      <c r="I14" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>3</v>
@@ -10424,8 +10457,8 @@
       <c r="K14" s="1" t="n">
         <v>0.68109407875</v>
       </c>
-      <c r="M14" s="45" t="s">
-        <v>369</v>
+      <c r="M14" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>3</v>
@@ -10441,8 +10474,8 @@
       <c r="T14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="45" t="s">
-        <v>369</v>
+      <c r="A15" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
@@ -10450,8 +10483,8 @@
       <c r="C15" s="1" t="n">
         <v>0.696642685851</v>
       </c>
-      <c r="E15" s="45" t="s">
-        <v>369</v>
+      <c r="E15" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>2</v>
@@ -10459,8 +10492,8 @@
       <c r="G15" s="1" t="n">
         <v>0.6741301059</v>
       </c>
-      <c r="I15" s="45" t="s">
-        <v>369</v>
+      <c r="I15" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>5</v>
@@ -10468,8 +10501,8 @@
       <c r="K15" s="1" t="n">
         <v>0.667072428484</v>
       </c>
-      <c r="M15" s="45" t="s">
-        <v>369</v>
+      <c r="M15" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>5</v>
@@ -10485,8 +10518,8 @@
       <c r="T15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="45" t="s">
-        <v>369</v>
+      <c r="A16" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
@@ -10494,8 +10527,8 @@
       <c r="C16" s="1" t="n">
         <v>0.68109407875</v>
       </c>
-      <c r="E16" s="45" t="s">
-        <v>369</v>
+      <c r="E16" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>3</v>
@@ -10503,8 +10536,8 @@
       <c r="G16" s="1" t="n">
         <v>0.702018680325</v>
       </c>
-      <c r="I16" s="45" t="s">
-        <v>369</v>
+      <c r="I16" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>6</v>
@@ -10512,8 +10545,8 @@
       <c r="K16" s="1" t="n">
         <v>0.683000604961</v>
       </c>
-      <c r="M16" s="45" t="s">
-        <v>369</v>
+      <c r="M16" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>6</v>
@@ -10529,8 +10562,8 @@
       <c r="T16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="45" t="s">
-        <v>369</v>
+      <c r="A17" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>4</v>
@@ -10538,8 +10571,8 @@
       <c r="C17" s="1" t="n">
         <v>0.920919269299</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>369</v>
+      <c r="E17" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>4</v>
@@ -10547,8 +10580,8 @@
       <c r="G17" s="1" t="n">
         <v>0.923240434577</v>
       </c>
-      <c r="I17" s="45" t="s">
-        <v>369</v>
+      <c r="I17" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>7</v>
@@ -10556,8 +10589,8 @@
       <c r="K17" s="1" t="n">
         <v>0.649058894961</v>
       </c>
-      <c r="M17" s="45" t="s">
-        <v>369</v>
+      <c r="M17" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>7</v>
@@ -10573,8 +10606,8 @@
       <c r="T17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="45" t="s">
-        <v>369</v>
+      <c r="A18" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>5</v>
@@ -10582,8 +10615,8 @@
       <c r="C18" s="1" t="n">
         <v>0.667072428484</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>369</v>
+      <c r="E18" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>5</v>
@@ -10591,8 +10624,8 @@
       <c r="G18" s="1" t="n">
         <v>0.681359044995</v>
       </c>
-      <c r="I18" s="45" t="s">
-        <v>370</v>
+      <c r="I18" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>0</v>
@@ -10600,8 +10633,8 @@
       <c r="K18" s="1" t="n">
         <v>0.637457574823</v>
       </c>
-      <c r="M18" s="45" t="s">
-        <v>370</v>
+      <c r="M18" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>0</v>
@@ -10623,8 +10656,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="45" t="s">
-        <v>369</v>
+      <c r="A19" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>6</v>
@@ -10632,8 +10665,8 @@
       <c r="C19" s="1" t="n">
         <v>0.683000604961</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>369</v>
+      <c r="E19" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>6</v>
@@ -10641,8 +10674,8 @@
       <c r="G19" s="1" t="n">
         <v>0.692307692308</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>370</v>
+      <c r="I19" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>1</v>
@@ -10650,8 +10683,8 @@
       <c r="K19" s="1" t="n">
         <v>0.620174346202</v>
       </c>
-      <c r="M19" s="45" t="s">
-        <v>370</v>
+      <c r="M19" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>1</v>
@@ -10667,8 +10700,8 @@
       <c r="T19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="45" t="s">
-        <v>369</v>
+      <c r="A20" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>7</v>
@@ -10676,8 +10709,8 @@
       <c r="C20" s="1" t="n">
         <v>0.649058894961</v>
       </c>
-      <c r="E20" s="45" t="s">
-        <v>369</v>
+      <c r="E20" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>7</v>
@@ -10685,8 +10718,8 @@
       <c r="G20" s="1" t="n">
         <v>0.655677655678</v>
       </c>
-      <c r="I20" s="45" t="s">
-        <v>370</v>
+      <c r="I20" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>2</v>
@@ -10694,8 +10727,8 @@
       <c r="K20" s="1" t="n">
         <v>0.618844984802</v>
       </c>
-      <c r="M20" s="45" t="s">
-        <v>370</v>
+      <c r="M20" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>2</v>
@@ -10711,8 +10744,8 @@
       <c r="T20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="45" t="s">
-        <v>369</v>
+      <c r="A21" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -10720,8 +10753,8 @@
       <c r="C21" s="1" t="n">
         <v>0.921888816837</v>
       </c>
-      <c r="E21" s="45" t="s">
-        <v>369</v>
+      <c r="E21" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>12</v>
@@ -10729,8 +10762,8 @@
       <c r="G21" s="1" t="n">
         <v>0.919853635505</v>
       </c>
-      <c r="I21" s="45" t="s">
-        <v>370</v>
+      <c r="I21" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>3</v>
@@ -10738,8 +10771,8 @@
       <c r="K21" s="1" t="n">
         <v>0.660741648789</v>
       </c>
-      <c r="M21" s="45" t="s">
-        <v>370</v>
+      <c r="M21" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>3</v>
@@ -10755,8 +10788,8 @@
       <c r="T21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="45" t="s">
-        <v>370</v>
+      <c r="A22" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0</v>
@@ -10764,8 +10797,8 @@
       <c r="C22" s="1" t="n">
         <v>0.637457574823</v>
       </c>
-      <c r="E22" s="45" t="s">
-        <v>370</v>
+      <c r="E22" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
@@ -10773,8 +10806,8 @@
       <c r="G22" s="1" t="n">
         <v>0.630734680783</v>
       </c>
-      <c r="I22" s="45" t="s">
-        <v>370</v>
+      <c r="I22" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>5</v>
@@ -10782,8 +10815,8 @@
       <c r="K22" s="1" t="n">
         <v>0.591229684146</v>
       </c>
-      <c r="M22" s="45" t="s">
-        <v>370</v>
+      <c r="M22" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>5</v>
@@ -10799,8 +10832,8 @@
       <c r="T22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="45" t="s">
-        <v>370</v>
+      <c r="A23" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1</v>
@@ -10808,8 +10841,8 @@
       <c r="C23" s="1" t="n">
         <v>0.620174346202</v>
       </c>
-      <c r="E23" s="45" t="s">
-        <v>370</v>
+      <c r="E23" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>1</v>
@@ -10817,8 +10850,8 @@
       <c r="G23" s="1" t="n">
         <v>0.620092735703</v>
       </c>
-      <c r="I23" s="45" t="s">
-        <v>370</v>
+      <c r="I23" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>6</v>
@@ -10826,8 +10859,8 @@
       <c r="K23" s="1" t="n">
         <v>0.620440156768</v>
       </c>
-      <c r="M23" s="45" t="s">
-        <v>370</v>
+      <c r="M23" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>6</v>
@@ -10843,8 +10876,8 @@
       <c r="T23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="45" t="s">
-        <v>370</v>
+      <c r="A24" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2</v>
@@ -10852,8 +10885,8 @@
       <c r="C24" s="1" t="n">
         <v>0.618844984802</v>
       </c>
-      <c r="E24" s="45" t="s">
-        <v>370</v>
+      <c r="E24" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>2</v>
@@ -10861,8 +10894,8 @@
       <c r="G24" s="1" t="n">
         <v>0.604881062712</v>
       </c>
-      <c r="I24" s="45" t="s">
-        <v>370</v>
+      <c r="I24" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>7</v>
@@ -10870,8 +10903,8 @@
       <c r="K24" s="1" t="n">
         <v>0.59680393362</v>
       </c>
-      <c r="M24" s="45" t="s">
-        <v>370</v>
+      <c r="M24" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>7</v>
@@ -10887,8 +10920,8 @@
       <c r="T24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="45" t="s">
-        <v>370</v>
+      <c r="A25" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>3</v>
@@ -10896,8 +10929,8 @@
       <c r="C25" s="1" t="n">
         <v>0.660741648789</v>
       </c>
-      <c r="E25" s="45" t="s">
-        <v>370</v>
+      <c r="E25" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>3</v>
@@ -10905,8 +10938,8 @@
       <c r="G25" s="1" t="n">
         <v>0.646946564885</v>
       </c>
-      <c r="I25" s="45" t="s">
-        <v>371</v>
+      <c r="I25" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>0</v>
@@ -10914,8 +10947,8 @@
       <c r="K25" s="1" t="n">
         <v>0.592405063291</v>
       </c>
-      <c r="M25" s="45" t="s">
-        <v>371</v>
+      <c r="M25" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>0</v>
@@ -10937,8 +10970,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="45" t="s">
-        <v>370</v>
+      <c r="A26" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>4</v>
@@ -10946,8 +10979,8 @@
       <c r="C26" s="1" t="n">
         <v>0.909959313639</v>
       </c>
-      <c r="E26" s="45" t="s">
-        <v>370</v>
+      <c r="E26" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>4</v>
@@ -10955,8 +10988,8 @@
       <c r="G26" s="1" t="n">
         <v>0.908092792633</v>
       </c>
-      <c r="I26" s="45" t="s">
-        <v>371</v>
+      <c r="I26" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>1</v>
@@ -10964,8 +10997,8 @@
       <c r="K26" s="1" t="n">
         <v>0.53618628068</v>
       </c>
-      <c r="M26" s="45" t="s">
-        <v>371</v>
+      <c r="M26" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>1</v>
@@ -10981,8 +11014,8 @@
       <c r="T26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="45" t="s">
-        <v>370</v>
+      <c r="A27" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>5</v>
@@ -10990,8 +11023,8 @@
       <c r="C27" s="1" t="n">
         <v>0.591229684146</v>
       </c>
-      <c r="E27" s="45" t="s">
-        <v>370</v>
+      <c r="E27" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>5</v>
@@ -10999,8 +11032,8 @@
       <c r="G27" s="1" t="n">
         <v>0.596347607053</v>
       </c>
-      <c r="I27" s="45" t="s">
-        <v>371</v>
+      <c r="I27" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>2</v>
@@ -11008,8 +11041,8 @@
       <c r="K27" s="1" t="n">
         <v>0.550815558344</v>
       </c>
-      <c r="M27" s="45" t="s">
-        <v>371</v>
+      <c r="M27" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>2</v>
@@ -11025,8 +11058,8 @@
       <c r="T27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="45" t="s">
-        <v>370</v>
+      <c r="A28" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>6</v>
@@ -11034,8 +11067,8 @@
       <c r="C28" s="1" t="n">
         <v>0.620440156768</v>
       </c>
-      <c r="E28" s="45" t="s">
-        <v>370</v>
+      <c r="E28" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>6</v>
@@ -11043,8 +11076,8 @@
       <c r="G28" s="1" t="n">
         <v>0.627998785302</v>
       </c>
-      <c r="I28" s="45" t="s">
-        <v>371</v>
+      <c r="I28" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>3</v>
@@ -11052,8 +11085,8 @@
       <c r="K28" s="1" t="n">
         <v>0.583968302347</v>
       </c>
-      <c r="M28" s="45" t="s">
-        <v>371</v>
+      <c r="M28" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>3</v>
@@ -11069,8 +11102,8 @@
       <c r="T28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="45" t="s">
-        <v>370</v>
+      <c r="A29" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>7</v>
@@ -11078,8 +11111,8 @@
       <c r="C29" s="1" t="n">
         <v>0.59680393362</v>
       </c>
-      <c r="E29" s="45" t="s">
-        <v>370</v>
+      <c r="E29" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>7</v>
@@ -11087,8 +11120,8 @@
       <c r="G29" s="1" t="n">
         <v>0.598956735195</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>371</v>
+      <c r="I29" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>5</v>
@@ -11096,8 +11129,8 @@
       <c r="K29" s="1" t="n">
         <v>0.531849103278</v>
       </c>
-      <c r="M29" s="45" t="s">
-        <v>371</v>
+      <c r="M29" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>5</v>
@@ -11113,8 +11146,8 @@
       <c r="T29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="45" t="s">
-        <v>370</v>
+      <c r="A30" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>12</v>
@@ -11122,8 +11155,8 @@
       <c r="C30" s="1" t="n">
         <v>0.904283009938</v>
       </c>
-      <c r="E30" s="45" t="s">
-        <v>370</v>
+      <c r="E30" s="46" t="s">
+        <v>369</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>12</v>
@@ -11131,8 +11164,8 @@
       <c r="G30" s="1" t="n">
         <v>0.904539267326</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>371</v>
+      <c r="I30" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>6</v>
@@ -11140,8 +11173,8 @@
       <c r="K30" s="1" t="n">
         <v>0.461977186312</v>
       </c>
-      <c r="M30" s="45" t="s">
-        <v>371</v>
+      <c r="M30" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>6</v>
@@ -11157,8 +11190,8 @@
       <c r="T30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="45" t="s">
-        <v>371</v>
+      <c r="A31" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>0</v>
@@ -11166,8 +11199,8 @@
       <c r="C31" s="1" t="n">
         <v>0.592405063291</v>
       </c>
-      <c r="E31" s="45" t="s">
-        <v>371</v>
+      <c r="E31" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>0</v>
@@ -11175,8 +11208,8 @@
       <c r="G31" s="1" t="n">
         <v>0.591849935317</v>
       </c>
-      <c r="I31" s="45" t="s">
-        <v>371</v>
+      <c r="I31" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>7</v>
@@ -11184,8 +11217,8 @@
       <c r="K31" s="1" t="n">
         <v>0.564749307905</v>
       </c>
-      <c r="M31" s="45" t="s">
-        <v>371</v>
+      <c r="M31" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="N31" s="1" t="n">
         <v>7</v>
@@ -11201,8 +11234,8 @@
       <c r="T31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="45" t="s">
-        <v>371</v>
+      <c r="A32" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -11210,8 +11243,8 @@
       <c r="C32" s="1" t="n">
         <v>0.53618628068</v>
       </c>
-      <c r="E32" s="45" t="s">
-        <v>371</v>
+      <c r="E32" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>1</v>
@@ -11219,8 +11252,8 @@
       <c r="G32" s="1" t="n">
         <v>0.555413196669</v>
       </c>
-      <c r="I32" s="45" t="s">
-        <v>372</v>
+      <c r="I32" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>0</v>
@@ -11228,8 +11261,8 @@
       <c r="K32" s="1" t="n">
         <v>0.472800537273</v>
       </c>
-      <c r="M32" s="45" t="s">
-        <v>372</v>
+      <c r="M32" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>0</v>
@@ -11251,8 +11284,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="45" t="s">
-        <v>371</v>
+      <c r="A33" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>2</v>
@@ -11260,8 +11293,8 @@
       <c r="C33" s="1" t="n">
         <v>0.550815558344</v>
       </c>
-      <c r="E33" s="45" t="s">
-        <v>371</v>
+      <c r="E33" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>2</v>
@@ -11269,8 +11302,8 @@
       <c r="G33" s="1" t="n">
         <v>0.575385583884</v>
       </c>
-      <c r="I33" s="45" t="s">
-        <v>372</v>
+      <c r="I33" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>1</v>
@@ -11278,8 +11311,8 @@
       <c r="K33" s="1" t="n">
         <v>0.434473854099</v>
       </c>
-      <c r="M33" s="45" t="s">
-        <v>372</v>
+      <c r="M33" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>1</v>
@@ -11295,8 +11328,8 @@
       <c r="T33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="45" t="s">
-        <v>371</v>
+      <c r="A34" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>3</v>
@@ -11304,8 +11337,8 @@
       <c r="C34" s="1" t="n">
         <v>0.583968302347</v>
       </c>
-      <c r="E34" s="45" t="s">
-        <v>371</v>
+      <c r="E34" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>3</v>
@@ -11313,8 +11346,8 @@
       <c r="G34" s="1" t="n">
         <v>0.57501569366</v>
       </c>
-      <c r="I34" s="45" t="s">
-        <v>372</v>
+      <c r="I34" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>2</v>
@@ -11322,8 +11355,8 @@
       <c r="K34" s="1" t="n">
         <v>0.510901399284</v>
       </c>
-      <c r="M34" s="45" t="s">
-        <v>372</v>
+      <c r="M34" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="N34" s="1" t="n">
         <v>2</v>
@@ -11339,8 +11372,8 @@
       <c r="T34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="45" t="s">
-        <v>371</v>
+      <c r="A35" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>4</v>
@@ -11348,8 +11381,8 @@
       <c r="C35" s="1" t="n">
         <v>0.890085824208</v>
       </c>
-      <c r="E35" s="45" t="s">
-        <v>371</v>
+      <c r="E35" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>4</v>
@@ -11357,8 +11390,8 @@
       <c r="G35" s="1" t="n">
         <v>0.894602458286</v>
       </c>
-      <c r="I35" s="45" t="s">
-        <v>372</v>
+      <c r="I35" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>3</v>
@@ -11366,8 +11399,8 @@
       <c r="K35" s="1" t="n">
         <v>0.474908200734</v>
       </c>
-      <c r="M35" s="45" t="s">
-        <v>372</v>
+      <c r="M35" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="N35" s="1" t="n">
         <v>3</v>
@@ -11383,8 +11416,8 @@
       <c r="T35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="45" t="s">
-        <v>371</v>
+      <c r="A36" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>5</v>
@@ -11392,8 +11425,8 @@
       <c r="C36" s="1" t="n">
         <v>0.531849103278</v>
       </c>
-      <c r="E36" s="45" t="s">
-        <v>371</v>
+      <c r="E36" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>5</v>
@@ -11401,8 +11434,8 @@
       <c r="G36" s="1" t="n">
         <v>0.55317769131</v>
       </c>
-      <c r="I36" s="45" t="s">
-        <v>372</v>
+      <c r="I36" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>5</v>
@@ -11410,8 +11443,8 @@
       <c r="K36" s="1" t="n">
         <v>0.486912645853</v>
       </c>
-      <c r="M36" s="45" t="s">
-        <v>372</v>
+      <c r="M36" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="N36" s="1" t="n">
         <v>5</v>
@@ -11427,8 +11460,8 @@
       <c r="T36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="45" t="s">
-        <v>371</v>
+      <c r="A37" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>6</v>
@@ -11436,8 +11469,8 @@
       <c r="C37" s="1" t="n">
         <v>0.461977186312</v>
       </c>
-      <c r="E37" s="45" t="s">
-        <v>371</v>
+      <c r="E37" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>6</v>
@@ -11445,8 +11478,8 @@
       <c r="G37" s="1" t="n">
         <v>0.507824976046</v>
       </c>
-      <c r="I37" s="45" t="s">
-        <v>372</v>
+      <c r="I37" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>6</v>
@@ -11454,8 +11487,8 @@
       <c r="K37" s="1" t="n">
         <v>0.368553459119</v>
       </c>
-      <c r="M37" s="45" t="s">
-        <v>372</v>
+      <c r="M37" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="N37" s="1" t="n">
         <v>6</v>
@@ -11471,8 +11504,8 @@
       <c r="T37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="45" t="s">
-        <v>371</v>
+      <c r="A38" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>7</v>
@@ -11480,8 +11513,8 @@
       <c r="C38" s="1" t="n">
         <v>0.564749307905</v>
       </c>
-      <c r="E38" s="45" t="s">
-        <v>371</v>
+      <c r="E38" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>7</v>
@@ -11489,8 +11522,8 @@
       <c r="G38" s="1" t="n">
         <v>0.551767676768</v>
       </c>
-      <c r="I38" s="45" t="s">
-        <v>372</v>
+      <c r="I38" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="J38" s="1" t="n">
         <v>7</v>
@@ -11498,8 +11531,8 @@
       <c r="K38" s="1" t="n">
         <v>0.476656872347</v>
       </c>
-      <c r="M38" s="45" t="s">
-        <v>372</v>
+      <c r="M38" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="N38" s="1" t="n">
         <v>7</v>
@@ -11515,8 +11548,8 @@
       <c r="T38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="45" t="s">
-        <v>371</v>
+      <c r="A39" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>12</v>
@@ -11524,8 +11557,8 @@
       <c r="C39" s="1" t="n">
         <v>0.895278665247</v>
       </c>
-      <c r="E39" s="45" t="s">
-        <v>371</v>
+      <c r="E39" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>12</v>
@@ -11533,8 +11566,8 @@
       <c r="G39" s="1" t="n">
         <v>0.894328216678</v>
       </c>
-      <c r="I39" s="45" t="s">
-        <v>373</v>
+      <c r="I39" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="J39" s="1" t="n">
         <v>0</v>
@@ -11542,8 +11575,8 @@
       <c r="K39" s="1" t="n">
         <v>0.260103312063</v>
       </c>
-      <c r="M39" s="45" t="s">
-        <v>373</v>
+      <c r="M39" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="N39" s="1" t="n">
         <v>0</v>
@@ -11565,8 +11598,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="45" t="s">
-        <v>372</v>
+      <c r="A40" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>0</v>
@@ -11574,8 +11607,8 @@
       <c r="C40" s="1" t="n">
         <v>0.472800537273</v>
       </c>
-      <c r="E40" s="45" t="s">
-        <v>372</v>
+      <c r="E40" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>0</v>
@@ -11583,8 +11616,8 @@
       <c r="G40" s="1" t="n">
         <v>0.491110365649</v>
       </c>
-      <c r="I40" s="45" t="s">
-        <v>373</v>
+      <c r="I40" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>1</v>
@@ -11592,8 +11625,8 @@
       <c r="K40" s="1" t="n">
         <v>0.420795533845</v>
       </c>
-      <c r="M40" s="45" t="s">
-        <v>373</v>
+      <c r="M40" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="N40" s="1" t="n">
         <v>1</v>
@@ -11609,8 +11642,8 @@
       <c r="T40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="45" t="s">
-        <v>372</v>
+      <c r="A41" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
@@ -11618,8 +11651,8 @@
       <c r="C41" s="1" t="n">
         <v>0.434473854099</v>
       </c>
-      <c r="E41" s="45" t="s">
-        <v>372</v>
+      <c r="E41" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>1</v>
@@ -11627,8 +11660,8 @@
       <c r="G41" s="1" t="n">
         <v>0.518118245391</v>
       </c>
-      <c r="I41" s="45" t="s">
-        <v>373</v>
+      <c r="I41" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>2</v>
@@ -11636,8 +11669,8 @@
       <c r="K41" s="1" t="n">
         <v>0.377164849262</v>
       </c>
-      <c r="M41" s="45" t="s">
-        <v>373</v>
+      <c r="M41" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="N41" s="1" t="n">
         <v>2</v>
@@ -11653,8 +11686,8 @@
       <c r="T41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="45" t="s">
-        <v>372</v>
+      <c r="A42" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2</v>
@@ -11662,8 +11695,8 @@
       <c r="C42" s="1" t="n">
         <v>0.510901399284</v>
       </c>
-      <c r="E42" s="45" t="s">
-        <v>372</v>
+      <c r="E42" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>2</v>
@@ -11671,8 +11704,8 @@
       <c r="G42" s="1" t="n">
         <v>0.568085797855</v>
       </c>
-      <c r="I42" s="45" t="s">
-        <v>373</v>
+      <c r="I42" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>3</v>
@@ -11680,8 +11713,8 @@
       <c r="K42" s="1" t="n">
         <v>0.361445783133</v>
       </c>
-      <c r="M42" s="45" t="s">
-        <v>373</v>
+      <c r="M42" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="N42" s="1" t="n">
         <v>3</v>
@@ -11697,8 +11730,8 @@
       <c r="T42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="45" t="s">
-        <v>372</v>
+      <c r="A43" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>3</v>
@@ -11706,8 +11739,8 @@
       <c r="C43" s="1" t="n">
         <v>0.474908200734</v>
       </c>
-      <c r="E43" s="45" t="s">
-        <v>372</v>
+      <c r="E43" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>3</v>
@@ -11715,8 +11748,8 @@
       <c r="G43" s="1" t="n">
         <v>0.467459762071</v>
       </c>
-      <c r="I43" s="45" t="s">
-        <v>373</v>
+      <c r="I43" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="J43" s="1" t="n">
         <v>5</v>
@@ -11724,8 +11757,8 @@
       <c r="K43" s="1" t="n">
         <v>0.3192550715</v>
       </c>
-      <c r="M43" s="45" t="s">
-        <v>373</v>
+      <c r="M43" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="N43" s="1" t="n">
         <v>5</v>
@@ -11741,8 +11774,8 @@
       <c r="T43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="45" t="s">
-        <v>372</v>
+      <c r="A44" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>4</v>
@@ -11750,8 +11783,8 @@
       <c r="C44" s="1" t="n">
         <v>0.884699745095</v>
       </c>
-      <c r="E44" s="45" t="s">
-        <v>372</v>
+      <c r="E44" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>4</v>
@@ -11759,8 +11792,8 @@
       <c r="G44" s="1" t="n">
         <v>0.88298567778</v>
       </c>
-      <c r="I44" s="45" t="s">
-        <v>373</v>
+      <c r="I44" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="J44" s="1" t="n">
         <v>6</v>
@@ -11768,8 +11801,8 @@
       <c r="K44" s="1" t="n">
         <v>0.295857988166</v>
       </c>
-      <c r="M44" s="45" t="s">
-        <v>373</v>
+      <c r="M44" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="N44" s="1" t="n">
         <v>6</v>
@@ -11785,8 +11818,8 @@
       <c r="T44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="45" t="s">
-        <v>372</v>
+      <c r="A45" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>5</v>
@@ -11794,8 +11827,8 @@
       <c r="C45" s="1" t="n">
         <v>0.486912645853</v>
       </c>
-      <c r="E45" s="45" t="s">
-        <v>372</v>
+      <c r="E45" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>5</v>
@@ -11803,8 +11836,8 @@
       <c r="G45" s="1" t="n">
         <v>0.473755047106</v>
       </c>
-      <c r="I45" s="45" t="s">
-        <v>373</v>
+      <c r="I45" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>7</v>
@@ -11812,8 +11845,8 @@
       <c r="K45" s="1" t="n">
         <v>0.345389377647</v>
       </c>
-      <c r="M45" s="45" t="s">
-        <v>373</v>
+      <c r="M45" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="N45" s="1" t="n">
         <v>7</v>
@@ -11829,8 +11862,8 @@
       <c r="T45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="45" t="s">
-        <v>372</v>
+      <c r="A46" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>6</v>
@@ -11838,8 +11871,8 @@
       <c r="C46" s="1" t="n">
         <v>0.368553459119</v>
       </c>
-      <c r="E46" s="45" t="s">
-        <v>372</v>
+      <c r="E46" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>6</v>
@@ -11847,8 +11880,8 @@
       <c r="G46" s="1" t="n">
         <v>0.465788628333</v>
       </c>
-      <c r="I46" s="45" t="s">
-        <v>374</v>
+      <c r="I46" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>0</v>
@@ -11856,8 +11889,8 @@
       <c r="K46" s="1" t="n">
         <v>0.250269687163</v>
       </c>
-      <c r="M46" s="45" t="s">
-        <v>374</v>
+      <c r="M46" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="N46" s="1" t="n">
         <v>0</v>
@@ -11879,8 +11912,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="45" t="s">
-        <v>372</v>
+      <c r="A47" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>7</v>
@@ -11888,8 +11921,8 @@
       <c r="C47" s="1" t="n">
         <v>0.476656872347</v>
       </c>
-      <c r="E47" s="45" t="s">
-        <v>372</v>
+      <c r="E47" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>7</v>
@@ -11897,8 +11930,8 @@
       <c r="G47" s="1" t="n">
         <v>0.452945159106</v>
       </c>
-      <c r="I47" s="45" t="s">
-        <v>374</v>
+      <c r="I47" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="J47" s="1" t="n">
         <v>1</v>
@@ -11906,8 +11939,8 @@
       <c r="K47" s="1" t="n">
         <v>0.324441240087</v>
       </c>
-      <c r="M47" s="45" t="s">
-        <v>374</v>
+      <c r="M47" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="N47" s="1" t="n">
         <v>1</v>
@@ -11923,8 +11956,8 @@
       <c r="T47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="45" t="s">
-        <v>372</v>
+      <c r="A48" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>12</v>
@@ -11932,8 +11965,8 @@
       <c r="C48" s="1" t="n">
         <v>0.878253172027</v>
       </c>
-      <c r="E48" s="45" t="s">
-        <v>372</v>
+      <c r="E48" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>12</v>
@@ -11941,8 +11974,8 @@
       <c r="G48" s="1" t="n">
         <v>0.86400661079</v>
       </c>
-      <c r="I48" s="45" t="s">
-        <v>374</v>
+      <c r="I48" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>2</v>
@@ -11950,8 +11983,8 @@
       <c r="K48" s="1" t="n">
         <v>0.266412940057</v>
       </c>
-      <c r="M48" s="45" t="s">
-        <v>374</v>
+      <c r="M48" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="N48" s="1" t="n">
         <v>2</v>
@@ -11967,8 +12000,8 @@
       <c r="T48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="45" t="s">
-        <v>373</v>
+      <c r="A49" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>0</v>
@@ -11976,8 +12009,8 @@
       <c r="C49" s="1" t="n">
         <v>0.260103312063</v>
       </c>
-      <c r="E49" s="45" t="s">
-        <v>373</v>
+      <c r="E49" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>0</v>
@@ -11985,8 +12018,8 @@
       <c r="G49" s="1" t="n">
         <v>0.300450266066</v>
       </c>
-      <c r="I49" s="45" t="s">
-        <v>374</v>
+      <c r="I49" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="J49" s="1" t="n">
         <v>3</v>
@@ -11994,8 +12027,8 @@
       <c r="K49" s="1" t="n">
         <v>0.296150049358</v>
       </c>
-      <c r="M49" s="45" t="s">
-        <v>374</v>
+      <c r="M49" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="N49" s="1" t="n">
         <v>3</v>
@@ -12011,8 +12044,8 @@
       <c r="T49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="45" t="s">
-        <v>373</v>
+      <c r="A50" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1</v>
@@ -12020,8 +12053,8 @@
       <c r="C50" s="1" t="n">
         <v>0.420795533845</v>
       </c>
-      <c r="E50" s="45" t="s">
-        <v>373</v>
+      <c r="E50" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>1</v>
@@ -12029,8 +12062,8 @@
       <c r="G50" s="1" t="n">
         <v>0.352982211371</v>
       </c>
-      <c r="I50" s="45" t="s">
-        <v>374</v>
+      <c r="I50" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="J50" s="1" t="n">
         <v>5</v>
@@ -12038,8 +12071,8 @@
       <c r="K50" s="1" t="n">
         <v>0.22844126261</v>
       </c>
-      <c r="M50" s="45" t="s">
-        <v>374</v>
+      <c r="M50" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="N50" s="1" t="n">
         <v>5</v>
@@ -12055,8 +12088,8 @@
       <c r="T50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="45" t="s">
-        <v>373</v>
+      <c r="A51" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>2</v>
@@ -12064,8 +12097,8 @@
       <c r="C51" s="1" t="n">
         <v>0.377164849262</v>
       </c>
-      <c r="E51" s="45" t="s">
-        <v>373</v>
+      <c r="E51" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>2</v>
@@ -12073,8 +12106,8 @@
       <c r="G51" s="1" t="n">
         <v>0.333449356074</v>
       </c>
-      <c r="I51" s="45" t="s">
-        <v>374</v>
+      <c r="I51" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>6</v>
@@ -12082,8 +12115,8 @@
       <c r="K51" s="1" t="n">
         <v>0.292492687683</v>
       </c>
-      <c r="M51" s="45" t="s">
-        <v>374</v>
+      <c r="M51" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="N51" s="1" t="n">
         <v>6</v>
@@ -12099,8 +12132,8 @@
       <c r="T51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="45" t="s">
-        <v>373</v>
+      <c r="A52" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>3</v>
@@ -12108,8 +12141,8 @@
       <c r="C52" s="1" t="n">
         <v>0.361445783133</v>
       </c>
-      <c r="E52" s="45" t="s">
-        <v>373</v>
+      <c r="E52" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>3</v>
@@ -12117,8 +12150,8 @@
       <c r="G52" s="1" t="n">
         <v>0.358992060753</v>
       </c>
-      <c r="I52" s="45" t="s">
-        <v>374</v>
+      <c r="I52" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="J52" s="1" t="n">
         <v>7</v>
@@ -12126,8 +12159,8 @@
       <c r="K52" s="1" t="n">
         <v>0.23265940902</v>
       </c>
-      <c r="M52" s="45" t="s">
-        <v>374</v>
+      <c r="M52" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="N52" s="1" t="n">
         <v>7</v>
@@ -12143,8 +12176,8 @@
       <c r="T52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="45" t="s">
-        <v>373</v>
+      <c r="A53" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>4</v>
@@ -12152,8 +12185,8 @@
       <c r="C53" s="1" t="n">
         <v>0.867099541312</v>
       </c>
-      <c r="E53" s="45" t="s">
-        <v>373</v>
+      <c r="E53" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>4</v>
@@ -12161,8 +12194,8 @@
       <c r="G53" s="1" t="n">
         <v>0.857176791971</v>
       </c>
-      <c r="I53" s="45" t="s">
-        <v>375</v>
+      <c r="I53" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="J53" s="1" t="n">
         <v>0</v>
@@ -12170,8 +12203,8 @@
       <c r="K53" s="1" t="n">
         <v>0.306393244873</v>
       </c>
-      <c r="M53" s="45" t="s">
-        <v>375</v>
+      <c r="M53" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="N53" s="1" t="n">
         <v>0</v>
@@ -12193,8 +12226,8 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="45" t="s">
-        <v>373</v>
+      <c r="A54" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>5</v>
@@ -12202,8 +12235,8 @@
       <c r="C54" s="1" t="n">
         <v>0.3192550715</v>
       </c>
-      <c r="E54" s="45" t="s">
-        <v>373</v>
+      <c r="E54" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>5</v>
@@ -12211,8 +12244,8 @@
       <c r="G54" s="1" t="n">
         <v>0.307990690458</v>
       </c>
-      <c r="I54" s="45" t="s">
-        <v>375</v>
+      <c r="I54" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>1</v>
@@ -12220,8 +12253,8 @@
       <c r="K54" s="1" t="n">
         <v>0.171532846715</v>
       </c>
-      <c r="M54" s="45" t="s">
-        <v>375</v>
+      <c r="M54" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="N54" s="1" t="n">
         <v>1</v>
@@ -12235,8 +12268,8 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="45" t="s">
-        <v>373</v>
+      <c r="A55" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>6</v>
@@ -12244,8 +12277,8 @@
       <c r="C55" s="1" t="n">
         <v>0.295857988166</v>
       </c>
-      <c r="E55" s="45" t="s">
-        <v>373</v>
+      <c r="E55" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>6</v>
@@ -12253,8 +12286,8 @@
       <c r="G55" s="1" t="n">
         <v>0.302325581395</v>
       </c>
-      <c r="I55" s="45" t="s">
-        <v>375</v>
+      <c r="I55" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>2</v>
@@ -12262,8 +12295,8 @@
       <c r="K55" s="1" t="n">
         <v>0.221264367816</v>
       </c>
-      <c r="M55" s="45" t="s">
-        <v>375</v>
+      <c r="M55" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="N55" s="1" t="n">
         <v>2</v>
@@ -12277,8 +12310,8 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="45" t="s">
-        <v>373</v>
+      <c r="A56" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>7</v>
@@ -12286,8 +12319,8 @@
       <c r="C56" s="1" t="n">
         <v>0.345389377647</v>
       </c>
-      <c r="E56" s="45" t="s">
-        <v>373</v>
+      <c r="E56" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>7</v>
@@ -12295,8 +12328,8 @@
       <c r="G56" s="1" t="n">
         <v>0.318656716418</v>
       </c>
-      <c r="I56" s="45" t="s">
-        <v>375</v>
+      <c r="I56" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>3</v>
@@ -12304,8 +12337,8 @@
       <c r="K56" s="1" t="n">
         <v>0.301687065829</v>
       </c>
-      <c r="M56" s="45" t="s">
-        <v>375</v>
+      <c r="M56" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="N56" s="1" t="n">
         <v>3</v>
@@ -12319,8 +12352,8 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="45" t="s">
-        <v>373</v>
+      <c r="A57" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>12</v>
@@ -12328,8 +12361,8 @@
       <c r="C57" s="1" t="n">
         <v>0.850067802606</v>
       </c>
-      <c r="E57" s="45" t="s">
-        <v>373</v>
+      <c r="E57" s="46" t="s">
+        <v>372</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>12</v>
@@ -12337,8 +12370,8 @@
       <c r="G57" s="1" t="n">
         <v>0.840415486308</v>
       </c>
-      <c r="I57" s="45" t="s">
-        <v>375</v>
+      <c r="I57" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>5</v>
@@ -12346,8 +12379,8 @@
       <c r="K57" s="1" t="n">
         <v>0.210690596957</v>
       </c>
-      <c r="M57" s="45" t="s">
-        <v>375</v>
+      <c r="M57" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="N57" s="1" t="n">
         <v>5</v>
@@ -12361,8 +12394,8 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="45" t="s">
-        <v>374</v>
+      <c r="A58" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>0</v>
@@ -12370,8 +12403,8 @@
       <c r="C58" s="1" t="n">
         <v>0.250269687163</v>
       </c>
-      <c r="E58" s="45" t="s">
-        <v>374</v>
+      <c r="E58" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>0</v>
@@ -12379,8 +12412,8 @@
       <c r="G58" s="1" t="n">
         <v>0.229408792319</v>
       </c>
-      <c r="I58" s="45" t="s">
-        <v>375</v>
+      <c r="I58" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="J58" s="1" t="n">
         <v>6</v>
@@ -12388,8 +12421,8 @@
       <c r="K58" s="1" t="n">
         <v>0.196775255018</v>
       </c>
-      <c r="M58" s="45" t="s">
-        <v>375</v>
+      <c r="M58" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="N58" s="1" t="n">
         <v>6</v>
@@ -12403,8 +12436,8 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="45" t="s">
-        <v>374</v>
+      <c r="A59" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>1</v>
@@ -12412,8 +12445,8 @@
       <c r="C59" s="1" t="n">
         <v>0.324441240087</v>
       </c>
-      <c r="E59" s="45" t="s">
-        <v>374</v>
+      <c r="E59" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>1</v>
@@ -12421,8 +12454,8 @@
       <c r="G59" s="1" t="n">
         <v>0.267498885421</v>
       </c>
-      <c r="I59" s="45" t="s">
-        <v>375</v>
+      <c r="I59" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="J59" s="1" t="n">
         <v>7</v>
@@ -12430,8 +12463,8 @@
       <c r="K59" s="1" t="n">
         <v>0.156965336821</v>
       </c>
-      <c r="M59" s="45" t="s">
-        <v>375</v>
+      <c r="M59" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="N59" s="1" t="n">
         <v>7</v>
@@ -12445,8 +12478,8 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="45" t="s">
-        <v>374</v>
+      <c r="A60" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2</v>
@@ -12454,8 +12487,8 @@
       <c r="C60" s="1" t="n">
         <v>0.266412940057</v>
       </c>
-      <c r="E60" s="45" t="s">
-        <v>374</v>
+      <c r="E60" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>2</v>
@@ -12465,8 +12498,8 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="45" t="s">
-        <v>374</v>
+      <c r="A61" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>3</v>
@@ -12474,8 +12507,8 @@
       <c r="C61" s="1" t="n">
         <v>0.296150049358</v>
       </c>
-      <c r="E61" s="45" t="s">
-        <v>374</v>
+      <c r="E61" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>3</v>
@@ -12485,8 +12518,8 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="45" t="s">
-        <v>374</v>
+      <c r="A62" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>4</v>
@@ -12494,8 +12527,8 @@
       <c r="C62" s="1" t="n">
         <v>0.842689989363</v>
       </c>
-      <c r="E62" s="45" t="s">
-        <v>374</v>
+      <c r="E62" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>4</v>
@@ -12505,8 +12538,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="45" t="s">
-        <v>374</v>
+      <c r="A63" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>5</v>
@@ -12514,8 +12547,8 @@
       <c r="C63" s="1" t="n">
         <v>0.22844126261</v>
       </c>
-      <c r="E63" s="45" t="s">
-        <v>374</v>
+      <c r="E63" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>5</v>
@@ -12525,8 +12558,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="45" t="s">
-        <v>374</v>
+      <c r="A64" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>6</v>
@@ -12534,8 +12567,8 @@
       <c r="C64" s="1" t="n">
         <v>0.292492687683</v>
       </c>
-      <c r="E64" s="45" t="s">
-        <v>374</v>
+      <c r="E64" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>6</v>
@@ -12545,8 +12578,8 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="45" t="s">
-        <v>374</v>
+      <c r="A65" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>7</v>
@@ -12554,8 +12587,8 @@
       <c r="C65" s="1" t="n">
         <v>0.23265940902</v>
       </c>
-      <c r="E65" s="45" t="s">
-        <v>374</v>
+      <c r="E65" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>7</v>
@@ -12565,8 +12598,8 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="45" t="s">
-        <v>374</v>
+      <c r="A66" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>12</v>
@@ -12574,8 +12607,8 @@
       <c r="C66" s="1" t="n">
         <v>0.837181903864</v>
       </c>
-      <c r="E66" s="45" t="s">
-        <v>374</v>
+      <c r="E66" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>12</v>
@@ -12585,8 +12618,8 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="45" t="s">
-        <v>375</v>
+      <c r="A67" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>0</v>
@@ -12594,8 +12627,8 @@
       <c r="C67" s="1" t="n">
         <v>0.306393244873</v>
       </c>
-      <c r="E67" s="45" t="s">
-        <v>375</v>
+      <c r="E67" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>0</v>
@@ -12605,8 +12638,8 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="45" t="s">
-        <v>375</v>
+      <c r="A68" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>1</v>
@@ -12614,8 +12647,8 @@
       <c r="C68" s="1" t="n">
         <v>0.171532846715</v>
       </c>
-      <c r="E68" s="45" t="s">
-        <v>375</v>
+      <c r="E68" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>1</v>
@@ -12625,8 +12658,8 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="45" t="s">
-        <v>375</v>
+      <c r="A69" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>2</v>
@@ -12634,8 +12667,8 @@
       <c r="C69" s="1" t="n">
         <v>0.221264367816</v>
       </c>
-      <c r="E69" s="45" t="s">
-        <v>375</v>
+      <c r="E69" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>2</v>
@@ -12645,8 +12678,8 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="45" t="s">
-        <v>375</v>
+      <c r="A70" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>3</v>
@@ -12654,8 +12687,8 @@
       <c r="C70" s="1" t="n">
         <v>0.301687065829</v>
       </c>
-      <c r="E70" s="45" t="s">
-        <v>375</v>
+      <c r="E70" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>3</v>
@@ -12665,8 +12698,8 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="45" t="s">
-        <v>375</v>
+      <c r="A71" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>4</v>
@@ -12674,8 +12707,8 @@
       <c r="C71" s="1" t="n">
         <v>0.855546687949</v>
       </c>
-      <c r="E71" s="45" t="s">
-        <v>375</v>
+      <c r="E71" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="F71" s="1" t="n">
         <v>4</v>
@@ -12685,8 +12718,8 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="45" t="s">
-        <v>375</v>
+      <c r="A72" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>5</v>
@@ -12694,8 +12727,8 @@
       <c r="C72" s="1" t="n">
         <v>0.210690596957</v>
       </c>
-      <c r="E72" s="45" t="s">
-        <v>375</v>
+      <c r="E72" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="F72" s="1" t="n">
         <v>5</v>
@@ -12705,8 +12738,8 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="45" t="s">
-        <v>375</v>
+      <c r="A73" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>6</v>
@@ -12714,8 +12747,8 @@
       <c r="C73" s="1" t="n">
         <v>0.196775255018</v>
       </c>
-      <c r="E73" s="45" t="s">
-        <v>375</v>
+      <c r="E73" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="F73" s="1" t="n">
         <v>6</v>
@@ -12725,8 +12758,8 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="45" t="s">
-        <v>375</v>
+      <c r="A74" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>7</v>
@@ -12734,8 +12767,8 @@
       <c r="C74" s="1" t="n">
         <v>0.156965336821</v>
       </c>
-      <c r="E74" s="45" t="s">
-        <v>375</v>
+      <c r="E74" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>7</v>
@@ -12745,8 +12778,8 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="45" t="s">
-        <v>375</v>
+      <c r="A75" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>12</v>
@@ -12754,8 +12787,8 @@
       <c r="C75" s="1" t="n">
         <v>0.827683615819</v>
       </c>
-      <c r="E75" s="45" t="s">
-        <v>375</v>
+      <c r="E75" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>12</v>
@@ -12791,12 +12824,10 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.29081632653061"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13164,7 +13195,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13708,7 +13739,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14492,9 +14523,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
@@ -14618,7 +14646,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20268,7 +20296,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20782,9 +20810,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">

--- a/Coba2.xlsx
+++ b/Coba2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,6 +41,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDB_0_0_0_0_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">OhNo!$Q$3:$R$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="380">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -1143,7 +1144,22 @@
     <t xml:space="preserve">logDefault</t>
   </si>
   <si>
+    <t xml:space="preserve">logTtrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sttrain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trainable GRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logTlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer level</t>
   </si>
   <si>
     <t xml:space="preserve">No Transfer</t>
@@ -1457,7 +1473,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1590,15 +1606,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1606,19 +1622,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1626,19 +1646,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2161,11 +2185,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="98455811"/>
-        <c:axId val="83519058"/>
+        <c:axId val="59396208"/>
+        <c:axId val="46262128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98455811"/>
+        <c:axId val="59396208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,14 +2225,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83519058"/>
+        <c:crossAx val="46262128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83519058"/>
+        <c:axId val="46262128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +2278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98455811"/>
+        <c:crossAx val="59396208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4819,11 +4843,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="33780506"/>
-        <c:axId val="50365708"/>
+        <c:axId val="93243355"/>
+        <c:axId val="80428330"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33780506"/>
+        <c:axId val="93243355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4859,14 +4883,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50365708"/>
+        <c:crossAx val="80428330"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50365708"/>
+        <c:axId val="80428330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4912,7 +4936,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33780506"/>
+        <c:crossAx val="93243355"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5185,11 +5209,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="52794301"/>
-        <c:axId val="62632654"/>
+        <c:axId val="51908019"/>
+        <c:axId val="8787827"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52794301"/>
+        <c:axId val="51908019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,14 +5249,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62632654"/>
+        <c:crossAx val="8787827"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62632654"/>
+        <c:axId val="8787827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5278,7 +5302,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52794301"/>
+        <c:crossAx val="51908019"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5326,9 +5350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5336,8 +5360,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2728800" y="359640"/>
-        <a:ext cx="4845240" cy="3217320"/>
+        <a:off x="2681280" y="359640"/>
+        <a:ext cx="4749480" cy="3216960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5356,9 +5380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>455760</xdr:colOff>
+      <xdr:colOff>455400</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5367,7 +5391,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="107280" y="36252000"/>
-        <a:ext cx="15492960" cy="4461120"/>
+        <a:ext cx="15207120" cy="4460760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5391,9 +5415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5401,8 +5425,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2590560" y="6009480"/>
-        <a:ext cx="3660120" cy="3216600"/>
+        <a:off x="2543040" y="6009480"/>
+        <a:ext cx="3592800" cy="3216240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5431,6 +5455,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -6749,7 +6776,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8507,15 +8534,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9688,14 +9715,14 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="37"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="J39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -9704,67 +9731,67 @@
       <c r="S39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="1" t="n">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="1" t="s">
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="J40" s="40" t="s">
+      <c r="J40" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="L40" s="41" t="s">
+      <c r="L40" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41" t="s">
+      <c r="M40" s="42"/>
+      <c r="N40" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="O40" s="41" t="n">
+      <c r="O40" s="42" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="0"/>
       <c r="S40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43" t="n">
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44" t="n">
         <v>15</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
       <c r="L41" s="0"/>
       <c r="O41" s="0"/>
       <c r="R41" s="0"/>
       <c r="S41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
       <c r="L42" s="1" t="s">
         <v>265</v>
       </c>
@@ -9776,6 +9803,9 @@
       </c>
       <c r="S42" s="1" t="s">
         <v>360</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9788,7 +9818,7 @@
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="45"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="35"/>
       <c r="L43" s="1" t="s">
         <v>266</v>
@@ -9798,36 +9828,36 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="39"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="J44" s="38"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
       <c r="L44" s="0"/>
       <c r="O44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="1" t="n">
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="1" t="s">
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="J45" s="38" t="s">
+      <c r="J45" s="39" t="s">
         <v>341</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -9836,25 +9866,67 @@
       <c r="O45" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="R45" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43" t="n">
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44" t="n">
         <v>15</v>
       </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="45"/>
       <c r="L46" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O46" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L49" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L50" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O50" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9885,7 +9957,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9895,7 +9967,7 @@
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="E1" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -9905,7 +9977,7 @@
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
       <c r="M1" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
@@ -9914,7 +9986,7 @@
         <v>160</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9939,7 +10011,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>162</v>
@@ -9948,7 +10020,7 @@
         <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>162</v>
@@ -9957,7 +10029,7 @@
         <v>265</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>162</v>
@@ -9966,20 +10038,20 @@
         <v>265</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>162</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="R3" s="0"/>
       <c r="T3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>367</v>
+      <c r="A4" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0</v>
@@ -9987,8 +10059,8 @@
       <c r="C4" s="1" t="n">
         <v>0.71655193056</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>367</v>
+      <c r="E4" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
@@ -9996,8 +10068,8 @@
       <c r="G4" s="1" t="n">
         <v>0.713732499255</v>
       </c>
-      <c r="I4" s="46" t="s">
-        <v>367</v>
+      <c r="I4" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0</v>
@@ -10005,8 +10077,8 @@
       <c r="K4" s="1" t="n">
         <v>0.71655193056</v>
       </c>
-      <c r="M4" s="46" t="s">
-        <v>367</v>
+      <c r="M4" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>0</v>
@@ -10028,8 +10100,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>367</v>
+      <c r="A5" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
@@ -10037,8 +10109,8 @@
       <c r="C5" s="1" t="n">
         <v>0.71089762834</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>367</v>
+      <c r="E5" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
@@ -10046,8 +10118,8 @@
       <c r="G5" s="1" t="n">
         <v>0.724932654894</v>
       </c>
-      <c r="I5" s="46" t="s">
-        <v>367</v>
+      <c r="I5" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>1</v>
@@ -10055,8 +10127,8 @@
       <c r="K5" s="1" t="n">
         <v>0.71089762834</v>
       </c>
-      <c r="M5" s="46" t="s">
-        <v>367</v>
+      <c r="M5" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>1</v>
@@ -10072,8 +10144,8 @@
       <c r="T5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>367</v>
+      <c r="A6" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
@@ -10081,8 +10153,8 @@
       <c r="C6" s="1" t="n">
         <v>0.714972940469</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>367</v>
+      <c r="E6" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>2</v>
@@ -10090,8 +10162,8 @@
       <c r="G6" s="1" t="n">
         <v>0.726672667267</v>
       </c>
-      <c r="I6" s="46" t="s">
-        <v>367</v>
+      <c r="I6" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>2</v>
@@ -10099,8 +10171,8 @@
       <c r="K6" s="1" t="n">
         <v>0.714972940469</v>
       </c>
-      <c r="M6" s="46" t="s">
-        <v>367</v>
+      <c r="M6" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>2</v>
@@ -10116,8 +10188,8 @@
       <c r="T6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>367</v>
+      <c r="A7" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
@@ -10125,8 +10197,8 @@
       <c r="C7" s="1" t="n">
         <v>0.713816771113</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>367</v>
+      <c r="E7" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>3</v>
@@ -10134,8 +10206,8 @@
       <c r="G7" s="1" t="n">
         <v>0.734510625561</v>
       </c>
-      <c r="I7" s="46" t="s">
-        <v>367</v>
+      <c r="I7" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>3</v>
@@ -10143,8 +10215,8 @@
       <c r="K7" s="1" t="n">
         <v>0.713816771113</v>
       </c>
-      <c r="M7" s="46" t="s">
-        <v>367</v>
+      <c r="M7" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>3</v>
@@ -10160,8 +10232,8 @@
       <c r="T7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>367</v>
+      <c r="A8" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>4</v>
@@ -10169,8 +10241,8 @@
       <c r="C8" s="1" t="n">
         <v>0.927015891701</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>367</v>
+      <c r="E8" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>4</v>
@@ -10178,8 +10250,8 @@
       <c r="G8" s="1" t="n">
         <v>0.928941786472</v>
       </c>
-      <c r="I8" s="46" t="s">
-        <v>367</v>
+      <c r="I8" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>5</v>
@@ -10187,8 +10259,8 @@
       <c r="K8" s="1" t="n">
         <v>0.723072307231</v>
       </c>
-      <c r="M8" s="46" t="s">
-        <v>367</v>
+      <c r="M8" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>5</v>
@@ -10204,8 +10276,8 @@
       <c r="T8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
-        <v>367</v>
+      <c r="A9" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>5</v>
@@ -10213,8 +10285,8 @@
       <c r="C9" s="1" t="n">
         <v>0.723072307231</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>367</v>
+      <c r="E9" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>5</v>
@@ -10222,8 +10294,8 @@
       <c r="G9" s="1" t="n">
         <v>0.710353081987</v>
       </c>
-      <c r="I9" s="46" t="s">
-        <v>367</v>
+      <c r="I9" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>6</v>
@@ -10231,8 +10303,8 @@
       <c r="K9" s="1" t="n">
         <v>0.716034637205</v>
       </c>
-      <c r="M9" s="46" t="s">
-        <v>367</v>
+      <c r="M9" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>6</v>
@@ -10248,8 +10320,8 @@
       <c r="T9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
-        <v>367</v>
+      <c r="A10" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>6</v>
@@ -10257,8 +10329,8 @@
       <c r="C10" s="1" t="n">
         <v>0.716034637205</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>367</v>
+      <c r="E10" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>6</v>
@@ -10266,8 +10338,8 @@
       <c r="G10" s="1" t="n">
         <v>0.722884386174</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>367</v>
+      <c r="I10" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>7</v>
@@ -10275,8 +10347,8 @@
       <c r="K10" s="1" t="n">
         <v>0.707360861759</v>
       </c>
-      <c r="M10" s="46" t="s">
-        <v>367</v>
+      <c r="M10" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>7</v>
@@ -10292,8 +10364,8 @@
       <c r="T10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
-        <v>367</v>
+      <c r="A11" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>7</v>
@@ -10301,8 +10373,8 @@
       <c r="C11" s="1" t="n">
         <v>0.707360861759</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>367</v>
+      <c r="E11" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>7</v>
@@ -10310,8 +10382,8 @@
       <c r="G11" s="1" t="n">
         <v>0.722404046415</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>368</v>
+      <c r="I11" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>0</v>
@@ -10319,8 +10391,8 @@
       <c r="K11" s="1" t="n">
         <v>0.687386843693</v>
       </c>
-      <c r="M11" s="46" t="s">
-        <v>368</v>
+      <c r="M11" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>0</v>
@@ -10342,8 +10414,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
-        <v>367</v>
+      <c r="A12" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>12</v>
@@ -10351,8 +10423,8 @@
       <c r="C12" s="1" t="n">
         <v>0.926826396656</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>367</v>
+      <c r="E12" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>12</v>
@@ -10360,8 +10432,8 @@
       <c r="G12" s="1" t="n">
         <v>0.928053738731</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>368</v>
+      <c r="I12" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>1</v>
@@ -10369,8 +10441,8 @@
       <c r="K12" s="1" t="n">
         <v>0.67438318611</v>
       </c>
-      <c r="M12" s="46" t="s">
-        <v>368</v>
+      <c r="M12" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>1</v>
@@ -10386,8 +10458,8 @@
       <c r="T12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
-        <v>368</v>
+      <c r="A13" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
@@ -10395,8 +10467,8 @@
       <c r="C13" s="1" t="n">
         <v>0.687386843693</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>368</v>
+      <c r="E13" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0</v>
@@ -10404,8 +10476,8 @@
       <c r="G13" s="1" t="n">
         <v>0.684848484848</v>
       </c>
-      <c r="I13" s="46" t="s">
-        <v>368</v>
+      <c r="I13" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>2</v>
@@ -10413,8 +10485,8 @@
       <c r="K13" s="1" t="n">
         <v>0.696642685851</v>
       </c>
-      <c r="M13" s="46" t="s">
-        <v>368</v>
+      <c r="M13" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>2</v>
@@ -10430,8 +10502,8 @@
       <c r="T13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
-        <v>368</v>
+      <c r="A14" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
@@ -10439,8 +10511,8 @@
       <c r="C14" s="1" t="n">
         <v>0.67438318611</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>368</v>
+      <c r="E14" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>1</v>
@@ -10448,8 +10520,8 @@
       <c r="G14" s="1" t="n">
         <v>0.669525267994</v>
       </c>
-      <c r="I14" s="46" t="s">
-        <v>368</v>
+      <c r="I14" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>3</v>
@@ -10457,8 +10529,8 @@
       <c r="K14" s="1" t="n">
         <v>0.68109407875</v>
       </c>
-      <c r="M14" s="46" t="s">
-        <v>368</v>
+      <c r="M14" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>3</v>
@@ -10474,8 +10546,8 @@
       <c r="T14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
-        <v>368</v>
+      <c r="A15" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
@@ -10483,8 +10555,8 @@
       <c r="C15" s="1" t="n">
         <v>0.696642685851</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>368</v>
+      <c r="E15" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>2</v>
@@ -10492,8 +10564,8 @@
       <c r="G15" s="1" t="n">
         <v>0.6741301059</v>
       </c>
-      <c r="I15" s="46" t="s">
-        <v>368</v>
+      <c r="I15" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>5</v>
@@ -10501,8 +10573,8 @@
       <c r="K15" s="1" t="n">
         <v>0.667072428484</v>
       </c>
-      <c r="M15" s="46" t="s">
-        <v>368</v>
+      <c r="M15" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>5</v>
@@ -10518,8 +10590,8 @@
       <c r="T15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
-        <v>368</v>
+      <c r="A16" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
@@ -10527,8 +10599,8 @@
       <c r="C16" s="1" t="n">
         <v>0.68109407875</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>368</v>
+      <c r="E16" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>3</v>
@@ -10536,8 +10608,8 @@
       <c r="G16" s="1" t="n">
         <v>0.702018680325</v>
       </c>
-      <c r="I16" s="46" t="s">
-        <v>368</v>
+      <c r="I16" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>6</v>
@@ -10545,8 +10617,8 @@
       <c r="K16" s="1" t="n">
         <v>0.683000604961</v>
       </c>
-      <c r="M16" s="46" t="s">
-        <v>368</v>
+      <c r="M16" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>6</v>
@@ -10562,8 +10634,8 @@
       <c r="T16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="s">
-        <v>368</v>
+      <c r="A17" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>4</v>
@@ -10571,8 +10643,8 @@
       <c r="C17" s="1" t="n">
         <v>0.920919269299</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>368</v>
+      <c r="E17" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>4</v>
@@ -10580,8 +10652,8 @@
       <c r="G17" s="1" t="n">
         <v>0.923240434577</v>
       </c>
-      <c r="I17" s="46" t="s">
-        <v>368</v>
+      <c r="I17" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>7</v>
@@ -10589,8 +10661,8 @@
       <c r="K17" s="1" t="n">
         <v>0.649058894961</v>
       </c>
-      <c r="M17" s="46" t="s">
-        <v>368</v>
+      <c r="M17" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>7</v>
@@ -10606,8 +10678,8 @@
       <c r="T17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="s">
-        <v>368</v>
+      <c r="A18" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>5</v>
@@ -10615,8 +10687,8 @@
       <c r="C18" s="1" t="n">
         <v>0.667072428484</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>368</v>
+      <c r="E18" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>5</v>
@@ -10624,8 +10696,8 @@
       <c r="G18" s="1" t="n">
         <v>0.681359044995</v>
       </c>
-      <c r="I18" s="46" t="s">
-        <v>369</v>
+      <c r="I18" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>0</v>
@@ -10633,8 +10705,8 @@
       <c r="K18" s="1" t="n">
         <v>0.637457574823</v>
       </c>
-      <c r="M18" s="46" t="s">
-        <v>369</v>
+      <c r="M18" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>0</v>
@@ -10656,8 +10728,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="s">
-        <v>368</v>
+      <c r="A19" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>6</v>
@@ -10665,8 +10737,8 @@
       <c r="C19" s="1" t="n">
         <v>0.683000604961</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>368</v>
+      <c r="E19" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>6</v>
@@ -10674,8 +10746,8 @@
       <c r="G19" s="1" t="n">
         <v>0.692307692308</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>369</v>
+      <c r="I19" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>1</v>
@@ -10683,8 +10755,8 @@
       <c r="K19" s="1" t="n">
         <v>0.620174346202</v>
       </c>
-      <c r="M19" s="46" t="s">
-        <v>369</v>
+      <c r="M19" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>1</v>
@@ -10700,8 +10772,8 @@
       <c r="T19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="s">
-        <v>368</v>
+      <c r="A20" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>7</v>
@@ -10709,8 +10781,8 @@
       <c r="C20" s="1" t="n">
         <v>0.649058894961</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>368</v>
+      <c r="E20" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>7</v>
@@ -10718,8 +10790,8 @@
       <c r="G20" s="1" t="n">
         <v>0.655677655678</v>
       </c>
-      <c r="I20" s="46" t="s">
-        <v>369</v>
+      <c r="I20" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>2</v>
@@ -10727,8 +10799,8 @@
       <c r="K20" s="1" t="n">
         <v>0.618844984802</v>
       </c>
-      <c r="M20" s="46" t="s">
-        <v>369</v>
+      <c r="M20" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>2</v>
@@ -10744,8 +10816,8 @@
       <c r="T20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="s">
-        <v>368</v>
+      <c r="A21" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -10753,8 +10825,8 @@
       <c r="C21" s="1" t="n">
         <v>0.921888816837</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>368</v>
+      <c r="E21" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>12</v>
@@ -10762,8 +10834,8 @@
       <c r="G21" s="1" t="n">
         <v>0.919853635505</v>
       </c>
-      <c r="I21" s="46" t="s">
-        <v>369</v>
+      <c r="I21" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>3</v>
@@ -10771,8 +10843,8 @@
       <c r="K21" s="1" t="n">
         <v>0.660741648789</v>
       </c>
-      <c r="M21" s="46" t="s">
-        <v>369</v>
+      <c r="M21" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>3</v>
@@ -10788,8 +10860,8 @@
       <c r="T21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="s">
-        <v>369</v>
+      <c r="A22" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0</v>
@@ -10797,8 +10869,8 @@
       <c r="C22" s="1" t="n">
         <v>0.637457574823</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>369</v>
+      <c r="E22" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
@@ -10806,8 +10878,8 @@
       <c r="G22" s="1" t="n">
         <v>0.630734680783</v>
       </c>
-      <c r="I22" s="46" t="s">
-        <v>369</v>
+      <c r="I22" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>5</v>
@@ -10815,8 +10887,8 @@
       <c r="K22" s="1" t="n">
         <v>0.591229684146</v>
       </c>
-      <c r="M22" s="46" t="s">
-        <v>369</v>
+      <c r="M22" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>5</v>
@@ -10832,8 +10904,8 @@
       <c r="T22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46" t="s">
-        <v>369</v>
+      <c r="A23" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1</v>
@@ -10841,8 +10913,8 @@
       <c r="C23" s="1" t="n">
         <v>0.620174346202</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>369</v>
+      <c r="E23" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>1</v>
@@ -10850,8 +10922,8 @@
       <c r="G23" s="1" t="n">
         <v>0.620092735703</v>
       </c>
-      <c r="I23" s="46" t="s">
-        <v>369</v>
+      <c r="I23" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>6</v>
@@ -10859,8 +10931,8 @@
       <c r="K23" s="1" t="n">
         <v>0.620440156768</v>
       </c>
-      <c r="M23" s="46" t="s">
-        <v>369</v>
+      <c r="M23" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>6</v>
@@ -10876,8 +10948,8 @@
       <c r="T23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46" t="s">
-        <v>369</v>
+      <c r="A24" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2</v>
@@ -10885,8 +10957,8 @@
       <c r="C24" s="1" t="n">
         <v>0.618844984802</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>369</v>
+      <c r="E24" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>2</v>
@@ -10894,8 +10966,8 @@
       <c r="G24" s="1" t="n">
         <v>0.604881062712</v>
       </c>
-      <c r="I24" s="46" t="s">
-        <v>369</v>
+      <c r="I24" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>7</v>
@@ -10903,8 +10975,8 @@
       <c r="K24" s="1" t="n">
         <v>0.59680393362</v>
       </c>
-      <c r="M24" s="46" t="s">
-        <v>369</v>
+      <c r="M24" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>7</v>
@@ -10920,8 +10992,8 @@
       <c r="T24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46" t="s">
-        <v>369</v>
+      <c r="A25" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>3</v>
@@ -10929,8 +11001,8 @@
       <c r="C25" s="1" t="n">
         <v>0.660741648789</v>
       </c>
-      <c r="E25" s="46" t="s">
-        <v>369</v>
+      <c r="E25" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>3</v>
@@ -10938,8 +11010,8 @@
       <c r="G25" s="1" t="n">
         <v>0.646946564885</v>
       </c>
-      <c r="I25" s="46" t="s">
-        <v>370</v>
+      <c r="I25" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>0</v>
@@ -10947,8 +11019,8 @@
       <c r="K25" s="1" t="n">
         <v>0.592405063291</v>
       </c>
-      <c r="M25" s="46" t="s">
-        <v>370</v>
+      <c r="M25" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>0</v>
@@ -10970,8 +11042,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46" t="s">
-        <v>369</v>
+      <c r="A26" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>4</v>
@@ -10979,8 +11051,8 @@
       <c r="C26" s="1" t="n">
         <v>0.909959313639</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>369</v>
+      <c r="E26" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>4</v>
@@ -10988,8 +11060,8 @@
       <c r="G26" s="1" t="n">
         <v>0.908092792633</v>
       </c>
-      <c r="I26" s="46" t="s">
-        <v>370</v>
+      <c r="I26" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>1</v>
@@ -10997,8 +11069,8 @@
       <c r="K26" s="1" t="n">
         <v>0.53618628068</v>
       </c>
-      <c r="M26" s="46" t="s">
-        <v>370</v>
+      <c r="M26" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>1</v>
@@ -11014,8 +11086,8 @@
       <c r="T26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="46" t="s">
-        <v>369</v>
+      <c r="A27" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>5</v>
@@ -11023,8 +11095,8 @@
       <c r="C27" s="1" t="n">
         <v>0.591229684146</v>
       </c>
-      <c r="E27" s="46" t="s">
-        <v>369</v>
+      <c r="E27" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>5</v>
@@ -11032,8 +11104,8 @@
       <c r="G27" s="1" t="n">
         <v>0.596347607053</v>
       </c>
-      <c r="I27" s="46" t="s">
-        <v>370</v>
+      <c r="I27" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>2</v>
@@ -11041,8 +11113,8 @@
       <c r="K27" s="1" t="n">
         <v>0.550815558344</v>
       </c>
-      <c r="M27" s="46" t="s">
-        <v>370</v>
+      <c r="M27" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>2</v>
@@ -11058,8 +11130,8 @@
       <c r="T27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46" t="s">
-        <v>369</v>
+      <c r="A28" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>6</v>
@@ -11067,8 +11139,8 @@
       <c r="C28" s="1" t="n">
         <v>0.620440156768</v>
       </c>
-      <c r="E28" s="46" t="s">
-        <v>369</v>
+      <c r="E28" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>6</v>
@@ -11076,8 +11148,8 @@
       <c r="G28" s="1" t="n">
         <v>0.627998785302</v>
       </c>
-      <c r="I28" s="46" t="s">
-        <v>370</v>
+      <c r="I28" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>3</v>
@@ -11085,8 +11157,8 @@
       <c r="K28" s="1" t="n">
         <v>0.583968302347</v>
       </c>
-      <c r="M28" s="46" t="s">
-        <v>370</v>
+      <c r="M28" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>3</v>
@@ -11102,8 +11174,8 @@
       <c r="T28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46" t="s">
-        <v>369</v>
+      <c r="A29" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>7</v>
@@ -11111,8 +11183,8 @@
       <c r="C29" s="1" t="n">
         <v>0.59680393362</v>
       </c>
-      <c r="E29" s="46" t="s">
-        <v>369</v>
+      <c r="E29" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>7</v>
@@ -11120,8 +11192,8 @@
       <c r="G29" s="1" t="n">
         <v>0.598956735195</v>
       </c>
-      <c r="I29" s="46" t="s">
-        <v>370</v>
+      <c r="I29" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>5</v>
@@ -11129,8 +11201,8 @@
       <c r="K29" s="1" t="n">
         <v>0.531849103278</v>
       </c>
-      <c r="M29" s="46" t="s">
-        <v>370</v>
+      <c r="M29" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>5</v>
@@ -11146,8 +11218,8 @@
       <c r="T29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46" t="s">
-        <v>369</v>
+      <c r="A30" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>12</v>
@@ -11155,8 +11227,8 @@
       <c r="C30" s="1" t="n">
         <v>0.904283009938</v>
       </c>
-      <c r="E30" s="46" t="s">
-        <v>369</v>
+      <c r="E30" s="48" t="s">
+        <v>374</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>12</v>
@@ -11164,8 +11236,8 @@
       <c r="G30" s="1" t="n">
         <v>0.904539267326</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>370</v>
+      <c r="I30" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>6</v>
@@ -11173,8 +11245,8 @@
       <c r="K30" s="1" t="n">
         <v>0.461977186312</v>
       </c>
-      <c r="M30" s="46" t="s">
-        <v>370</v>
+      <c r="M30" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>6</v>
@@ -11190,8 +11262,8 @@
       <c r="T30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="s">
-        <v>370</v>
+      <c r="A31" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>0</v>
@@ -11199,8 +11271,8 @@
       <c r="C31" s="1" t="n">
         <v>0.592405063291</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>370</v>
+      <c r="E31" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>0</v>
@@ -11208,8 +11280,8 @@
       <c r="G31" s="1" t="n">
         <v>0.591849935317</v>
       </c>
-      <c r="I31" s="46" t="s">
-        <v>370</v>
+      <c r="I31" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>7</v>
@@ -11217,8 +11289,8 @@
       <c r="K31" s="1" t="n">
         <v>0.564749307905</v>
       </c>
-      <c r="M31" s="46" t="s">
-        <v>370</v>
+      <c r="M31" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="N31" s="1" t="n">
         <v>7</v>
@@ -11234,8 +11306,8 @@
       <c r="T31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46" t="s">
-        <v>370</v>
+      <c r="A32" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -11243,8 +11315,8 @@
       <c r="C32" s="1" t="n">
         <v>0.53618628068</v>
       </c>
-      <c r="E32" s="46" t="s">
-        <v>370</v>
+      <c r="E32" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>1</v>
@@ -11252,8 +11324,8 @@
       <c r="G32" s="1" t="n">
         <v>0.555413196669</v>
       </c>
-      <c r="I32" s="46" t="s">
-        <v>371</v>
+      <c r="I32" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>0</v>
@@ -11261,8 +11333,8 @@
       <c r="K32" s="1" t="n">
         <v>0.472800537273</v>
       </c>
-      <c r="M32" s="46" t="s">
-        <v>371</v>
+      <c r="M32" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>0</v>
@@ -11284,8 +11356,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46" t="s">
-        <v>370</v>
+      <c r="A33" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>2</v>
@@ -11293,8 +11365,8 @@
       <c r="C33" s="1" t="n">
         <v>0.550815558344</v>
       </c>
-      <c r="E33" s="46" t="s">
-        <v>370</v>
+      <c r="E33" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>2</v>
@@ -11302,8 +11374,8 @@
       <c r="G33" s="1" t="n">
         <v>0.575385583884</v>
       </c>
-      <c r="I33" s="46" t="s">
-        <v>371</v>
+      <c r="I33" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>1</v>
@@ -11311,8 +11383,8 @@
       <c r="K33" s="1" t="n">
         <v>0.434473854099</v>
       </c>
-      <c r="M33" s="46" t="s">
-        <v>371</v>
+      <c r="M33" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>1</v>
@@ -11328,8 +11400,8 @@
       <c r="T33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46" t="s">
-        <v>370</v>
+      <c r="A34" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>3</v>
@@ -11337,8 +11409,8 @@
       <c r="C34" s="1" t="n">
         <v>0.583968302347</v>
       </c>
-      <c r="E34" s="46" t="s">
-        <v>370</v>
+      <c r="E34" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>3</v>
@@ -11346,8 +11418,8 @@
       <c r="G34" s="1" t="n">
         <v>0.57501569366</v>
       </c>
-      <c r="I34" s="46" t="s">
-        <v>371</v>
+      <c r="I34" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>2</v>
@@ -11355,8 +11427,8 @@
       <c r="K34" s="1" t="n">
         <v>0.510901399284</v>
       </c>
-      <c r="M34" s="46" t="s">
-        <v>371</v>
+      <c r="M34" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="N34" s="1" t="n">
         <v>2</v>
@@ -11372,8 +11444,8 @@
       <c r="T34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46" t="s">
-        <v>370</v>
+      <c r="A35" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>4</v>
@@ -11381,8 +11453,8 @@
       <c r="C35" s="1" t="n">
         <v>0.890085824208</v>
       </c>
-      <c r="E35" s="46" t="s">
-        <v>370</v>
+      <c r="E35" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>4</v>
@@ -11390,8 +11462,8 @@
       <c r="G35" s="1" t="n">
         <v>0.894602458286</v>
       </c>
-      <c r="I35" s="46" t="s">
-        <v>371</v>
+      <c r="I35" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>3</v>
@@ -11399,8 +11471,8 @@
       <c r="K35" s="1" t="n">
         <v>0.474908200734</v>
       </c>
-      <c r="M35" s="46" t="s">
-        <v>371</v>
+      <c r="M35" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="N35" s="1" t="n">
         <v>3</v>
@@ -11416,8 +11488,8 @@
       <c r="T35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46" t="s">
-        <v>370</v>
+      <c r="A36" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>5</v>
@@ -11425,8 +11497,8 @@
       <c r="C36" s="1" t="n">
         <v>0.531849103278</v>
       </c>
-      <c r="E36" s="46" t="s">
-        <v>370</v>
+      <c r="E36" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>5</v>
@@ -11434,8 +11506,8 @@
       <c r="G36" s="1" t="n">
         <v>0.55317769131</v>
       </c>
-      <c r="I36" s="46" t="s">
-        <v>371</v>
+      <c r="I36" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>5</v>
@@ -11443,8 +11515,8 @@
       <c r="K36" s="1" t="n">
         <v>0.486912645853</v>
       </c>
-      <c r="M36" s="46" t="s">
-        <v>371</v>
+      <c r="M36" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="N36" s="1" t="n">
         <v>5</v>
@@ -11460,8 +11532,8 @@
       <c r="T36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46" t="s">
-        <v>370</v>
+      <c r="A37" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>6</v>
@@ -11469,8 +11541,8 @@
       <c r="C37" s="1" t="n">
         <v>0.461977186312</v>
       </c>
-      <c r="E37" s="46" t="s">
-        <v>370</v>
+      <c r="E37" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>6</v>
@@ -11478,8 +11550,8 @@
       <c r="G37" s="1" t="n">
         <v>0.507824976046</v>
       </c>
-      <c r="I37" s="46" t="s">
-        <v>371</v>
+      <c r="I37" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>6</v>
@@ -11487,8 +11559,8 @@
       <c r="K37" s="1" t="n">
         <v>0.368553459119</v>
       </c>
-      <c r="M37" s="46" t="s">
-        <v>371</v>
+      <c r="M37" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="N37" s="1" t="n">
         <v>6</v>
@@ -11504,8 +11576,8 @@
       <c r="T37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46" t="s">
-        <v>370</v>
+      <c r="A38" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>7</v>
@@ -11513,8 +11585,8 @@
       <c r="C38" s="1" t="n">
         <v>0.564749307905</v>
       </c>
-      <c r="E38" s="46" t="s">
-        <v>370</v>
+      <c r="E38" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>7</v>
@@ -11522,8 +11594,8 @@
       <c r="G38" s="1" t="n">
         <v>0.551767676768</v>
       </c>
-      <c r="I38" s="46" t="s">
-        <v>371</v>
+      <c r="I38" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="J38" s="1" t="n">
         <v>7</v>
@@ -11531,8 +11603,8 @@
       <c r="K38" s="1" t="n">
         <v>0.476656872347</v>
       </c>
-      <c r="M38" s="46" t="s">
-        <v>371</v>
+      <c r="M38" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="N38" s="1" t="n">
         <v>7</v>
@@ -11548,8 +11620,8 @@
       <c r="T38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46" t="s">
-        <v>370</v>
+      <c r="A39" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>12</v>
@@ -11557,8 +11629,8 @@
       <c r="C39" s="1" t="n">
         <v>0.895278665247</v>
       </c>
-      <c r="E39" s="46" t="s">
-        <v>370</v>
+      <c r="E39" s="48" t="s">
+        <v>375</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>12</v>
@@ -11566,8 +11638,8 @@
       <c r="G39" s="1" t="n">
         <v>0.894328216678</v>
       </c>
-      <c r="I39" s="46" t="s">
-        <v>372</v>
+      <c r="I39" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="J39" s="1" t="n">
         <v>0</v>
@@ -11575,8 +11647,8 @@
       <c r="K39" s="1" t="n">
         <v>0.260103312063</v>
       </c>
-      <c r="M39" s="46" t="s">
-        <v>372</v>
+      <c r="M39" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="N39" s="1" t="n">
         <v>0</v>
@@ -11598,8 +11670,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46" t="s">
-        <v>371</v>
+      <c r="A40" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>0</v>
@@ -11607,8 +11679,8 @@
       <c r="C40" s="1" t="n">
         <v>0.472800537273</v>
       </c>
-      <c r="E40" s="46" t="s">
-        <v>371</v>
+      <c r="E40" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>0</v>
@@ -11616,8 +11688,8 @@
       <c r="G40" s="1" t="n">
         <v>0.491110365649</v>
       </c>
-      <c r="I40" s="46" t="s">
-        <v>372</v>
+      <c r="I40" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>1</v>
@@ -11625,8 +11697,8 @@
       <c r="K40" s="1" t="n">
         <v>0.420795533845</v>
       </c>
-      <c r="M40" s="46" t="s">
-        <v>372</v>
+      <c r="M40" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="N40" s="1" t="n">
         <v>1</v>
@@ -11642,8 +11714,8 @@
       <c r="T40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46" t="s">
-        <v>371</v>
+      <c r="A41" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
@@ -11651,8 +11723,8 @@
       <c r="C41" s="1" t="n">
         <v>0.434473854099</v>
       </c>
-      <c r="E41" s="46" t="s">
-        <v>371</v>
+      <c r="E41" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>1</v>
@@ -11660,8 +11732,8 @@
       <c r="G41" s="1" t="n">
         <v>0.518118245391</v>
       </c>
-      <c r="I41" s="46" t="s">
-        <v>372</v>
+      <c r="I41" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>2</v>
@@ -11669,8 +11741,8 @@
       <c r="K41" s="1" t="n">
         <v>0.377164849262</v>
       </c>
-      <c r="M41" s="46" t="s">
-        <v>372</v>
+      <c r="M41" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="N41" s="1" t="n">
         <v>2</v>
@@ -11686,8 +11758,8 @@
       <c r="T41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="46" t="s">
-        <v>371</v>
+      <c r="A42" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2</v>
@@ -11695,8 +11767,8 @@
       <c r="C42" s="1" t="n">
         <v>0.510901399284</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>371</v>
+      <c r="E42" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>2</v>
@@ -11704,8 +11776,8 @@
       <c r="G42" s="1" t="n">
         <v>0.568085797855</v>
       </c>
-      <c r="I42" s="46" t="s">
-        <v>372</v>
+      <c r="I42" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>3</v>
@@ -11713,8 +11785,8 @@
       <c r="K42" s="1" t="n">
         <v>0.361445783133</v>
       </c>
-      <c r="M42" s="46" t="s">
-        <v>372</v>
+      <c r="M42" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="N42" s="1" t="n">
         <v>3</v>
@@ -11730,8 +11802,8 @@
       <c r="T42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="46" t="s">
-        <v>371</v>
+      <c r="A43" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>3</v>
@@ -11739,8 +11811,8 @@
       <c r="C43" s="1" t="n">
         <v>0.474908200734</v>
       </c>
-      <c r="E43" s="46" t="s">
-        <v>371</v>
+      <c r="E43" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>3</v>
@@ -11748,8 +11820,8 @@
       <c r="G43" s="1" t="n">
         <v>0.467459762071</v>
       </c>
-      <c r="I43" s="46" t="s">
-        <v>372</v>
+      <c r="I43" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="J43" s="1" t="n">
         <v>5</v>
@@ -11757,8 +11829,8 @@
       <c r="K43" s="1" t="n">
         <v>0.3192550715</v>
       </c>
-      <c r="M43" s="46" t="s">
-        <v>372</v>
+      <c r="M43" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="N43" s="1" t="n">
         <v>5</v>
@@ -11774,8 +11846,8 @@
       <c r="T43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="46" t="s">
-        <v>371</v>
+      <c r="A44" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>4</v>
@@ -11783,8 +11855,8 @@
       <c r="C44" s="1" t="n">
         <v>0.884699745095</v>
       </c>
-      <c r="E44" s="46" t="s">
-        <v>371</v>
+      <c r="E44" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>4</v>
@@ -11792,8 +11864,8 @@
       <c r="G44" s="1" t="n">
         <v>0.88298567778</v>
       </c>
-      <c r="I44" s="46" t="s">
-        <v>372</v>
+      <c r="I44" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="J44" s="1" t="n">
         <v>6</v>
@@ -11801,8 +11873,8 @@
       <c r="K44" s="1" t="n">
         <v>0.295857988166</v>
       </c>
-      <c r="M44" s="46" t="s">
-        <v>372</v>
+      <c r="M44" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="N44" s="1" t="n">
         <v>6</v>
@@ -11818,8 +11890,8 @@
       <c r="T44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="46" t="s">
-        <v>371</v>
+      <c r="A45" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>5</v>
@@ -11827,8 +11899,8 @@
       <c r="C45" s="1" t="n">
         <v>0.486912645853</v>
       </c>
-      <c r="E45" s="46" t="s">
-        <v>371</v>
+      <c r="E45" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>5</v>
@@ -11836,8 +11908,8 @@
       <c r="G45" s="1" t="n">
         <v>0.473755047106</v>
       </c>
-      <c r="I45" s="46" t="s">
-        <v>372</v>
+      <c r="I45" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>7</v>
@@ -11845,8 +11917,8 @@
       <c r="K45" s="1" t="n">
         <v>0.345389377647</v>
       </c>
-      <c r="M45" s="46" t="s">
-        <v>372</v>
+      <c r="M45" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="N45" s="1" t="n">
         <v>7</v>
@@ -11862,8 +11934,8 @@
       <c r="T45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="46" t="s">
-        <v>371</v>
+      <c r="A46" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>6</v>
@@ -11871,8 +11943,8 @@
       <c r="C46" s="1" t="n">
         <v>0.368553459119</v>
       </c>
-      <c r="E46" s="46" t="s">
-        <v>371</v>
+      <c r="E46" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>6</v>
@@ -11880,8 +11952,8 @@
       <c r="G46" s="1" t="n">
         <v>0.465788628333</v>
       </c>
-      <c r="I46" s="46" t="s">
-        <v>373</v>
+      <c r="I46" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>0</v>
@@ -11889,8 +11961,8 @@
       <c r="K46" s="1" t="n">
         <v>0.250269687163</v>
       </c>
-      <c r="M46" s="46" t="s">
-        <v>373</v>
+      <c r="M46" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="N46" s="1" t="n">
         <v>0</v>
@@ -11912,8 +11984,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="46" t="s">
-        <v>371</v>
+      <c r="A47" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>7</v>
@@ -11921,8 +11993,8 @@
       <c r="C47" s="1" t="n">
         <v>0.476656872347</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>371</v>
+      <c r="E47" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>7</v>
@@ -11930,8 +12002,8 @@
       <c r="G47" s="1" t="n">
         <v>0.452945159106</v>
       </c>
-      <c r="I47" s="46" t="s">
-        <v>373</v>
+      <c r="I47" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="J47" s="1" t="n">
         <v>1</v>
@@ -11939,8 +12011,8 @@
       <c r="K47" s="1" t="n">
         <v>0.324441240087</v>
       </c>
-      <c r="M47" s="46" t="s">
-        <v>373</v>
+      <c r="M47" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="N47" s="1" t="n">
         <v>1</v>
@@ -11956,8 +12028,8 @@
       <c r="T47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="46" t="s">
-        <v>371</v>
+      <c r="A48" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>12</v>
@@ -11965,8 +12037,8 @@
       <c r="C48" s="1" t="n">
         <v>0.878253172027</v>
       </c>
-      <c r="E48" s="46" t="s">
-        <v>371</v>
+      <c r="E48" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>12</v>
@@ -11974,8 +12046,8 @@
       <c r="G48" s="1" t="n">
         <v>0.86400661079</v>
       </c>
-      <c r="I48" s="46" t="s">
-        <v>373</v>
+      <c r="I48" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>2</v>
@@ -11983,8 +12055,8 @@
       <c r="K48" s="1" t="n">
         <v>0.266412940057</v>
       </c>
-      <c r="M48" s="46" t="s">
-        <v>373</v>
+      <c r="M48" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="N48" s="1" t="n">
         <v>2</v>
@@ -12000,8 +12072,8 @@
       <c r="T48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="46" t="s">
-        <v>372</v>
+      <c r="A49" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>0</v>
@@ -12009,8 +12081,8 @@
       <c r="C49" s="1" t="n">
         <v>0.260103312063</v>
       </c>
-      <c r="E49" s="46" t="s">
-        <v>372</v>
+      <c r="E49" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>0</v>
@@ -12018,8 +12090,8 @@
       <c r="G49" s="1" t="n">
         <v>0.300450266066</v>
       </c>
-      <c r="I49" s="46" t="s">
-        <v>373</v>
+      <c r="I49" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="J49" s="1" t="n">
         <v>3</v>
@@ -12027,8 +12099,8 @@
       <c r="K49" s="1" t="n">
         <v>0.296150049358</v>
       </c>
-      <c r="M49" s="46" t="s">
-        <v>373</v>
+      <c r="M49" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="N49" s="1" t="n">
         <v>3</v>
@@ -12044,8 +12116,8 @@
       <c r="T49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="46" t="s">
-        <v>372</v>
+      <c r="A50" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1</v>
@@ -12053,8 +12125,8 @@
       <c r="C50" s="1" t="n">
         <v>0.420795533845</v>
       </c>
-      <c r="E50" s="46" t="s">
-        <v>372</v>
+      <c r="E50" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>1</v>
@@ -12062,8 +12134,8 @@
       <c r="G50" s="1" t="n">
         <v>0.352982211371</v>
       </c>
-      <c r="I50" s="46" t="s">
-        <v>373</v>
+      <c r="I50" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="J50" s="1" t="n">
         <v>5</v>
@@ -12071,8 +12143,8 @@
       <c r="K50" s="1" t="n">
         <v>0.22844126261</v>
       </c>
-      <c r="M50" s="46" t="s">
-        <v>373</v>
+      <c r="M50" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="N50" s="1" t="n">
         <v>5</v>
@@ -12088,8 +12160,8 @@
       <c r="T50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="46" t="s">
-        <v>372</v>
+      <c r="A51" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>2</v>
@@ -12097,8 +12169,8 @@
       <c r="C51" s="1" t="n">
         <v>0.377164849262</v>
       </c>
-      <c r="E51" s="46" t="s">
-        <v>372</v>
+      <c r="E51" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>2</v>
@@ -12106,8 +12178,8 @@
       <c r="G51" s="1" t="n">
         <v>0.333449356074</v>
       </c>
-      <c r="I51" s="46" t="s">
-        <v>373</v>
+      <c r="I51" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>6</v>
@@ -12115,8 +12187,8 @@
       <c r="K51" s="1" t="n">
         <v>0.292492687683</v>
       </c>
-      <c r="M51" s="46" t="s">
-        <v>373</v>
+      <c r="M51" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="N51" s="1" t="n">
         <v>6</v>
@@ -12132,8 +12204,8 @@
       <c r="T51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="46" t="s">
-        <v>372</v>
+      <c r="A52" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>3</v>
@@ -12141,8 +12213,8 @@
       <c r="C52" s="1" t="n">
         <v>0.361445783133</v>
       </c>
-      <c r="E52" s="46" t="s">
-        <v>372</v>
+      <c r="E52" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>3</v>
@@ -12150,8 +12222,8 @@
       <c r="G52" s="1" t="n">
         <v>0.358992060753</v>
       </c>
-      <c r="I52" s="46" t="s">
-        <v>373</v>
+      <c r="I52" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="J52" s="1" t="n">
         <v>7</v>
@@ -12159,8 +12231,8 @@
       <c r="K52" s="1" t="n">
         <v>0.23265940902</v>
       </c>
-      <c r="M52" s="46" t="s">
-        <v>373</v>
+      <c r="M52" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="N52" s="1" t="n">
         <v>7</v>
@@ -12176,8 +12248,8 @@
       <c r="T52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="46" t="s">
-        <v>372</v>
+      <c r="A53" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>4</v>
@@ -12185,8 +12257,8 @@
       <c r="C53" s="1" t="n">
         <v>0.867099541312</v>
       </c>
-      <c r="E53" s="46" t="s">
-        <v>372</v>
+      <c r="E53" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>4</v>
@@ -12194,8 +12266,8 @@
       <c r="G53" s="1" t="n">
         <v>0.857176791971</v>
       </c>
-      <c r="I53" s="46" t="s">
-        <v>374</v>
+      <c r="I53" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="J53" s="1" t="n">
         <v>0</v>
@@ -12203,8 +12275,8 @@
       <c r="K53" s="1" t="n">
         <v>0.306393244873</v>
       </c>
-      <c r="M53" s="46" t="s">
-        <v>374</v>
+      <c r="M53" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="N53" s="1" t="n">
         <v>0</v>
@@ -12226,8 +12298,8 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="46" t="s">
-        <v>372</v>
+      <c r="A54" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>5</v>
@@ -12235,8 +12307,8 @@
       <c r="C54" s="1" t="n">
         <v>0.3192550715</v>
       </c>
-      <c r="E54" s="46" t="s">
-        <v>372</v>
+      <c r="E54" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>5</v>
@@ -12244,8 +12316,8 @@
       <c r="G54" s="1" t="n">
         <v>0.307990690458</v>
       </c>
-      <c r="I54" s="46" t="s">
-        <v>374</v>
+      <c r="I54" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>1</v>
@@ -12253,8 +12325,8 @@
       <c r="K54" s="1" t="n">
         <v>0.171532846715</v>
       </c>
-      <c r="M54" s="46" t="s">
-        <v>374</v>
+      <c r="M54" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="N54" s="1" t="n">
         <v>1</v>
@@ -12268,8 +12340,8 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="46" t="s">
-        <v>372</v>
+      <c r="A55" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>6</v>
@@ -12277,8 +12349,8 @@
       <c r="C55" s="1" t="n">
         <v>0.295857988166</v>
       </c>
-      <c r="E55" s="46" t="s">
-        <v>372</v>
+      <c r="E55" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>6</v>
@@ -12286,8 +12358,8 @@
       <c r="G55" s="1" t="n">
         <v>0.302325581395</v>
       </c>
-      <c r="I55" s="46" t="s">
-        <v>374</v>
+      <c r="I55" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>2</v>
@@ -12295,8 +12367,8 @@
       <c r="K55" s="1" t="n">
         <v>0.221264367816</v>
       </c>
-      <c r="M55" s="46" t="s">
-        <v>374</v>
+      <c r="M55" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="N55" s="1" t="n">
         <v>2</v>
@@ -12310,8 +12382,8 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="46" t="s">
-        <v>372</v>
+      <c r="A56" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>7</v>
@@ -12319,8 +12391,8 @@
       <c r="C56" s="1" t="n">
         <v>0.345389377647</v>
       </c>
-      <c r="E56" s="46" t="s">
-        <v>372</v>
+      <c r="E56" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>7</v>
@@ -12328,8 +12400,8 @@
       <c r="G56" s="1" t="n">
         <v>0.318656716418</v>
       </c>
-      <c r="I56" s="46" t="s">
-        <v>374</v>
+      <c r="I56" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>3</v>
@@ -12337,8 +12409,8 @@
       <c r="K56" s="1" t="n">
         <v>0.301687065829</v>
       </c>
-      <c r="M56" s="46" t="s">
-        <v>374</v>
+      <c r="M56" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="N56" s="1" t="n">
         <v>3</v>
@@ -12352,8 +12424,8 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="46" t="s">
-        <v>372</v>
+      <c r="A57" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>12</v>
@@ -12361,8 +12433,8 @@
       <c r="C57" s="1" t="n">
         <v>0.850067802606</v>
       </c>
-      <c r="E57" s="46" t="s">
-        <v>372</v>
+      <c r="E57" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>12</v>
@@ -12370,8 +12442,8 @@
       <c r="G57" s="1" t="n">
         <v>0.840415486308</v>
       </c>
-      <c r="I57" s="46" t="s">
-        <v>374</v>
+      <c r="I57" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>5</v>
@@ -12379,8 +12451,8 @@
       <c r="K57" s="1" t="n">
         <v>0.210690596957</v>
       </c>
-      <c r="M57" s="46" t="s">
-        <v>374</v>
+      <c r="M57" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="N57" s="1" t="n">
         <v>5</v>
@@ -12394,8 +12466,8 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="46" t="s">
-        <v>373</v>
+      <c r="A58" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>0</v>
@@ -12403,8 +12475,8 @@
       <c r="C58" s="1" t="n">
         <v>0.250269687163</v>
       </c>
-      <c r="E58" s="46" t="s">
-        <v>373</v>
+      <c r="E58" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>0</v>
@@ -12412,8 +12484,8 @@
       <c r="G58" s="1" t="n">
         <v>0.229408792319</v>
       </c>
-      <c r="I58" s="46" t="s">
-        <v>374</v>
+      <c r="I58" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="J58" s="1" t="n">
         <v>6</v>
@@ -12421,8 +12493,8 @@
       <c r="K58" s="1" t="n">
         <v>0.196775255018</v>
       </c>
-      <c r="M58" s="46" t="s">
-        <v>374</v>
+      <c r="M58" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="N58" s="1" t="n">
         <v>6</v>
@@ -12436,8 +12508,8 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="46" t="s">
-        <v>373</v>
+      <c r="A59" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>1</v>
@@ -12445,8 +12517,8 @@
       <c r="C59" s="1" t="n">
         <v>0.324441240087</v>
       </c>
-      <c r="E59" s="46" t="s">
-        <v>373</v>
+      <c r="E59" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>1</v>
@@ -12454,8 +12526,8 @@
       <c r="G59" s="1" t="n">
         <v>0.267498885421</v>
       </c>
-      <c r="I59" s="46" t="s">
-        <v>374</v>
+      <c r="I59" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="J59" s="1" t="n">
         <v>7</v>
@@ -12463,8 +12535,8 @@
       <c r="K59" s="1" t="n">
         <v>0.156965336821</v>
       </c>
-      <c r="M59" s="46" t="s">
-        <v>374</v>
+      <c r="M59" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="N59" s="1" t="n">
         <v>7</v>
@@ -12478,8 +12550,8 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="46" t="s">
-        <v>373</v>
+      <c r="A60" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2</v>
@@ -12487,8 +12559,8 @@
       <c r="C60" s="1" t="n">
         <v>0.266412940057</v>
       </c>
-      <c r="E60" s="46" t="s">
-        <v>373</v>
+      <c r="E60" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>2</v>
@@ -12498,8 +12570,8 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="46" t="s">
-        <v>373</v>
+      <c r="A61" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>3</v>
@@ -12507,8 +12579,8 @@
       <c r="C61" s="1" t="n">
         <v>0.296150049358</v>
       </c>
-      <c r="E61" s="46" t="s">
-        <v>373</v>
+      <c r="E61" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>3</v>
@@ -12518,8 +12590,8 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="46" t="s">
-        <v>373</v>
+      <c r="A62" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>4</v>
@@ -12527,8 +12599,8 @@
       <c r="C62" s="1" t="n">
         <v>0.842689989363</v>
       </c>
-      <c r="E62" s="46" t="s">
-        <v>373</v>
+      <c r="E62" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>4</v>
@@ -12538,8 +12610,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="46" t="s">
-        <v>373</v>
+      <c r="A63" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>5</v>
@@ -12547,8 +12619,8 @@
       <c r="C63" s="1" t="n">
         <v>0.22844126261</v>
       </c>
-      <c r="E63" s="46" t="s">
-        <v>373</v>
+      <c r="E63" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>5</v>
@@ -12558,8 +12630,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="46" t="s">
-        <v>373</v>
+      <c r="A64" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>6</v>
@@ -12567,8 +12639,8 @@
       <c r="C64" s="1" t="n">
         <v>0.292492687683</v>
       </c>
-      <c r="E64" s="46" t="s">
-        <v>373</v>
+      <c r="E64" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>6</v>
@@ -12578,8 +12650,8 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="46" t="s">
-        <v>373</v>
+      <c r="A65" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>7</v>
@@ -12587,8 +12659,8 @@
       <c r="C65" s="1" t="n">
         <v>0.23265940902</v>
       </c>
-      <c r="E65" s="46" t="s">
-        <v>373</v>
+      <c r="E65" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>7</v>
@@ -12598,8 +12670,8 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="46" t="s">
-        <v>373</v>
+      <c r="A66" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>12</v>
@@ -12607,8 +12679,8 @@
       <c r="C66" s="1" t="n">
         <v>0.837181903864</v>
       </c>
-      <c r="E66" s="46" t="s">
-        <v>373</v>
+      <c r="E66" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>12</v>
@@ -12618,8 +12690,8 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="46" t="s">
-        <v>374</v>
+      <c r="A67" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>0</v>
@@ -12627,8 +12699,8 @@
       <c r="C67" s="1" t="n">
         <v>0.306393244873</v>
       </c>
-      <c r="E67" s="46" t="s">
-        <v>374</v>
+      <c r="E67" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>0</v>
@@ -12638,8 +12710,8 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="46" t="s">
-        <v>374</v>
+      <c r="A68" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>1</v>
@@ -12647,8 +12719,8 @@
       <c r="C68" s="1" t="n">
         <v>0.171532846715</v>
       </c>
-      <c r="E68" s="46" t="s">
-        <v>374</v>
+      <c r="E68" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>1</v>
@@ -12658,8 +12730,8 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="46" t="s">
-        <v>374</v>
+      <c r="A69" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>2</v>
@@ -12667,8 +12739,8 @@
       <c r="C69" s="1" t="n">
         <v>0.221264367816</v>
       </c>
-      <c r="E69" s="46" t="s">
-        <v>374</v>
+      <c r="E69" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>2</v>
@@ -12678,8 +12750,8 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="46" t="s">
-        <v>374</v>
+      <c r="A70" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>3</v>
@@ -12687,8 +12759,8 @@
       <c r="C70" s="1" t="n">
         <v>0.301687065829</v>
       </c>
-      <c r="E70" s="46" t="s">
-        <v>374</v>
+      <c r="E70" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>3</v>
@@ -12698,8 +12770,8 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="46" t="s">
-        <v>374</v>
+      <c r="A71" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>4</v>
@@ -12707,8 +12779,8 @@
       <c r="C71" s="1" t="n">
         <v>0.855546687949</v>
       </c>
-      <c r="E71" s="46" t="s">
-        <v>374</v>
+      <c r="E71" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F71" s="1" t="n">
         <v>4</v>
@@ -12718,8 +12790,8 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="46" t="s">
-        <v>374</v>
+      <c r="A72" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>5</v>
@@ -12727,8 +12799,8 @@
       <c r="C72" s="1" t="n">
         <v>0.210690596957</v>
       </c>
-      <c r="E72" s="46" t="s">
-        <v>374</v>
+      <c r="E72" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F72" s="1" t="n">
         <v>5</v>
@@ -12738,8 +12810,8 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="46" t="s">
-        <v>374</v>
+      <c r="A73" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>6</v>
@@ -12747,8 +12819,8 @@
       <c r="C73" s="1" t="n">
         <v>0.196775255018</v>
       </c>
-      <c r="E73" s="46" t="s">
-        <v>374</v>
+      <c r="E73" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F73" s="1" t="n">
         <v>6</v>
@@ -12758,8 +12830,8 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="46" t="s">
-        <v>374</v>
+      <c r="A74" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>7</v>
@@ -12767,8 +12839,8 @@
       <c r="C74" s="1" t="n">
         <v>0.156965336821</v>
       </c>
-      <c r="E74" s="46" t="s">
-        <v>374</v>
+      <c r="E74" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>7</v>
@@ -12778,8 +12850,8 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="46" t="s">
-        <v>374</v>
+      <c r="A75" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>12</v>
@@ -12787,8 +12859,8 @@
       <c r="C75" s="1" t="n">
         <v>0.827683615819</v>
       </c>
-      <c r="E75" s="46" t="s">
-        <v>374</v>
+      <c r="E75" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>12</v>
@@ -12824,9 +12896,9 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.2551020408163"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -13195,7 +13267,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13739,7 +13811,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14523,6 +14595,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
@@ -14646,7 +14721,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20296,7 +20371,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20810,6 +20885,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
